--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39B166-F992-4CA5-B39E-C04AF91130CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A3578-3EF1-4FB0-B4CE-33EA5C56C27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="7500" windowHeight="11505" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="8850" yWindow="1770" windowWidth="7500" windowHeight="13860" activeTab="2" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="5" r:id="rId1"/>
-    <sheet name="Goals" sheetId="6" r:id="rId2"/>
+    <sheet name="Curved" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Goals" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="208">
   <si>
     <t>Brand</t>
   </si>
@@ -559,6 +561,105 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>XG43VQ</t>
+  </si>
+  <si>
+    <t>VG27WQ</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>1800R</t>
+  </si>
+  <si>
+    <t>1500R</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>1.67 M</t>
+  </si>
+  <si>
+    <t>3840 x 1200</t>
+  </si>
+  <si>
+    <t>3K:1</t>
+  </si>
+  <si>
+    <t>120 Hz</t>
+  </si>
+  <si>
+    <t>165 Hz</t>
+  </si>
+  <si>
+    <t>FreeSync 2</t>
+  </si>
+  <si>
+    <t>Alienware</t>
+  </si>
+  <si>
+    <t>AW3418DW</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>AG352UCG6-BE</t>
+  </si>
+  <si>
+    <t>AOC*</t>
+  </si>
+  <si>
+    <t>BE-Black Edition</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>MPG341CQR</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>34GK950F-B</t>
+  </si>
+  <si>
+    <t>PG35VQ</t>
+  </si>
+  <si>
+    <t>PG27VQ</t>
+  </si>
+  <si>
+    <t>PG349Q</t>
+  </si>
+  <si>
+    <t>PA34VC</t>
+  </si>
+  <si>
+    <t>VP28UQGL</t>
+  </si>
+  <si>
+    <t>VG248QG</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>XG49VQ</t>
+  </si>
+  <si>
+    <t>XG35VQ</t>
   </si>
 </sst>
 </file>
@@ -568,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +725,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -712,298 +819,22 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="173">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1119,6 +950,583 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1133,86 +1541,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="172">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="66"/>
-    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="65"/>
-    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="64"/>
-    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="63"/>
-    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="62"/>
-    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="61"/>
-    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="60"/>
-    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="59"/>
-    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="58"/>
-    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="57"/>
-    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="56"/>
-    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="55"/>
-    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="54"/>
-    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="53"/>
-    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="52"/>
-    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="51"/>
-    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="50"/>
-    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="49"/>
-    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="48"/>
-    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="47"/>
-    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="46"/>
-    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="45"/>
-    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="44"/>
-    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="43"/>
-    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="42"/>
-    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="41"/>
-    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="40"/>
-    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="39"/>
-    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="38"/>
-    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="37"/>
-    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="36"/>
-    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="35"/>
-    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="34"/>
-    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="33"/>
-    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="32"/>
-    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="31"/>
-    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="30"/>
-    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="29"/>
-    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="28"/>
-    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="27"/>
-    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="26"/>
-    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="25"/>
-    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="24"/>
-    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="23"/>
-    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="22"/>
-    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="21"/>
-    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="20"/>
-    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="19"/>
-    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="18"/>
-    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="17"/>
-    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="16"/>
-    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="15"/>
-    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="14"/>
-    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="13"/>
-    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="12"/>
-    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="11"/>
-    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="10"/>
-    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="9"/>
-    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="8"/>
-    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="7"/>
-    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="6"/>
-    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="5"/>
-    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="167"/>
+    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="165"/>
+    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="164"/>
+    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="163"/>
+    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="162"/>
+    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="161"/>
+    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="160"/>
+    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="159"/>
+    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="158"/>
+    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="157"/>
+    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="156"/>
+    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="155"/>
+    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="154"/>
+    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="153"/>
+    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="152"/>
+    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="151"/>
+    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="150"/>
+    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="149"/>
+    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="148"/>
+    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="147"/>
+    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="146"/>
+    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="145"/>
+    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="144"/>
+    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="143"/>
+    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="142"/>
+    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="141"/>
+    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="140"/>
+    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="139"/>
+    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="138"/>
+    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="137"/>
+    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="136"/>
+    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="135"/>
+    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="134"/>
+    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="133"/>
+    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="132"/>
+    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="131"/>
+    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="130"/>
+    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="129"/>
+    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="128"/>
+    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="127"/>
+    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="126"/>
+    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="125"/>
+    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="124"/>
+    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="123"/>
+    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="122"/>
+    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="121"/>
+    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="120"/>
+    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="119"/>
+    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="118"/>
+    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="117"/>
+    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="116"/>
+    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="115"/>
+    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="114"/>
+    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="113"/>
+    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="112"/>
+    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="111"/>
+    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="110"/>
+    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="109"/>
+    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="108"/>
+    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="107"/>
+    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="106"/>
+    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="105"/>
+    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="104"/>
+    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="103"/>
+    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="102"/>
+    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="101"/>
+    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="100"/>
+    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="99"/>
+    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="98"/>
+    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="97"/>
+    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="96"/>
+    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,24 +1631,141 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
+  <tableColumns count="77">
+    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="75"/>
+    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="74"/>
+    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="73"/>
+    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="72"/>
+    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="71"/>
+    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="70"/>
+    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="69"/>
+    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="68"/>
+    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="67"/>
+    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="66"/>
+    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="65"/>
+    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="64"/>
+    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="63"/>
+    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="62"/>
+    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="61"/>
+    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="60"/>
+    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="59"/>
+    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="58"/>
+    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="57"/>
+    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="56"/>
+    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="55"/>
+    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="54"/>
+    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="53"/>
+    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="52"/>
+    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="51"/>
+    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="50"/>
+    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="49"/>
+    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="48"/>
+    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="47"/>
+    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="46"/>
+    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="45"/>
+    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="44"/>
+    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="43"/>
+    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="42"/>
+    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="41"/>
+    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="40"/>
+    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="39"/>
+    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="38"/>
+    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="37"/>
+    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="36"/>
+    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="35"/>
+    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="34"/>
+    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="33"/>
+    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="32"/>
+    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="31"/>
+    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="30"/>
+    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="29"/>
+    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="28"/>
+    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="27"/>
+    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="26"/>
+    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="25"/>
+    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="24"/>
+    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="23"/>
+    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="22"/>
+    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="21"/>
+    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="20"/>
+    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="19"/>
+    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="18"/>
+    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="17"/>
+    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="16"/>
+    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="15"/>
+    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="14"/>
+    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="13"/>
+    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4D3A90C-CE6C-4F3C-B2D6-4A24ABDBAB95}" name="Table104" displayName="Table104" ref="A30:F39" totalsRowShown="0">
+  <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
+    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EAF84475-BB30-49F3-B2BE-49CF1109C8C6}" name="Table4" displayName="Table4" ref="A1:D36" totalsRowShown="0">
+  <autoFilter ref="A1:D36" xr:uid="{0C372BF4-768F-4B74-AA7B-410BB19EE1B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A2D6EDAE-FBD5-4796-94BD-680F722D6F11}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{E62919F3-2CA5-4278-8011-57A6A477B85C}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{2AB90EFE-619B-4F73-9E6E-6A585C5BF683}" name="Date"/>
+    <tableColumn id="4" xr3:uid="{A39605F7-FAAB-4535-BEEE-F150EBFE9342}" name="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3B0B8F-BFAE-4978-8BC3-BB4B1F35045E}">
   <dimension ref="A1:BY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,6 +3270,1365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF67AB0-C62D-4725-9C37-314EFBDA1EAC}">
+  <dimension ref="A1:BY39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="A45:B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="77" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
+        <v>23</v>
+      </c>
+      <c r="C4" s="23">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>34</v>
+      </c>
+      <c r="F4" s="20">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3800</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f>"6+2"</f>
+        <v>6+2</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>"8+2"</f>
+        <v>8+2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>"43:18"</f>
+        <v>43:18</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>"64:27"</f>
+        <v>64:27</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f>"2:37:1"</f>
+        <v>2:37:1</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"3:2:1"</f>
+        <v>3:2:1</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.311</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="23">
+        <v>95</v>
+      </c>
+      <c r="C13" s="23">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1">
+        <v>82</v>
+      </c>
+      <c r="F13" s="20">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
+        <v>92</v>
+      </c>
+      <c r="H13" s="1">
+        <v>108</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2073600</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2073600</v>
+      </c>
+      <c r="D14" s="16">
+        <v>4953600</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2764800</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23">
+        <v>250</v>
+      </c>
+      <c r="C15" s="23">
+        <v>300</v>
+      </c>
+      <c r="D15" s="1">
+        <v>300</v>
+      </c>
+      <c r="E15" s="1">
+        <v>250</v>
+      </c>
+      <c r="F15" s="20">
+        <v>250</v>
+      </c>
+      <c r="G15" s="1">
+        <v>380</v>
+      </c>
+      <c r="H15" s="1">
+        <v>400</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+    </row>
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10">
+        <v>95.78</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2073600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="17">
+        <v>24</v>
+      </c>
+      <c r="C32" s="17">
+        <v>91.79</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.2767</v>
+      </c>
+      <c r="E32" s="18" t="str">
+        <f t="shared" ref="E32:E34" si="0">"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="F32" s="19">
+        <v>2073600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>89.91</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>16:9</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2073600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10">
+        <v>27</v>
+      </c>
+      <c r="C34" s="10">
+        <v>81.59</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>16:9</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2073600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>81.72</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f>"64:27"</f>
+        <v>64:27</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2764800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="17">
+        <v>27</v>
+      </c>
+      <c r="C36" s="17">
+        <v>108.79</v>
+      </c>
+      <c r="D36" s="17">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="E36" s="18" t="str">
+        <f>"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="F36" s="19">
+        <v>3686400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>109.68</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.2316</v>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f>"43:18"</f>
+        <v>43:18</v>
+      </c>
+      <c r="F37" s="7">
+        <v>4953600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1">
+        <v>157.35</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f>"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8294400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <v>137.68</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.1845</v>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f>"16:9"</f>
+        <v>16:9</v>
+      </c>
+      <c r="F39" s="7">
+        <v>8294400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A53B669-D3B6-46F3-B717-2EDED95D9FE1}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="25">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B34">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9FC580-22E3-4F00-B243-C9A0438EE228}">
   <dimension ref="A1:D21"/>
   <sheetViews>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A3578-3EF1-4FB0-B4CE-33EA5C56C27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88975D9-E1ED-4029-91D4-BB092DDD9FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8850" yWindow="1770" windowWidth="7500" windowHeight="13860" activeTab="2" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="250">
   <si>
     <t>Brand</t>
   </si>
@@ -611,15 +611,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>AG352UCG6-BE</t>
-  </si>
-  <si>
-    <t>AOC*</t>
-  </si>
-  <si>
-    <t>BE-Black Edition</t>
-  </si>
-  <si>
     <t>MSI</t>
   </si>
   <si>
@@ -660,6 +651,141 @@
   </si>
   <si>
     <t>XG35VQ</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>MONOPRICE</t>
+  </si>
+  <si>
+    <t>PIXIO</t>
+  </si>
+  <si>
+    <t>CG437K</t>
+  </si>
+  <si>
+    <t>SB230</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>XB273K</t>
+  </si>
+  <si>
+    <t>XR382CQK</t>
+  </si>
+  <si>
+    <t>AW3420DW</t>
+  </si>
+  <si>
+    <t>AW5520QF</t>
+  </si>
+  <si>
+    <t>AG271QG</t>
+  </si>
+  <si>
+    <t>AG322QC4</t>
+  </si>
+  <si>
+    <t>AG352UCG6</t>
+  </si>
+  <si>
+    <t>CU34G2X</t>
+  </si>
+  <si>
+    <t>MG279Q</t>
+  </si>
+  <si>
+    <t>PG279Q</t>
+  </si>
+  <si>
+    <t>PG279QZ</t>
+  </si>
+  <si>
+    <t>PG27UQ</t>
+  </si>
+  <si>
+    <t>VG27AQ</t>
+  </si>
+  <si>
+    <t>EX3203R</t>
+  </si>
+  <si>
+    <t>PD3200U</t>
+  </si>
+  <si>
+    <t>XL2411P</t>
+  </si>
+  <si>
+    <t>XL2540</t>
+  </si>
+  <si>
+    <t>S2716DG</t>
+  </si>
+  <si>
+    <t>U3417W</t>
+  </si>
+  <si>
+    <t>24MP59G-P</t>
+  </si>
+  <si>
+    <t>27GL850</t>
+  </si>
+  <si>
+    <t>34GK950F</t>
+  </si>
+  <si>
+    <t>38GL950G</t>
+  </si>
+  <si>
+    <t>ZERO-G</t>
+  </si>
+  <si>
+    <t>MAG271CR</t>
+  </si>
+  <si>
+    <t>MPG27CQ</t>
+  </si>
+  <si>
+    <t>PXC273</t>
+  </si>
+  <si>
+    <t>C32HG70</t>
+  </si>
+  <si>
+    <t>C49RG9</t>
+  </si>
+  <si>
+    <t>XG2401</t>
+  </si>
+  <si>
+    <t>XG2402</t>
+  </si>
+  <si>
+    <t>PG348Q</t>
+  </si>
+  <si>
+    <t>2 Mentions.</t>
+  </si>
+  <si>
+    <t>3 Mentions.</t>
+  </si>
+  <si>
+    <t>2 Mentions. BE-Black Edition</t>
+  </si>
+  <si>
+    <t>5 Mentions.</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Rates</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -732,12 +858,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -753,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -820,6 +952,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1743,15 +1877,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EAF84475-BB30-49F3-B2BE-49CF1109C8C6}" name="Table4" displayName="Table4" ref="A1:D36" totalsRowShown="0">
-  <autoFilter ref="A1:D36" xr:uid="{0C372BF4-768F-4B74-AA7B-410BB19EE1B0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-    <sortCondition ref="A1:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EAF84475-BB30-49F3-B2BE-49CF1109C8C6}" name="Table4" displayName="Table4" ref="A1:G57" totalsRowShown="0">
+  <autoFilter ref="A1:G57" xr:uid="{0C372BF4-768F-4B74-AA7B-410BB19EE1B0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G57">
+    <sortCondition ref="A1:A57"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A2D6EDAE-FBD5-4796-94BD-680F722D6F11}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{E62919F3-2CA5-4278-8011-57A6A477B85C}" name="Model"/>
     <tableColumn id="3" xr3:uid="{2AB90EFE-619B-4F73-9E6E-6A585C5BF683}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{68C74940-CC62-45D8-8E5D-68577128607F}" name="Eggs"/>
+    <tableColumn id="6" xr3:uid="{26327F6D-20D9-40AB-9641-90E17D319659}" name="Rates"/>
+    <tableColumn id="7" xr3:uid="{D0765F6B-6431-4423-BA7C-D7542DD73453}" name="Cost"/>
     <tableColumn id="4" xr3:uid="{A39605F7-FAAB-4535-BEEE-F150EBFE9342}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4414,21 +4551,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A53B669-D3B6-46F3-B717-2EDED95D9FE1}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4436,189 +4576,750 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="27">
+        <v>43887</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="25">
+        <v>43482</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>729.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="25">
+        <v>43875</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>859.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="25">
+        <v>43855</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>509.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43591</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>905.99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="25">
+        <v>43811</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>644.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="25">
-        <v>43648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="25">
-        <v>43885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C13" s="25">
+        <v>43591</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>977.99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="25">
+        <v>43409</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>624</v>
+      </c>
+      <c r="F14">
+        <v>498.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="25">
+        <v>43721</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>624</v>
+      </c>
+      <c r="F15">
+        <v>650.92999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="25">
+        <v>43872</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1605.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="25">
+        <v>43406</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>624</v>
+      </c>
+      <c r="F17">
+        <v>1292.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>196</v>
       </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" s="25">
+        <v>43045</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>624</v>
+      </c>
+      <c r="F18">
+        <v>579.99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="25">
+        <v>42485</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>624</v>
+      </c>
+      <c r="F19">
+        <v>675.99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
+        <v>43640</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>841.75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="25">
+        <v>43731</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>2499.9899999999998</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="25">
+        <v>43648</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26">
+        <v>4</v>
+      </c>
+      <c r="E23" s="26">
+        <v>81</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="25">
+        <v>43885</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B34">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ABE89B-845E-47CC-BEEF-4CA805E4FFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FE2A6-E7A5-4125-B4E7-ED74A569E9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15555" activeTab="3" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1190">
   <si>
     <t>Brand</t>
   </si>
@@ -3596,6 +3596,18 @@
   </si>
   <si>
     <t>MAG272CQR</t>
+  </si>
+  <si>
+    <t>Thermaltake </t>
+  </si>
+  <si>
+    <t>Commander C31</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>ROG Strix Z390-F</t>
   </si>
 </sst>
 </file>
@@ -7677,7 +7689,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7991,7 +8003,7 @@
       <c r="A21" t="s">
         <v>210</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="29" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -8014,6 +8026,12 @@
       <c r="A23" t="s">
         <v>212</v>
       </c>
+      <c r="B23" s="29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1189</v>
+      </c>
       <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8044,7 +8062,15 @@
       <c r="A28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="B28" s="29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D28" s="27">
+        <v>109.99</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -8062,7 +8088,7 @@
       <c r="A31" t="s">
         <v>219</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="29" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="29" t="s">
@@ -8076,7 +8102,7 @@
       <c r="A32" t="s">
         <v>219</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="29" t="s">
         <v>194</v>
       </c>
       <c r="C32" s="29" t="s">
@@ -8112,7 +8138,7 @@
       </c>
       <c r="D35" s="30">
         <f>SUBTOTAL(109,Table57[Cost])</f>
-        <v>1329.97</v>
+        <v>1439.96</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table57[Notes])</f>
@@ -8139,12 +8165,18 @@
     <hyperlink ref="C21" r:id="rId16" xr:uid="{D3193845-31F4-4EEC-AF19-B998F9F8A650}"/>
     <hyperlink ref="C31" r:id="rId17" xr:uid="{2D1E2093-B0AD-4E40-AE74-A0824427036A}"/>
     <hyperlink ref="C32" r:id="rId18" xr:uid="{FC332AAC-0204-42E5-8DAA-FBCC0F4E747D}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{A77A9479-7657-4301-AFF4-DCCE70D62627}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{0C2C02E8-B6BD-44A9-8DE1-9173D86C8618}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{F8F7755E-D63F-4B44-988D-DC38BA06B822}"/>
+    <hyperlink ref="B21" r:id="rId22" xr:uid="{8746CB26-F989-4CFE-82D7-DE2D7B0E0E78}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{A7A0B690-B77F-44F7-8B81-88DEBADE979B}"/>
+    <hyperlink ref="B32" r:id="rId24" xr:uid="{822378AB-39B5-446A-B107-7362826D90F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="2">
-    <tablePart r:id="rId20"/>
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32FE2A6-E7A5-4125-B4E7-ED74A569E9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFEE92-B53D-45D0-9A82-2A837B7A1D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15555" activeTab="3" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="8850" yWindow="1770" windowWidth="7500" windowHeight="13860" activeTab="3" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1192">
   <si>
     <t>Brand</t>
   </si>
@@ -3608,6 +3608,12 @@
   </si>
   <si>
     <t>ROG Strix Z390-F</t>
+  </si>
+  <si>
+    <t>ML240P Mirage</t>
+  </si>
+  <si>
+    <t>Check prices elsewhere.  Was originally like $50 less.</t>
   </si>
 </sst>
 </file>
@@ -3799,16 +3805,6 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -3963,6 +3959,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -4773,13 +4779,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4787,7 +4793,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="11">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
@@ -4804,10 +4810,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
   <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
-    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4815,13 +4821,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7675,7 +7681,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1:B34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7689,7 +7695,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,7 +8026,15 @@
       <c r="A22" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="B22" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D22" s="27">
+        <v>149.99</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8029,10 +8043,15 @@
       <c r="B23" s="29" t="s">
         <v>1188</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="29" t="s">
         <v>1189</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27">
+        <v>296.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -8138,7 +8157,7 @@
       </c>
       <c r="D35" s="30">
         <f>SUBTOTAL(109,Table57[Cost])</f>
-        <v>1439.96</v>
+        <v>1886.45</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table57[Notes])</f>
@@ -8171,12 +8190,15 @@
     <hyperlink ref="B21" r:id="rId22" xr:uid="{8746CB26-F989-4CFE-82D7-DE2D7B0E0E78}"/>
     <hyperlink ref="B31" r:id="rId23" xr:uid="{A7A0B690-B77F-44F7-8B81-88DEBADE979B}"/>
     <hyperlink ref="B32" r:id="rId24" xr:uid="{822378AB-39B5-446A-B107-7362826D90F2}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{FAB88813-99FC-4672-822F-77DC5FCD1283}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{7B4FAEFC-F092-43CC-946B-221CAE6F964C}"/>
+    <hyperlink ref="C23" r:id="rId27" xr:uid="{68968BC9-DEB2-4BF1-8055-E804C74E9173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <tableParts count="2">
-    <tablePart r:id="rId26"/>
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6D538-EC3D-443D-BE94-9CAFCD3D6804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E4DB8-BBE4-47FC-9D16-720AB16AEC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="1770" windowWidth="7500" windowHeight="13860" firstSheet="1" activeTab="4" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="7140" yWindow="2355" windowWidth="28800" windowHeight="15555" firstSheet="1" activeTab="4" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1236">
   <si>
     <t>Brand</t>
   </si>
@@ -3743,6 +3743,9 @@
   </si>
   <si>
     <t>F4-3000C16D-16GTZR</t>
+  </si>
+  <si>
+    <t>F4-3200C16Q-128GTRS</t>
   </si>
 </sst>
 </file>
@@ -3819,12 +3822,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3842,7 +3851,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3917,6 +3926,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3924,15 +3937,55 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="181">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -4056,36 +4109,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -4678,86 +4701,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="180">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="175"/>
-    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="174"/>
-    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="173"/>
-    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="172"/>
-    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="171"/>
-    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="170"/>
-    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="169"/>
-    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="168"/>
-    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="167"/>
-    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="166"/>
-    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="165"/>
-    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="164"/>
-    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="163"/>
-    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="162"/>
-    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="161"/>
-    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="160"/>
-    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="159"/>
-    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="158"/>
-    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="157"/>
-    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="156"/>
-    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="155"/>
-    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="154"/>
-    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="153"/>
-    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="152"/>
-    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="151"/>
-    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="150"/>
-    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="149"/>
-    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="148"/>
-    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="147"/>
-    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="146"/>
-    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="145"/>
-    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="144"/>
-    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="143"/>
-    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="142"/>
-    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="141"/>
-    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="140"/>
-    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="139"/>
-    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="138"/>
-    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="137"/>
-    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="136"/>
-    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="135"/>
-    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="134"/>
-    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="133"/>
-    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="132"/>
-    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="131"/>
-    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="130"/>
-    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="129"/>
-    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="128"/>
-    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="127"/>
-    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="126"/>
-    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="125"/>
-    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="124"/>
-    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="123"/>
-    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="122"/>
-    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="121"/>
-    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="120"/>
-    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="119"/>
-    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="118"/>
-    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="117"/>
-    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="116"/>
-    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="115"/>
-    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="114"/>
-    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="113"/>
-    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="112"/>
-    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="111"/>
-    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="110"/>
-    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="109"/>
-    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="108"/>
-    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="107"/>
-    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="106"/>
-    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="105"/>
-    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="104"/>
-    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="103"/>
-    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="174"/>
+    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="173"/>
+    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="172"/>
+    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="171"/>
+    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="170"/>
+    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="169"/>
+    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="168"/>
+    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="167"/>
+    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="166"/>
+    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="165"/>
+    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="164"/>
+    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="163"/>
+    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="162"/>
+    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="161"/>
+    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="160"/>
+    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="159"/>
+    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="158"/>
+    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="157"/>
+    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="156"/>
+    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="155"/>
+    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="154"/>
+    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="153"/>
+    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="152"/>
+    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="151"/>
+    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="150"/>
+    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="149"/>
+    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="148"/>
+    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="147"/>
+    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="146"/>
+    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="145"/>
+    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="144"/>
+    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="143"/>
+    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="142"/>
+    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="141"/>
+    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="140"/>
+    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="139"/>
+    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="138"/>
+    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="137"/>
+    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="136"/>
+    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="135"/>
+    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="134"/>
+    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="133"/>
+    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="132"/>
+    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="131"/>
+    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="130"/>
+    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="129"/>
+    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="128"/>
+    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="127"/>
+    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="126"/>
+    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="125"/>
+    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="124"/>
+    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="123"/>
+    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="122"/>
+    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="121"/>
+    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="120"/>
+    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="119"/>
+    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="118"/>
+    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="117"/>
+    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="116"/>
+    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="115"/>
+    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="114"/>
+    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="113"/>
+    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="112"/>
+    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="111"/>
+    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="110"/>
+    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="109"/>
+    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="108"/>
+    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="107"/>
+    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="106"/>
+    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="105"/>
+    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="104"/>
+    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4768,97 +4791,97 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="97">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="80"/>
-    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="79"/>
-    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="78"/>
-    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="76"/>
-    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="73"/>
-    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="72"/>
-    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="71"/>
-    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="70"/>
-    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="69"/>
-    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="68"/>
-    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="67"/>
-    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="66"/>
-    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="64"/>
-    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="63"/>
-    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="62"/>
-    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="61"/>
-    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="60"/>
-    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="59"/>
-    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="56"/>
-    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="55"/>
-    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="54"/>
-    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="53"/>
-    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="52"/>
-    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="51"/>
-    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="50"/>
-    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="49"/>
-    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="48"/>
-    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="47"/>
-    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="46"/>
-    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="45"/>
-    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="44"/>
-    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="43"/>
-    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="42"/>
-    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="41"/>
-    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="40"/>
-    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="39"/>
-    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="38"/>
-    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="37"/>
-    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="36"/>
-    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="35"/>
-    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="34"/>
-    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="33"/>
-    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="32"/>
-    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="31"/>
-    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="30"/>
-    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="29"/>
-    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="28"/>
-    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="27"/>
-    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="26"/>
-    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="25"/>
-    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="24"/>
-    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="23"/>
-    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="22"/>
-    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="21"/>
-    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="20"/>
-    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="80"/>
+    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="76"/>
+    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="74"/>
+    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="73"/>
+    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="72"/>
+    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="71"/>
+    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="70"/>
+    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="67"/>
+    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="65"/>
+    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="64"/>
+    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="63"/>
+    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="62"/>
+    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="61"/>
+    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="60"/>
+    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="59"/>
+    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="58"/>
+    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="57"/>
+    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="56"/>
+    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="55"/>
+    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="54"/>
+    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="53"/>
+    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="52"/>
+    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="51"/>
+    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="50"/>
+    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="49"/>
+    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="48"/>
+    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="47"/>
+    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="46"/>
+    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="45"/>
+    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="44"/>
+    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="43"/>
+    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="42"/>
+    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="41"/>
+    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="40"/>
+    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="39"/>
+    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="38"/>
+    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="37"/>
+    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="36"/>
+    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="35"/>
+    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="34"/>
+    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="33"/>
+    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="32"/>
+    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="31"/>
+    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="30"/>
+    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="29"/>
+    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="28"/>
+    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="27"/>
+    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="26"/>
+    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="25"/>
+    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="24"/>
+    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="23"/>
+    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="22"/>
+    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="21"/>
+    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4869,11 +4892,11 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4883,10 +4906,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
   <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="14"/>
     <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
-    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4894,23 +4917,23 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5606A5D8-2EA0-447B-A571-F7B47FF3908F}" name="Table4" displayName="Table4" ref="A1:K39" totalsRowShown="0">
-  <autoFilter ref="A1:K39" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
-    <sortCondition ref="I1:I39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5606A5D8-2EA0-447B-A571-F7B47FF3908F}" name="Table4" displayName="Table4" ref="A1:K41" totalsRowShown="0">
+  <autoFilter ref="A1:K41" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
+    <sortCondition descending="1" ref="H1:H41"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EF71F6E3-2CB3-4E43-B2BB-70934CEFA2C9}" name="Brand"/>
@@ -4919,7 +4942,7 @@
     <tableColumn id="9" xr3:uid="{304B8110-80AD-4727-B6B3-CA90E2C7B907}" name="Timing"/>
     <tableColumn id="6" xr3:uid="{26CDA6F6-C7D5-4803-8D91-8C552C1CDE40}" name="Ttl GB"/>
     <tableColumn id="4" xr3:uid="{8C3664EF-1677-4847-B766-84E1F14D476C}" name="Sticks"/>
-    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7284CDCA-952F-4E3B-863A-95C36699F7FE}" name="Cost" dataCellStyle="Currency"/>
@@ -4934,7 +4957,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
@@ -4948,7 +4971,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
@@ -19930,10 +19953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64173DE6-CFC5-4B3D-9EC1-FA6AF9AF1418}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19987,71 +20010,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
         <v>1182</v>
       </c>
-      <c r="B2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C2">
-        <v>2666</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3200</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E2" s="34">
         <v>128</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="34">
         <v>4</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="35">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>32</v>
       </c>
-      <c r="H2" s="26">
-        <v>569.99</v>
-      </c>
-      <c r="I2" s="26">
+      <c r="H2" s="36">
+        <v>699.99</v>
+      </c>
+      <c r="I2" s="36">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.4530468750000001</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>1203</v>
-      </c>
+        <v>5.4686718750000001</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B3" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="C3">
-        <v>2666</v>
+        <v>3200</v>
       </c>
       <c r="D3" t="s">
-        <v>1223</v>
+        <v>1186</v>
       </c>
       <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>32</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
       <c r="H3" s="26">
-        <v>158.99</v>
+        <v>659.99</v>
       </c>
       <c r="I3" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9684375000000003</v>
+        <v>5.1561718750000001</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>1222</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -20059,33 +20083,33 @@
         <v>1182</v>
       </c>
       <c r="B4" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D4" t="s">
         <v>1186</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H4" s="26">
-        <v>159.99</v>
+        <v>659.99</v>
       </c>
       <c r="I4" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9996875000000003</v>
+        <v>5.1561718750000001</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>1227</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -20096,44 +20120,44 @@
         <v>1183</v>
       </c>
       <c r="C5">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D5" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="32">
+        <v>4</v>
+      </c>
+      <c r="G5">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H5" s="26">
-        <v>159.99</v>
+        <v>599.99</v>
       </c>
       <c r="I5" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9996875000000003</v>
+        <v>9.3748437500000001</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>1227</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1182</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>1183</v>
       </c>
       <c r="C6">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="D6" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="E6">
         <v>64</v>
@@ -20141,19 +20165,19 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H6" s="26">
-        <v>322.99</v>
+        <v>589.99</v>
       </c>
       <c r="I6" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.0467187500000001</v>
+        <v>9.2185937500000001</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>1188</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -20161,33 +20185,33 @@
         <v>1182</v>
       </c>
       <c r="B7" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="C7">
-        <v>3200</v>
+        <v>2666</v>
       </c>
       <c r="D7" t="s">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>32</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
       <c r="H7" s="26">
-        <v>164.99</v>
+        <v>569.99</v>
       </c>
       <c r="I7" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1559375000000003</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>1200</v>
+        <v>4.4530468750000001</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -20195,33 +20219,33 @@
         <v>1182</v>
       </c>
       <c r="B8" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C8">
         <v>3200</v>
       </c>
       <c r="D8" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
       <c r="E8">
         <v>64</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H8" s="26">
-        <v>329.99</v>
+        <v>463.99</v>
       </c>
       <c r="I8" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1560937500000001</v>
+        <v>7.2498437500000001</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>1205</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -20229,101 +20253,101 @@
         <v>1182</v>
       </c>
       <c r="B9" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="C9">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="D9" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="E9">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="26">
-        <v>659.99</v>
+        <v>430.99</v>
       </c>
       <c r="I9" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1561718750000001</v>
+        <v>6.7342187500000001</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>1192</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1182</v>
       </c>
-      <c r="B10" t="s">
-        <v>1191</v>
+      <c r="B10" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="C10">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H10" s="26">
-        <v>659.99</v>
+        <v>384.99</v>
       </c>
       <c r="I10" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1561718750000001</v>
+        <v>6.0154687500000001</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B11" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="C11">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D11" t="s">
-        <v>1215</v>
+        <v>1190</v>
       </c>
       <c r="E11">
         <v>64</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="32">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H11" s="26">
-        <v>344.99</v>
+        <v>354.99</v>
       </c>
       <c r="I11" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.3904687500000001</v>
+        <v>5.5467187500000001</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>1214</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -20362,118 +20386,118 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B13" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C13">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="D13" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="H13" s="26">
+        <v>344.99</v>
+      </c>
+      <c r="I13" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.3904687500000001</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C14">
+        <v>3200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="H14" s="26">
+        <v>329.99</v>
+      </c>
+      <c r="I14" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.1560937500000001</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C15">
+        <v>3000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
-      <c r="H13" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I13" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C14">
-        <v>3200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E14">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H14" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I14" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C15">
-        <v>3200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E15">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
       <c r="H15" s="26">
-        <v>174.99</v>
+        <v>322.99</v>
       </c>
       <c r="I15" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
+        <v>5.0467187500000001</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>1224</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B16" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="C16">
-        <v>3200</v>
+        <v>3866</v>
       </c>
       <c r="D16" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="E16">
         <v>32</v>
@@ -20486,17 +20510,17 @@
         <v>16</v>
       </c>
       <c r="H16" s="26">
-        <v>174.99</v>
+        <v>316.99</v>
       </c>
       <c r="I16" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
+        <v>9.9059375000000003</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1182</v>
       </c>
@@ -20504,33 +20528,33 @@
         <v>1183</v>
       </c>
       <c r="C17">
-        <v>3600</v>
+        <v>3866</v>
       </c>
       <c r="D17" t="s">
-        <v>1190</v>
+        <v>1207</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H17" s="26">
-        <v>354.99</v>
+        <v>316.99</v>
       </c>
       <c r="I17" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.5467187500000001</v>
+        <v>9.9059375000000003</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1182</v>
       </c>
@@ -20538,44 +20562,44 @@
         <v>1183</v>
       </c>
       <c r="C18">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="D18" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H18" s="26">
-        <v>89.99</v>
+        <v>289.99</v>
       </c>
       <c r="I18" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.6243749999999997</v>
+        <v>9.0621875000000003</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1182</v>
       </c>
       <c r="B19" t="s">
-        <v>1225</v>
+        <v>1183</v>
       </c>
       <c r="C19">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D19" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -20588,17 +20612,17 @@
         <v>16</v>
       </c>
       <c r="H19" s="26">
-        <v>179.99</v>
+        <v>273.99</v>
       </c>
       <c r="I19" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.6246875000000003</v>
+        <v>8.5621875000000003</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1182</v>
       </c>
@@ -20606,70 +20630,67 @@
         <v>1183</v>
       </c>
       <c r="C20">
-        <v>3200</v>
+        <v>3466</v>
       </c>
       <c r="D20" t="s">
         <v>1186</v>
       </c>
       <c r="E20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H20" s="26">
-        <v>92.99</v>
+        <v>269.99</v>
       </c>
       <c r="I20" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.8118749999999997</v>
+        <v>8.4371875000000003</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B21" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="C21">
         <v>3200</v>
       </c>
       <c r="D21" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H21" s="26">
-        <v>94.99</v>
+        <v>229.99</v>
       </c>
       <c r="I21" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.9368749999999997</v>
+        <v>7.1871875000000003</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1182</v>
       </c>
@@ -20677,67 +20698,67 @@
         <v>1183</v>
       </c>
       <c r="C22">
-        <v>3600</v>
+        <v>4266</v>
       </c>
       <c r="D22" t="s">
-        <v>1185</v>
+        <v>1194</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H22" s="26">
-        <v>189.99</v>
+        <v>219.99</v>
       </c>
       <c r="I22" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.9371875000000003</v>
+        <v>13.749375000000001</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1182</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>1183</v>
       </c>
       <c r="C23">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="D23" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="E23">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H23" s="26">
-        <v>384.99</v>
+        <v>213.99</v>
       </c>
       <c r="I23" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.0154687500000001</v>
+        <v>6.6871875000000003</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1182</v>
       </c>
@@ -20745,33 +20766,33 @@
         <v>1183</v>
       </c>
       <c r="C24">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="D24" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="E24">
         <v>32</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H24" s="26">
-        <v>203.99</v>
+        <v>213.99</v>
       </c>
       <c r="I24" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.3746875000000003</v>
+        <v>6.6871875000000003</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1210</v>
       </c>
@@ -20779,44 +20800,44 @@
         <v>1211</v>
       </c>
       <c r="C25">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="D25" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>8</v>
       </c>
       <c r="H25" s="26">
-        <v>103.99</v>
+        <v>209.99</v>
       </c>
       <c r="I25" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.4993749999999997</v>
+        <v>6.5621875000000003</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="B26" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="C26">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="D26" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="E26">
         <v>32</v>
@@ -20829,17 +20850,17 @@
         <v>8</v>
       </c>
       <c r="H26" s="26">
-        <v>209.99</v>
+        <v>203.99</v>
       </c>
       <c r="I26" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.5621875000000003</v>
+        <v>6.3746875000000003</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1182</v>
       </c>
@@ -20847,10 +20868,10 @@
         <v>1183</v>
       </c>
       <c r="C27">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="D27" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="E27">
         <v>32</v>
@@ -20858,33 +20879,33 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H27" s="26">
-        <v>213.99</v>
+        <v>189.99</v>
       </c>
       <c r="I27" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.6871875000000003</v>
+        <v>5.9371875000000003</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1182</v>
       </c>
       <c r="B28" t="s">
-        <v>1183</v>
+        <v>1225</v>
       </c>
       <c r="C28">
         <v>3000</v>
       </c>
       <c r="D28" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="E28">
         <v>32</v>
@@ -20897,62 +20918,62 @@
         <v>16</v>
       </c>
       <c r="H28" s="26">
-        <v>213.99</v>
+        <v>179.99</v>
       </c>
       <c r="I28" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.6871875000000003</v>
+        <v>5.6246875000000003</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B29" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C29">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D29" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="E29">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H29" s="26">
-        <v>430.99</v>
+        <v>174.99</v>
       </c>
       <c r="I29" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.7342187500000001</v>
+        <v>5.4684375000000003</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B30" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C30">
         <v>3200</v>
       </c>
       <c r="D30" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="E30">
         <v>32</v>
@@ -20965,51 +20986,51 @@
         <v>16</v>
       </c>
       <c r="H30" s="26">
-        <v>229.99</v>
+        <v>174.99</v>
       </c>
       <c r="I30" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>7.1871875000000003</v>
+        <v>5.4684375000000003</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B31" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C31">
         <v>3200</v>
       </c>
       <c r="D31" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="E31">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H31" s="26">
-        <v>463.99</v>
+        <v>174.99</v>
       </c>
       <c r="I31" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>7.2498437500000001</v>
+        <v>5.4684375000000003</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1182</v>
       </c>
@@ -21017,10 +21038,10 @@
         <v>1183</v>
       </c>
       <c r="C32">
-        <v>3466</v>
+        <v>3600</v>
       </c>
       <c r="D32" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="E32">
         <v>32</v>
@@ -21028,22 +21049,22 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H32" s="26">
-        <v>269.99</v>
+        <v>174.99</v>
       </c>
       <c r="I32" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>8.4371875000000003</v>
+        <v>5.4684375000000003</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1182</v>
       </c>
@@ -21054,7 +21075,7 @@
         <v>3200</v>
       </c>
       <c r="D33" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -21062,22 +21083,22 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H33" s="26">
-        <v>273.99</v>
+        <v>164.99</v>
       </c>
       <c r="I33" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>8.5621875000000003</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.1559375000000003</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1182</v>
       </c>
@@ -21085,10 +21106,10 @@
         <v>1183</v>
       </c>
       <c r="C34">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="D34" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -21101,17 +21122,17 @@
         <v>16</v>
       </c>
       <c r="H34" s="26">
-        <v>289.99</v>
+        <v>159.99</v>
       </c>
       <c r="I34" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.0621875000000003</v>
+        <v>4.9996875000000003</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1182</v>
       </c>
@@ -21119,67 +21140,67 @@
         <v>1183</v>
       </c>
       <c r="C35">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="D35" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="E35">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H35" s="26">
-        <v>589.99</v>
+        <v>159.99</v>
       </c>
       <c r="I35" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.2185937500000001</v>
+        <v>4.9996875000000003</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B36" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C36">
-        <v>3200</v>
+        <v>2666</v>
       </c>
       <c r="D36" t="s">
-        <v>1196</v>
+        <v>1223</v>
       </c>
       <c r="E36">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>16</v>
       </c>
       <c r="H36" s="26">
-        <v>599.99</v>
+        <v>158.99</v>
       </c>
       <c r="I36" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.3748437500000001</v>
+        <v>4.9684375000000003</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1182</v>
       </c>
@@ -21187,10 +21208,10 @@
         <v>1183</v>
       </c>
       <c r="C37">
-        <v>3866</v>
+        <v>3200</v>
       </c>
       <c r="D37" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="E37">
         <v>32</v>
@@ -21203,62 +21224,62 @@
         <v>16</v>
       </c>
       <c r="H37" s="26">
-        <v>316.99</v>
+        <v>154.99</v>
       </c>
       <c r="I37" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.9059375000000003</v>
+        <v>4.8434375000000003</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B38" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C38">
-        <v>3866</v>
+        <v>3200</v>
       </c>
       <c r="D38" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H38" s="26">
-        <v>316.99</v>
+        <v>103.99</v>
       </c>
       <c r="I38" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.9059375000000003</v>
+        <v>6.4993749999999997</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
       <c r="B39" t="s">
-        <v>1183</v>
+        <v>1211</v>
       </c>
       <c r="C39">
-        <v>4266</v>
+        <v>3200</v>
       </c>
       <c r="D39" t="s">
-        <v>1194</v>
+        <v>1213</v>
       </c>
       <c r="E39">
         <v>16</v>
@@ -21266,24 +21287,95 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="32">
         <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
         <v>8</v>
       </c>
       <c r="H39" s="26">
-        <v>219.99</v>
+        <v>94.99</v>
       </c>
       <c r="I39" s="26">
         <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>13.749375000000001</v>
+        <v>5.9368749999999997</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>1193</v>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C40">
+        <v>3200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="H40" s="26">
+        <v>92.99</v>
+      </c>
+      <c r="I40" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.8118749999999997</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C41">
+        <v>3000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="H41" s="26">
+        <v>89.99</v>
+      </c>
+      <c r="I41" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.6243749999999997</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G39">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="G2:G41">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -21294,7 +21386,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H39">
+  <conditionalFormatting sqref="H2:H41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -21306,20 +21410,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I39">
+  <conditionalFormatting sqref="E2:E41">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E39">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -21330,8 +21422,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C39">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F42:F1048576 J1:J41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C41">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -21343,49 +21438,51 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J23" r:id="rId1" xr:uid="{16C2754A-4142-43F5-81F1-C5A87091EAB3}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{79AD2FA7-7D6F-4E1A-A5BD-1E12472C4ED7}"/>
-    <hyperlink ref="J17" r:id="rId3" xr:uid="{81F8722C-5B63-4CCC-BFED-90559DEF46D2}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{FAE67112-CB08-4807-91C6-FCE7F117FB1B}"/>
-    <hyperlink ref="J39" r:id="rId5" xr:uid="{A307FFED-8608-4CA8-AB71-00484E140E3A}"/>
-    <hyperlink ref="J36" r:id="rId6" xr:uid="{F5AEF70C-9007-4769-8E84-448E4B1E407A}"/>
-    <hyperlink ref="J13" r:id="rId7" xr:uid="{AFDC7797-78F9-4BE5-9BC6-695B190B54E6}"/>
-    <hyperlink ref="J22" r:id="rId8" xr:uid="{19E67430-CBE4-40F0-8A88-331F9C1B315F}"/>
-    <hyperlink ref="J7" r:id="rId9" xr:uid="{EE1D5146-486C-4053-B02A-A18B484D8A0C}"/>
-    <hyperlink ref="J30" r:id="rId10" xr:uid="{AD923C7A-A7EB-4E7D-8C26-C32A3E8120EE}"/>
-    <hyperlink ref="J2" r:id="rId11" xr:uid="{204E46CD-2A1E-425F-9D77-70D764345304}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{E325E3C3-9C7C-45B9-B081-483090EC8464}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{2B2CE37D-1DCD-4A8A-83DE-49878C4871D9}"/>
-    <hyperlink ref="J37" r:id="rId14" xr:uid="{B0EDD67E-B80D-4EE2-902C-314E23295D55}"/>
-    <hyperlink ref="J35" r:id="rId15" xr:uid="{858CB37F-183F-4142-B6CE-162E6AF9C03D}"/>
-    <hyperlink ref="J14" r:id="rId16" xr:uid="{D399E858-E9D8-425B-8D4F-ECC0DDECF3CE}"/>
-    <hyperlink ref="J38" r:id="rId17" xr:uid="{203DFE8C-2BC0-48CB-934B-D3861B33EADF}"/>
-    <hyperlink ref="J11" r:id="rId18" xr:uid="{398A0357-F0B3-4DAE-8ED8-7DBA10522E98}"/>
-    <hyperlink ref="J27" r:id="rId19" xr:uid="{61B63E9E-57CC-4470-858A-63AA43463F10}"/>
-    <hyperlink ref="J29" r:id="rId20" xr:uid="{95E9F002-7AF1-4975-B97E-0F845733F6E1}"/>
-    <hyperlink ref="J32" r:id="rId21" xr:uid="{83C6C9F8-72B2-4730-9B5B-6F75DD45855F}"/>
-    <hyperlink ref="J34" r:id="rId22" xr:uid="{56C4A955-61B6-48D5-9AF3-F3550144F187}"/>
-    <hyperlink ref="J31" r:id="rId23" xr:uid="{1D1ED406-A9E8-4C1F-95BF-361ECE6411BD}"/>
-    <hyperlink ref="J33" r:id="rId24" xr:uid="{5F328C26-8131-4239-A5AE-4FB6014C01EC}"/>
-    <hyperlink ref="J3" r:id="rId25" xr:uid="{9AC2A9D4-7923-44CE-902B-EE5429135982}"/>
-    <hyperlink ref="J15" r:id="rId26" xr:uid="{5055383A-D423-42FB-9547-22DD7AB0D447}"/>
-    <hyperlink ref="J12" r:id="rId27" xr:uid="{ABC2AB90-FEE2-4F1D-B06C-3A000A368EE8}"/>
-    <hyperlink ref="J16" r:id="rId28" xr:uid="{06DBF727-0A6D-44B5-A324-43382F08B2C2}"/>
-    <hyperlink ref="J19" r:id="rId29" xr:uid="{40F16354-7A06-4E01-B4F2-703A447D6FD4}"/>
-    <hyperlink ref="J28" r:id="rId30" xr:uid="{3AF3905E-DE9D-40EF-8DC5-B18BA910C37A}"/>
-    <hyperlink ref="J4" r:id="rId31" xr:uid="{E6173F77-10A1-4D51-94AA-5F4D2B252402}"/>
-    <hyperlink ref="J20" r:id="rId32" xr:uid="{24B6B5F2-4DE0-493D-959B-BFFA161DD4F8}"/>
-    <hyperlink ref="J21" r:id="rId33" xr:uid="{BCCD4565-5BF9-420D-AE77-FC9E34787390}"/>
-    <hyperlink ref="J25" r:id="rId34" xr:uid="{1411FD03-E70F-4FB6-A30C-459C21E5FC2A}"/>
-    <hyperlink ref="J26" r:id="rId35" xr:uid="{02B0BFEB-EFA5-4628-8F50-F12DB997B15B}"/>
-    <hyperlink ref="J24" r:id="rId36" xr:uid="{A01767D4-471B-4471-9814-2D09DE99B54D}"/>
-    <hyperlink ref="J18" r:id="rId37" xr:uid="{21234BC0-A4AD-48CE-943D-03691565B389}"/>
-    <hyperlink ref="J5" r:id="rId38" xr:uid="{DEAB788C-5605-4BE2-8087-B98ED9B6E7FE}"/>
+    <hyperlink ref="J10" r:id="rId1" xr:uid="{16C2754A-4142-43F5-81F1-C5A87091EAB3}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{79AD2FA7-7D6F-4E1A-A5BD-1E12472C4ED7}"/>
+    <hyperlink ref="J11" r:id="rId3" xr:uid="{81F8722C-5B63-4CCC-BFED-90559DEF46D2}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{FAE67112-CB08-4807-91C6-FCE7F117FB1B}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{A307FFED-8608-4CA8-AB71-00484E140E3A}"/>
+    <hyperlink ref="J5" r:id="rId6" xr:uid="{F5AEF70C-9007-4769-8E84-448E4B1E407A}"/>
+    <hyperlink ref="J32" r:id="rId7" xr:uid="{AFDC7797-78F9-4BE5-9BC6-695B190B54E6}"/>
+    <hyperlink ref="J27" r:id="rId8" xr:uid="{19E67430-CBE4-40F0-8A88-331F9C1B315F}"/>
+    <hyperlink ref="J33" r:id="rId9" xr:uid="{EE1D5146-486C-4053-B02A-A18B484D8A0C}"/>
+    <hyperlink ref="J21" r:id="rId10" xr:uid="{AD923C7A-A7EB-4E7D-8C26-C32A3E8120EE}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{204E46CD-2A1E-425F-9D77-70D764345304}"/>
+    <hyperlink ref="J14" r:id="rId12" xr:uid="{E325E3C3-9C7C-45B9-B081-483090EC8464}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{2B2CE37D-1DCD-4A8A-83DE-49878C4871D9}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{B0EDD67E-B80D-4EE2-902C-314E23295D55}"/>
+    <hyperlink ref="J6" r:id="rId15" xr:uid="{858CB37F-183F-4142-B6CE-162E6AF9C03D}"/>
+    <hyperlink ref="J29" r:id="rId16" xr:uid="{D399E858-E9D8-425B-8D4F-ECC0DDECF3CE}"/>
+    <hyperlink ref="J17" r:id="rId17" xr:uid="{203DFE8C-2BC0-48CB-934B-D3861B33EADF}"/>
+    <hyperlink ref="J12" r:id="rId18" xr:uid="{398A0357-F0B3-4DAE-8ED8-7DBA10522E98}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{61B63E9E-57CC-4470-858A-63AA43463F10}"/>
+    <hyperlink ref="J9" r:id="rId20" xr:uid="{95E9F002-7AF1-4975-B97E-0F845733F6E1}"/>
+    <hyperlink ref="J20" r:id="rId21" xr:uid="{83C6C9F8-72B2-4730-9B5B-6F75DD45855F}"/>
+    <hyperlink ref="J18" r:id="rId22" xr:uid="{56C4A955-61B6-48D5-9AF3-F3550144F187}"/>
+    <hyperlink ref="J8" r:id="rId23" xr:uid="{1D1ED406-A9E8-4C1F-95BF-361ECE6411BD}"/>
+    <hyperlink ref="J19" r:id="rId24" xr:uid="{5F328C26-8131-4239-A5AE-4FB6014C01EC}"/>
+    <hyperlink ref="J36" r:id="rId25" xr:uid="{9AC2A9D4-7923-44CE-902B-EE5429135982}"/>
+    <hyperlink ref="J30" r:id="rId26" xr:uid="{5055383A-D423-42FB-9547-22DD7AB0D447}"/>
+    <hyperlink ref="J13" r:id="rId27" xr:uid="{ABC2AB90-FEE2-4F1D-B06C-3A000A368EE8}"/>
+    <hyperlink ref="J31" r:id="rId28" xr:uid="{06DBF727-0A6D-44B5-A324-43382F08B2C2}"/>
+    <hyperlink ref="J28" r:id="rId29" xr:uid="{40F16354-7A06-4E01-B4F2-703A447D6FD4}"/>
+    <hyperlink ref="J24" r:id="rId30" xr:uid="{3AF3905E-DE9D-40EF-8DC5-B18BA910C37A}"/>
+    <hyperlink ref="J34" r:id="rId31" xr:uid="{E6173F77-10A1-4D51-94AA-5F4D2B252402}"/>
+    <hyperlink ref="J40" r:id="rId32" xr:uid="{24B6B5F2-4DE0-493D-959B-BFFA161DD4F8}"/>
+    <hyperlink ref="J39" r:id="rId33" xr:uid="{BCCD4565-5BF9-420D-AE77-FC9E34787390}"/>
+    <hyperlink ref="J38" r:id="rId34" xr:uid="{1411FD03-E70F-4FB6-A30C-459C21E5FC2A}"/>
+    <hyperlink ref="J25" r:id="rId35" xr:uid="{02B0BFEB-EFA5-4628-8F50-F12DB997B15B}"/>
+    <hyperlink ref="J26" r:id="rId36" xr:uid="{A01767D4-471B-4471-9814-2D09DE99B54D}"/>
+    <hyperlink ref="J41" r:id="rId37" xr:uid="{21234BC0-A4AD-48CE-943D-03691565B389}"/>
+    <hyperlink ref="J35" r:id="rId38" xr:uid="{DEAB788C-5605-4BE2-8087-B98ED9B6E7FE}"/>
+    <hyperlink ref="J37" r:id="rId39" xr:uid="{5CAC8C89-3B4D-4E38-95C6-EF0B37917D16}"/>
+    <hyperlink ref="J2" r:id="rId40" xr:uid="{3C133155-7B0B-41E6-A1C5-011FE358F9C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E4DB8-BBE4-47FC-9D16-720AB16AEC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06D42C-D523-4067-AD2A-2F7E0467BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2355" windowWidth="28800" windowHeight="15555" firstSheet="1" activeTab="4" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14160" windowHeight="15360" firstSheet="4" activeTab="6" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monitor" sheetId="5" r:id="rId1"/>
-    <sheet name="Curved" sheetId="7" r:id="rId2"/>
-    <sheet name="CPUs" sheetId="10" r:id="rId3"/>
-    <sheet name="Goals" sheetId="6" r:id="rId4"/>
-    <sheet name="RAM" sheetId="11" r:id="rId5"/>
-    <sheet name="Current" sheetId="9" r:id="rId6"/>
+    <sheet name="RAM" sheetId="11" r:id="rId1"/>
+    <sheet name="Monitor" sheetId="5" r:id="rId2"/>
+    <sheet name="Curved" sheetId="7" r:id="rId3"/>
+    <sheet name="CPUs" sheetId="10" r:id="rId4"/>
+    <sheet name="GPUs" sheetId="14" r:id="rId5"/>
+    <sheet name="Goals" sheetId="6" r:id="rId6"/>
+    <sheet name="RAM_NEW" sheetId="13" r:id="rId7"/>
+    <sheet name="RAM Speed" sheetId="12" r:id="rId8"/>
+    <sheet name="Current" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1305">
   <si>
     <t>Brand</t>
   </si>
@@ -3571,9 +3574,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>DDR4 #</t>
-  </si>
-  <si>
     <t>Sticks</t>
   </si>
   <si>
@@ -3746,18 +3746,231 @@
   </si>
   <si>
     <t>F4-3200C16Q-128GTRS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>F4-2666C18Q-128GTRS</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Cas Latency</t>
+  </si>
+  <si>
+    <t>Absolute Lat…</t>
+  </si>
+  <si>
+    <t>Calced</t>
+  </si>
+  <si>
+    <t>DDR4</t>
+  </si>
+  <si>
+    <t>Real RAM Speed</t>
+  </si>
+  <si>
+    <t>Clock Speed (MHz)</t>
+  </si>
+  <si>
+    <t>DDR Type</t>
+  </si>
+  <si>
+    <t>CL Time (1st # in the set of 4)</t>
+  </si>
+  <si>
+    <t>Converting Clock Speed Into Time</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>F4-2400C14-16GRK</t>
+  </si>
+  <si>
+    <t>F4-3200C14Q-64GTZ</t>
+  </si>
+  <si>
+    <t>BLE4K8G4D36BEEAK</t>
+  </si>
+  <si>
+    <t>F4-3200C15Q-64GTZ</t>
+  </si>
+  <si>
+    <t>CMD64GX4M4B3000C15</t>
+  </si>
+  <si>
+    <t>F4-3200C14Q-32GFX</t>
+  </si>
+  <si>
+    <t>CMK32GX4M4A2666C15</t>
+  </si>
+  <si>
+    <t>F4-3200C16Q-64GVK</t>
+  </si>
+  <si>
+    <t>F4-3000C15Q-16GRR</t>
+  </si>
+  <si>
+    <t>F4-2800C16Q-16GRK</t>
+  </si>
+  <si>
+    <t>F4-3200C16D-16GVKB</t>
+  </si>
+  <si>
+    <t>CMK16GX4M2B3200C16</t>
+  </si>
+  <si>
+    <t>CMK16GX4M2B3000C15</t>
+  </si>
+  <si>
+    <t>HX421C14FB</t>
+  </si>
+  <si>
+    <t>F4-4500C19D-16GTZKKE</t>
+  </si>
+  <si>
+    <t>GHz</t>
+  </si>
+  <si>
+    <t>16.18.18</t>
+  </si>
+  <si>
+    <t>15.17.17.35</t>
+  </si>
+  <si>
+    <t>14.14.14</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>GBs</t>
+  </si>
+  <si>
+    <t>Stix</t>
+  </si>
+  <si>
+    <t>F3-17000CL11D-8GBSR</t>
+  </si>
+  <si>
+    <t>9.11.10.28</t>
+  </si>
+  <si>
+    <t>My Current Mem Sticks</t>
+  </si>
+  <si>
+    <t>CUDAs</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>DDR#</t>
+  </si>
+  <si>
+    <t>GTX660-DC2O-2GD5</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>Chipset</t>
+  </si>
+  <si>
+    <t> GTX 600</t>
+  </si>
+  <si>
+    <t>Core Clock</t>
+  </si>
+  <si>
+    <t>1020MHz</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>1085MHz</t>
+  </si>
+  <si>
+    <t>https://www.newegg.com/p/pl?N=100007611%20600554753&amp;d=Trident%20Z%20Royal&amp;PageSize=96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3821,6 +4034,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF5050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3831,7 +4110,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3851,7 +4130,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3926,10 +4205,51 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3937,7 +4257,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
+  <dxfs count="201">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3947,6 +4267,141 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -4701,248 +5156,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="180">
-  <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
-  <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="172"/>
-    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="171"/>
-    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="170"/>
-    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="169"/>
-    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="168"/>
-    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="167"/>
-    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="166"/>
-    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="165"/>
-    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="164"/>
-    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="163"/>
-    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="162"/>
-    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="161"/>
-    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="160"/>
-    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="159"/>
-    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="158"/>
-    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="157"/>
-    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="156"/>
-    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="155"/>
-    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="154"/>
-    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="153"/>
-    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="152"/>
-    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="151"/>
-    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="150"/>
-    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="149"/>
-    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="148"/>
-    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="147"/>
-    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="146"/>
-    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="145"/>
-    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="144"/>
-    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="143"/>
-    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="142"/>
-    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="141"/>
-    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="140"/>
-    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="139"/>
-    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="138"/>
-    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="137"/>
-    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="136"/>
-    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="135"/>
-    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="134"/>
-    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="133"/>
-    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="132"/>
-    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="131"/>
-    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="130"/>
-    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="129"/>
-    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="128"/>
-    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="127"/>
-    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="126"/>
-    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="125"/>
-    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="124"/>
-    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="123"/>
-    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="122"/>
-    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="121"/>
-    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="120"/>
-    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="119"/>
-    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="118"/>
-    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="117"/>
-    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="116"/>
-    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="115"/>
-    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="114"/>
-    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="113"/>
-    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="112"/>
-    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="111"/>
-    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="110"/>
-    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="109"/>
-    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="108"/>
-    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="107"/>
-    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="106"/>
-    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="105"/>
-    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="104"/>
-    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="103"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B7B7D2ED-10B3-4206-BA9F-042AFF4562E8}" name="Table10" displayName="Table10" ref="A30:F39" totalsRowShown="0">
-  <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="98"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="97">
-  <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
-  <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="85"/>
-    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="82"/>
-    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="81"/>
-    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="80"/>
-    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="79"/>
-    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="78"/>
-    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="77"/>
-    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="76"/>
-    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="75"/>
-    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="74"/>
-    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="73"/>
-    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="72"/>
-    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="71"/>
-    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="70"/>
-    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="69"/>
-    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="68"/>
-    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="67"/>
-    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="66"/>
-    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="65"/>
-    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="64"/>
-    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="63"/>
-    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="62"/>
-    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="61"/>
-    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="60"/>
-    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="59"/>
-    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="58"/>
-    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="57"/>
-    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="56"/>
-    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="55"/>
-    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="54"/>
-    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="53"/>
-    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="52"/>
-    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="51"/>
-    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="50"/>
-    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="49"/>
-    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="48"/>
-    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="47"/>
-    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="46"/>
-    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="45"/>
-    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="44"/>
-    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="43"/>
-    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="42"/>
-    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="41"/>
-    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="40"/>
-    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="39"/>
-    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="38"/>
-    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="37"/>
-    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="36"/>
-    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="35"/>
-    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="34"/>
-    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="33"/>
-    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="32"/>
-    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="31"/>
-    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="30"/>
-    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="29"/>
-    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="28"/>
-    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="27"/>
-    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="26"/>
-    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="25"/>
-    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="24"/>
-    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="23"/>
-    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="22"/>
-    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="21"/>
-    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4D3A90C-CE6C-4F3C-B2D6-4A24ABDBAB95}" name="Table104" displayName="Table104" ref="A30:F39" totalsRowShown="0">
-  <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
-  <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
-  <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
-    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5606A5D8-2EA0-447B-A571-F7B47FF3908F}" name="Table4" displayName="Table4" ref="A1:K41" totalsRowShown="0">
-  <autoFilter ref="A1:K41" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
-    <sortCondition descending="1" ref="H1:H41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5606A5D8-2EA0-447B-A571-F7B47FF3908F}" name="Table4" displayName="Table4" ref="A1:N42" totalsRowShown="0">
+  <autoFilter ref="A1:N42" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N42">
+    <sortCondition descending="1" ref="K1:K42"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{EF71F6E3-2CB3-4E43-B2BB-70934CEFA2C9}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{D4E21218-E5AA-4799-8CA0-079C894D2569}" name="Series"/>
-    <tableColumn id="3" xr3:uid="{61011F19-B33F-4208-ACDF-64BF400D905F}" name="DDR4 #"/>
+    <tableColumn id="3" xr3:uid="{61011F19-B33F-4208-ACDF-64BF400D905F}" name="DDR4"/>
+    <tableColumn id="15" xr3:uid="{3F6A36A1-01E4-42C9-9F16-D616D4FC6B4B}" name="CL"/>
+    <tableColumn id="14" xr3:uid="{81F2AD86-0E37-45E8-A3D6-38E38C248C04}" name="AL"/>
     <tableColumn id="9" xr3:uid="{304B8110-80AD-4727-B6B3-CA90E2C7B907}" name="Timing"/>
+    <tableColumn id="12" xr3:uid="{01EB102E-8E46-49AB-B492-48AA210A3A04}" name="V"/>
     <tableColumn id="6" xr3:uid="{26CDA6F6-C7D5-4803-8D91-8C552C1CDE40}" name="Ttl GB"/>
     <tableColumn id="4" xr3:uid="{8C3664EF-1677-4847-B766-84E1F14D476C}" name="Sticks"/>
-    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7284CDCA-952F-4E3B-863A-95C36699F7FE}" name="Cost" dataCellStyle="Currency"/>
@@ -4956,29 +5185,339 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="4">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="3">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="23">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="21" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="200">
+  <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
+  <tableColumns count="77">
+    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="198"/>
+    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="197"/>
+    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="196"/>
+    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="195"/>
+    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="194"/>
+    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="193"/>
+    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="192"/>
+    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="191"/>
+    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="190"/>
+    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="189"/>
+    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="188"/>
+    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="187"/>
+    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="186"/>
+    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="185"/>
+    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="184"/>
+    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="183"/>
+    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="182"/>
+    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="181"/>
+    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="180"/>
+    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="179"/>
+    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="178"/>
+    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="177"/>
+    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="176"/>
+    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="175"/>
+    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="174"/>
+    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="173"/>
+    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="172"/>
+    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="171"/>
+    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="170"/>
+    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="169"/>
+    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="168"/>
+    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="167"/>
+    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="166"/>
+    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="165"/>
+    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="164"/>
+    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="163"/>
+    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="162"/>
+    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="161"/>
+    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="160"/>
+    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="159"/>
+    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="158"/>
+    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="157"/>
+    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="156"/>
+    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="155"/>
+    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="154"/>
+    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="153"/>
+    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="152"/>
+    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="151"/>
+    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="150"/>
+    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="149"/>
+    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="148"/>
+    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="147"/>
+    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="146"/>
+    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="145"/>
+    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="144"/>
+    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="143"/>
+    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="142"/>
+    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="141"/>
+    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="140"/>
+    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="139"/>
+    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="138"/>
+    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="137"/>
+    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="136"/>
+    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="135"/>
+    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="134"/>
+    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="133"/>
+    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="132"/>
+    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="131"/>
+    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="130"/>
+    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="129"/>
+    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="128"/>
+    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="127"/>
+    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="126"/>
+    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="125"/>
+    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="124"/>
+    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="123"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B7B7D2ED-10B3-4206-BA9F-042AFF4562E8}" name="Table10" displayName="Table10" ref="A30:F39" totalsRowShown="0">
+  <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
+    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="118"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="117">
+  <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
+  <tableColumns count="77">
+    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="107"/>
+    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="105"/>
+    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="104"/>
+    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="103"/>
+    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="102"/>
+    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="101"/>
+    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="100"/>
+    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="99"/>
+    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="98"/>
+    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="97"/>
+    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="96"/>
+    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="95"/>
+    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="94"/>
+    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="93"/>
+    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="92"/>
+    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="91"/>
+    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="90"/>
+    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="89"/>
+    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="88"/>
+    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="87"/>
+    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="86"/>
+    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="85"/>
+    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="84"/>
+    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="83"/>
+    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="82"/>
+    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="81"/>
+    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="80"/>
+    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="79"/>
+    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="78"/>
+    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="77"/>
+    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="76"/>
+    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="75"/>
+    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="74"/>
+    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="73"/>
+    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="72"/>
+    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="71"/>
+    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="70"/>
+    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="69"/>
+    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="68"/>
+    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="67"/>
+    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="66"/>
+    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="65"/>
+    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="64"/>
+    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="63"/>
+    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="62"/>
+    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="61"/>
+    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="60"/>
+    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="59"/>
+    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="58"/>
+    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="57"/>
+    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="56"/>
+    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="55"/>
+    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="54"/>
+    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="53"/>
+    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="52"/>
+    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="51"/>
+    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="50"/>
+    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="49"/>
+    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="48"/>
+    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="47"/>
+    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="46"/>
+    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="45"/>
+    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="44"/>
+    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="43"/>
+    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="42"/>
+    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="41"/>
+    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4D3A90C-CE6C-4F3C-B2D6-4A24ABDBAB95}" name="Table104" displayName="Table104" ref="A30:F39" totalsRowShown="0">
+  <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
+    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
+  <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
+  <tableColumns count="5">
+    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
+    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{701AF49C-AD0E-4915-A4E5-9CE665566E86}" name="Table412" displayName="Table412" ref="A1:Q60" totalsRowShown="0">
+  <autoFilter ref="A1:Q60" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q60">
+    <sortCondition ref="H1:H60"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="16" xr3:uid="{41845326-1A04-4644-BDF1-B10877EBF9D3}" name="#"/>
+    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{87EEEE7D-8A7C-4C24-9598-DB325FC0FC09}" name="Brand"/>
+    <tableColumn id="10" xr3:uid="{893697FC-BC3F-41D5-9F18-66756D938A6C}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{F6D54D7C-6DE6-4F6C-B53C-456B9C834017}" name="GHz"/>
+    <tableColumn id="15" xr3:uid="{2A688068-02CF-405A-8CE9-17AECCC908BA}" name="CL"/>
+    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="1">
+      <calculatedColumnFormula>($G2*(1/((1000000*$F2)/2))*1000000000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9D2AC746-C18E-4356-9A3F-CFCC480B0E67}" name="V"/>
+    <tableColumn id="6" xr3:uid="{1627D630-B3C2-4191-B028-B9DEC53B6B60}" name="GBs"/>
+    <tableColumn id="4" xr3:uid="{229A9ACB-0A32-475C-BB13-BD1A94F0A138}" name="Stix"/>
+    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="6">
+      <calculatedColumnFormula>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E364F542-415A-4E85-BF8A-22B0E46F000B}" name="Cost" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{65313B8E-7D92-44F7-B255-26CBDCEEB288}" name="$ / GB" dataCellStyle="Currency">
+      <calculatedColumnFormula>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5CBFD6EE-B1A8-4C06-AB9B-583A7FF37E01}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="7">
+      <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="18">
+      <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="17">
+      <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="16">
+      <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="15">
+      <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="14">
+      <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="13">
+      <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="12">
+      <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="11">
+      <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="10">
+      <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="9">
+      <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="8">
+      <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5280,6 +5819,1793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64173DE6-CFC5-4B3D-9EC1-FA6AF9AF1418}">
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3200</v>
+      </c>
+      <c r="D2" s="34">
+        <v>16</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G2" s="34">
+        <v>1.35</v>
+      </c>
+      <c r="H2" s="34">
+        <v>128</v>
+      </c>
+      <c r="I2" s="34">
+        <v>4</v>
+      </c>
+      <c r="J2" s="35">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K2" s="36">
+        <v>699.99</v>
+      </c>
+      <c r="L2" s="36">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.4686718750000001</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C3">
+        <v>3200</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H3">
+        <v>128</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K3" s="26">
+        <v>659.99</v>
+      </c>
+      <c r="L3" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.1561718750000001</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C4">
+        <v>3200</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H4">
+        <v>128</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K4" s="26">
+        <v>659.99</v>
+      </c>
+      <c r="L4" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.1561718750000001</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C5">
+        <v>3200</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H5">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K5" s="26">
+        <v>599.99</v>
+      </c>
+      <c r="L5" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>9.3748437500000001</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C6">
+        <v>2666</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K6" s="26">
+        <v>599.99</v>
+      </c>
+      <c r="L6" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.6874218750000001</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C7">
+        <v>3600</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H7">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K7" s="26">
+        <v>589.99</v>
+      </c>
+      <c r="L7" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>9.2185937500000001</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C8">
+        <v>2666</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K8" s="26">
+        <v>569.99</v>
+      </c>
+      <c r="L8" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.4530468750000001</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C9">
+        <v>3200</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K9" s="26">
+        <v>463.99</v>
+      </c>
+      <c r="L9" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>7.2498437500000001</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H10">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K10" s="26">
+        <v>430.99</v>
+      </c>
+      <c r="L10" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.7342187500000001</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C11">
+        <v>3600</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K11" s="26">
+        <v>384.99</v>
+      </c>
+      <c r="L11" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.0154687500000001</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C12">
+        <v>3600</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K12" s="26">
+        <v>354.99</v>
+      </c>
+      <c r="L12" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.5467187500000001</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C13">
+        <v>3200</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K13" s="26">
+        <v>344.99</v>
+      </c>
+      <c r="L13" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.3904687500000001</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C14">
+        <v>3200</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K14" s="26">
+        <v>344.99</v>
+      </c>
+      <c r="L14" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.3904687500000001</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C15">
+        <v>3200</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K15" s="26">
+        <v>329.99</v>
+      </c>
+      <c r="L15" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.1560937500000001</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C16">
+        <v>3000</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H16">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K16" s="26">
+        <v>322.99</v>
+      </c>
+      <c r="L16" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.0467187500000001</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C17">
+        <v>3866</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K17" s="26">
+        <v>316.99</v>
+      </c>
+      <c r="L17" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>9.9059375000000003</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C18">
+        <v>3866</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="26">
+        <v>316.99</v>
+      </c>
+      <c r="L18" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>9.9059375000000003</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C19">
+        <v>3600</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="26">
+        <v>289.99</v>
+      </c>
+      <c r="L19" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>9.0621875000000003</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C20">
+        <v>3200</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H20">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K20" s="26">
+        <v>273.99</v>
+      </c>
+      <c r="L20" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>8.5621875000000003</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C21">
+        <v>3466</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K21" s="26">
+        <v>269.99</v>
+      </c>
+      <c r="L21" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>8.4371875000000003</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C22">
+        <v>3200</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K22" s="26">
+        <v>229.99</v>
+      </c>
+      <c r="L22" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>7.1871875000000003</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C23">
+        <v>4266</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K23" s="26">
+        <v>219.99</v>
+      </c>
+      <c r="L23" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>13.749375000000001</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K24" s="26">
+        <v>213.99</v>
+      </c>
+      <c r="L24" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.6871875000000003</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C25">
+        <v>3000</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K25" s="26">
+        <v>213.99</v>
+      </c>
+      <c r="L25" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.6871875000000003</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C26">
+        <v>3600</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H26">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K26" s="26">
+        <v>209.99</v>
+      </c>
+      <c r="L26" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.5621875000000003</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C27">
+        <v>3200</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K27" s="26">
+        <v>203.99</v>
+      </c>
+      <c r="L27" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.3746875000000003</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C28">
+        <v>3600</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K28" s="26">
+        <v>189.99</v>
+      </c>
+      <c r="L28" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.9371875000000003</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C29">
+        <v>3000</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K29" s="26">
+        <v>179.99</v>
+      </c>
+      <c r="L29" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.6246875000000003</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C30">
+        <v>3200</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K30" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="L30" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C31">
+        <v>3200</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K31" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="L31" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C32">
+        <v>3200</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K32" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="L32" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C33">
+        <v>3600</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K33" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="L33" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C34">
+        <v>3200</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K34" s="26">
+        <v>164.99</v>
+      </c>
+      <c r="L34" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.1559375000000003</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C35">
+        <v>3000</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K35" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="L35" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.9996875000000003</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C36">
+        <v>3000</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K36" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="L36" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.9996875000000003</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C37">
+        <v>2666</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H37">
+        <v>32</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K37" s="26">
+        <v>158.99</v>
+      </c>
+      <c r="L37" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.9684375000000003</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C38">
+        <v>3200</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K38" s="26">
+        <v>154.99</v>
+      </c>
+      <c r="L38" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>4.8434375000000003</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C39">
+        <v>3200</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K39" s="26">
+        <v>103.99</v>
+      </c>
+      <c r="L39" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>6.4993749999999997</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C40">
+        <v>3200</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K40" s="26">
+        <v>94.99</v>
+      </c>
+      <c r="L40" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.9368749999999997</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C41">
+        <v>3200</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K41" s="26">
+        <v>92.99</v>
+      </c>
+      <c r="L41" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.8118749999999997</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C42">
+        <v>3000</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" s="32">
+        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K42" s="26">
+        <v>89.99</v>
+      </c>
+      <c r="L42" s="26">
+        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
+        <v>5.6243749999999997</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1241</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>25600</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>D46/E46</f>
+        <v>12800</v>
+      </c>
+      <c r="G46">
+        <v>2666</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f>G46*H46</f>
+        <v>21328</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N46">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>25600</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>D47/E47</f>
+        <v>8533.3333333333339</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>25600</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>D48/E48</f>
+        <v>6400</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>25600</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <f>D49/E49</f>
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>25600</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f>D50/E50</f>
+        <v>4266.666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>25600</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <f>D51/E51</f>
+        <v>3657.1428571428573</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>25600</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <f>D52/E52</f>
+        <v>3200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M11" r:id="rId1" xr:uid="{16C2754A-4142-43F5-81F1-C5A87091EAB3}"/>
+    <hyperlink ref="M16" r:id="rId2" xr:uid="{79AD2FA7-7D6F-4E1A-A5BD-1E12472C4ED7}"/>
+    <hyperlink ref="M12" r:id="rId3" xr:uid="{81F8722C-5B63-4CCC-BFED-90559DEF46D2}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{FAE67112-CB08-4807-91C6-FCE7F117FB1B}"/>
+    <hyperlink ref="M23" r:id="rId5" xr:uid="{A307FFED-8608-4CA8-AB71-00484E140E3A}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{F5AEF70C-9007-4769-8E84-448E4B1E407A}"/>
+    <hyperlink ref="M33" r:id="rId7" xr:uid="{AFDC7797-78F9-4BE5-9BC6-695B190B54E6}"/>
+    <hyperlink ref="M28" r:id="rId8" xr:uid="{19E67430-CBE4-40F0-8A88-331F9C1B315F}"/>
+    <hyperlink ref="M34" r:id="rId9" xr:uid="{EE1D5146-486C-4053-B02A-A18B484D8A0C}"/>
+    <hyperlink ref="M22" r:id="rId10" xr:uid="{AD923C7A-A7EB-4E7D-8C26-C32A3E8120EE}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{204E46CD-2A1E-425F-9D77-70D764345304}"/>
+    <hyperlink ref="M15" r:id="rId12" xr:uid="{E325E3C3-9C7C-45B9-B081-483090EC8464}"/>
+    <hyperlink ref="M4" r:id="rId13" xr:uid="{2B2CE37D-1DCD-4A8A-83DE-49878C4871D9}"/>
+    <hyperlink ref="M17" r:id="rId14" xr:uid="{B0EDD67E-B80D-4EE2-902C-314E23295D55}"/>
+    <hyperlink ref="M7" r:id="rId15" xr:uid="{858CB37F-183F-4142-B6CE-162E6AF9C03D}"/>
+    <hyperlink ref="M30" r:id="rId16" xr:uid="{D399E858-E9D8-425B-8D4F-ECC0DDECF3CE}"/>
+    <hyperlink ref="M18" r:id="rId17" xr:uid="{203DFE8C-2BC0-48CB-934B-D3861B33EADF}"/>
+    <hyperlink ref="M13" r:id="rId18" xr:uid="{398A0357-F0B3-4DAE-8ED8-7DBA10522E98}"/>
+    <hyperlink ref="M24" r:id="rId19" xr:uid="{61B63E9E-57CC-4470-858A-63AA43463F10}"/>
+    <hyperlink ref="M10" r:id="rId20" xr:uid="{95E9F002-7AF1-4975-B97E-0F845733F6E1}"/>
+    <hyperlink ref="M21" r:id="rId21" xr:uid="{83C6C9F8-72B2-4730-9B5B-6F75DD45855F}"/>
+    <hyperlink ref="M19" r:id="rId22" xr:uid="{56C4A955-61B6-48D5-9AF3-F3550144F187}"/>
+    <hyperlink ref="M9" r:id="rId23" xr:uid="{1D1ED406-A9E8-4C1F-95BF-361ECE6411BD}"/>
+    <hyperlink ref="M20" r:id="rId24" xr:uid="{5F328C26-8131-4239-A5AE-4FB6014C01EC}"/>
+    <hyperlink ref="M37" r:id="rId25" xr:uid="{9AC2A9D4-7923-44CE-902B-EE5429135982}"/>
+    <hyperlink ref="M31" r:id="rId26" xr:uid="{5055383A-D423-42FB-9547-22DD7AB0D447}"/>
+    <hyperlink ref="M14" r:id="rId27" xr:uid="{ABC2AB90-FEE2-4F1D-B06C-3A000A368EE8}"/>
+    <hyperlink ref="M32" r:id="rId28" xr:uid="{06DBF727-0A6D-44B5-A324-43382F08B2C2}"/>
+    <hyperlink ref="M29" r:id="rId29" xr:uid="{40F16354-7A06-4E01-B4F2-703A447D6FD4}"/>
+    <hyperlink ref="M25" r:id="rId30" xr:uid="{3AF3905E-DE9D-40EF-8DC5-B18BA910C37A}"/>
+    <hyperlink ref="M35" r:id="rId31" xr:uid="{E6173F77-10A1-4D51-94AA-5F4D2B252402}"/>
+    <hyperlink ref="M41" r:id="rId32" xr:uid="{24B6B5F2-4DE0-493D-959B-BFFA161DD4F8}"/>
+    <hyperlink ref="M40" r:id="rId33" xr:uid="{BCCD4565-5BF9-420D-AE77-FC9E34787390}"/>
+    <hyperlink ref="M39" r:id="rId34" xr:uid="{1411FD03-E70F-4FB6-A30C-459C21E5FC2A}"/>
+    <hyperlink ref="M26" r:id="rId35" xr:uid="{02B0BFEB-EFA5-4628-8F50-F12DB997B15B}"/>
+    <hyperlink ref="M27" r:id="rId36" xr:uid="{A01767D4-471B-4471-9814-2D09DE99B54D}"/>
+    <hyperlink ref="M42" r:id="rId37" xr:uid="{21234BC0-A4AD-48CE-943D-03691565B389}"/>
+    <hyperlink ref="M36" r:id="rId38" xr:uid="{DEAB788C-5605-4BE2-8087-B98ED9B6E7FE}"/>
+    <hyperlink ref="M38" r:id="rId39" xr:uid="{5CAC8C89-3B4D-4E38-95C6-EF0B37917D16}"/>
+    <hyperlink ref="M2" r:id="rId40" xr:uid="{3C133155-7B0B-41E6-A1C5-011FE358F9C5}"/>
+    <hyperlink ref="M6" r:id="rId41" xr:uid="{637873AE-C18A-42A8-8DF8-B583322C2083}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <tableParts count="1">
+    <tablePart r:id="rId43"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3B0B8F-BFAE-4978-8BC3-BB4B1F35045E}">
   <dimension ref="A1:BY39"/>
   <sheetViews>
@@ -6482,7 +8808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF67AB0-C62D-4725-9C37-314EFBDA1EAC}">
   <dimension ref="A1:BY39"/>
   <sheetViews>
@@ -7625,7 +9951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11A2706-D573-4AE0-A866-208A25544B18}">
   <dimension ref="A1:E707"/>
   <sheetViews>
@@ -19670,7 +21996,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E719038-1FD2-435D-8ABB-C76A4CB3F3FE}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D2" s="26">
+        <v>209.99</v>
+      </c>
+      <c r="E2">
+        <v>960</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G2">
+        <v>192</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{20EC5549-0E98-4A58-A7DA-9720603875D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9FC580-22E3-4F00-B243-C9A0438EE228}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -19951,1430 +22385,2787 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64173DE6-CFC5-4B3D-9EC1-FA6AF9AF1418}">
-  <dimension ref="A1:K41"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ADAB04-86BD-4131-AFBF-5CACD8C584C8}">
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45">
+        <v>4039</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F2">
+        <v>4500</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2" s="56">
+        <f>($G2*(1/((1000000*$F2)/2))*1000000000)</f>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="I2">
+        <v>1.45</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M2" s="26">
+        <v>334.99</v>
+      </c>
+      <c r="N2" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>20.936875000000001</v>
+      </c>
+      <c r="O2" s="49">
+        <v>43191</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F3">
+        <v>3200</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" s="56">
+        <f>($G3*(1/((1000000*$F3)/2))*1000000000)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I3">
+        <v>1.35</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M3" s="26">
+        <v>273.99</v>
+      </c>
+      <c r="N3" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>8.5621875000000003</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45">
+        <v>4065</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F4">
+        <v>3200</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" s="56">
+        <f>($G4*(1/((1000000*$F4)/2))*1000000000)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I4">
+        <v>1.35</v>
+      </c>
+      <c r="J4">
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="26">
+        <v>554.99</v>
+      </c>
+      <c r="N4" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>8.6717187500000001</v>
+      </c>
+      <c r="O4" s="49">
+        <v>42339</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>7</v>
+      </c>
+      <c r="B5" s="45">
+        <v>3610</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F5">
+        <v>3200</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" s="56">
+        <f>($G5*(1/((1000000*$F5)/2))*1000000000)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I5">
+        <v>1.35</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="26">
+        <v>278.99</v>
+      </c>
+      <c r="N5" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>8.7184375000000003</v>
+      </c>
+      <c r="O5" s="49">
+        <v>42979</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F6">
+        <v>3200</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" s="56">
+        <f>($G6*(1/((1000000*$F6)/2))*1000000000)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I6">
+        <v>1.35</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M6" s="26">
+        <v>599.99</v>
+      </c>
+      <c r="N6" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.3748437500000001</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F7">
+        <v>3600</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="56">
+        <f>($G7*(1/((1000000*$F7)/2))*1000000000)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I7">
+        <v>1.35</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M7" s="26">
+        <v>189.99</v>
+      </c>
+      <c r="N7" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.9371875000000003</v>
+      </c>
+      <c r="O7" s="49"/>
+      <c r="P7" t="s">
         <v>1184</v>
       </c>
-      <c r="E1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>1181</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E8" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F8">
+        <v>3600</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" s="56">
+        <f>($G8*(1/((1000000*$F8)/2))*1000000000)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I8">
+        <v>1.35</v>
+      </c>
+      <c r="J8">
+        <v>64</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M8" s="26">
+        <v>384.99</v>
+      </c>
+      <c r="N8" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.0154687500000001</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F9">
+        <v>3600</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="56">
+        <f>($G9*(1/((1000000*$F9)/2))*1000000000)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I9">
+        <v>1.35</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M9" s="26">
+        <v>289.99</v>
+      </c>
+      <c r="N9" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.0621875000000003</v>
+      </c>
+      <c r="O9" s="49"/>
+      <c r="P9" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F10">
+        <v>3600</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="56">
+        <f>($G10*(1/((1000000*$F10)/2))*1000000000)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I10">
+        <v>1.35</v>
+      </c>
+      <c r="J10">
+        <v>64</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M10" s="26">
+        <v>589.99</v>
+      </c>
+      <c r="N10" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.2185937500000001</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>4</v>
+      </c>
+      <c r="B11" s="45">
+        <v>4304</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F11">
+        <v>3600</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" s="56">
+        <f>($G11*(1/((1000000*$F11)/2))*1000000000)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I11">
+        <v>1.35</v>
+      </c>
+      <c r="J11">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M11" s="26">
+        <v>572.84</v>
+      </c>
+      <c r="N11" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>17.901250000000001</v>
+      </c>
+      <c r="O11" s="49">
+        <v>43678</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F12">
+        <v>4266</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12" s="56">
+        <f>($G12*(1/((1000000*$F12)/2))*1000000000)</f>
+        <v>8.9076418190342235</v>
+      </c>
+      <c r="I12">
+        <v>1.4</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M12" s="26">
+        <v>219.99</v>
+      </c>
+      <c r="N12" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>13.749375000000001</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F13">
+        <v>3466</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" s="56">
+        <f>($G13*(1/((1000000*$F13)/2))*1000000000)</f>
+        <v>9.2325447201384883</v>
+      </c>
+      <c r="I13">
+        <v>1.35</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M13" s="26">
+        <v>269.99</v>
+      </c>
+      <c r="N13" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>8.4371875000000003</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F14">
+        <v>3866</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14" s="56">
+        <f>($G14*(1/((1000000*$F14)/2))*1000000000)</f>
+        <v>9.3119503362648732</v>
+      </c>
+      <c r="I14">
+        <v>1.35</v>
+      </c>
+      <c r="J14">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M14" s="26">
+        <v>316.99</v>
+      </c>
+      <c r="N14" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.9059375000000003</v>
+      </c>
+      <c r="O14" s="49"/>
+      <c r="P14" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F15">
+        <v>3866</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15" s="56">
+        <f>($G15*(1/((1000000*$F15)/2))*1000000000)</f>
+        <v>9.3119503362648732</v>
+      </c>
+      <c r="I15">
+        <v>1.35</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M15" s="26">
+        <v>316.99</v>
+      </c>
+      <c r="N15" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.9059375000000003</v>
+      </c>
+      <c r="O15" s="49"/>
+      <c r="P15" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F16">
+        <v>3000</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" s="56">
+        <f>($G16*(1/((1000000*$F16)/2))*1000000000)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="I16">
+        <v>1.35</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M16" s="26">
+        <v>213.99</v>
+      </c>
+      <c r="N16" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.6871875000000003</v>
+      </c>
+      <c r="O16" s="49"/>
+      <c r="P16" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="56">
+        <f>($G17*(1/((1000000*$F17)/2))*1000000000)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="I17">
+        <v>1.35</v>
+      </c>
+      <c r="J17">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M17" s="26">
+        <v>213.99</v>
+      </c>
+      <c r="N17" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.6871875000000003</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" s="56">
+        <f>($G18*(1/((1000000*$F18)/2))*1000000000)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="I18">
+        <v>1.35</v>
+      </c>
+      <c r="J18">
+        <v>64</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M18" s="26">
+        <v>430.99</v>
+      </c>
+      <c r="N18" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.7342187500000001</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F19">
+        <v>3200</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" s="56">
+        <f>($G19*(1/((1000000*$F19)/2))*1000000000)</f>
+        <v>9.375</v>
+      </c>
+      <c r="I19">
+        <v>1.35</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M19" s="26">
+        <v>229.99</v>
+      </c>
+      <c r="N19" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>7.1871875000000003</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F20">
+        <v>3200</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" s="56">
+        <f>($G20*(1/((1000000*$F20)/2))*1000000000)</f>
+        <v>9.375</v>
+      </c>
+      <c r="I20">
+        <v>1.35</v>
+      </c>
+      <c r="J20">
+        <v>64</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M20" s="26">
+        <v>463.99</v>
+      </c>
+      <c r="N20" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>7.2498437500000001</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <v>5</v>
+      </c>
+      <c r="B21" s="45">
+        <v>3391</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F21">
+        <v>3200</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21" s="56">
+        <f>($G21*(1/((1000000*$F21)/2))*1000000000)</f>
+        <v>9.375</v>
+      </c>
+      <c r="I21">
+        <v>1.35</v>
+      </c>
+      <c r="J21">
+        <v>64</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M21" s="26">
+        <v>579.99</v>
+      </c>
+      <c r="N21" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>9.0623437500000001</v>
+      </c>
+      <c r="O21" s="49">
+        <v>43647</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <v>12</v>
+      </c>
+      <c r="B22" s="45">
+        <v>3539</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F22">
+        <v>3200</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22" s="56">
+        <f>($G22*(1/((1000000*$F22)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>1.35</v>
+      </c>
+      <c r="J22">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M22" s="26">
+        <v>274.99</v>
+      </c>
+      <c r="N22" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.2967187500000001</v>
+      </c>
+      <c r="O22" s="49">
+        <v>42339</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="45">
+        <v>33</v>
+      </c>
+      <c r="B23" s="45">
+        <v>3679</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F23">
+        <v>3200</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23" s="56">
+        <f>($G23*(1/((1000000*$F23)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>1.35</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M23" s="26">
+        <v>74</v>
+      </c>
+      <c r="N23" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.625</v>
+      </c>
+      <c r="O23" s="49">
+        <v>42339</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="45">
+        <v>48</v>
+      </c>
+      <c r="B24" s="45">
+        <v>3408</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F24">
+        <v>3000</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" s="56">
+        <f>($G24*(1/((1000000*$F24)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>1.35</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M24" s="26">
+        <v>75</v>
+      </c>
+      <c r="N24" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.6875</v>
+      </c>
+      <c r="O24" s="49">
+        <v>42186</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F25">
+        <v>3200</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25" s="56">
+        <f>($G25*(1/((1000000*$F25)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>1.35</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M25" s="26">
+        <v>154.99</v>
+      </c>
+      <c r="N25" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.8434375000000003</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <v>37</v>
+      </c>
+      <c r="B26" s="45">
+        <v>3474</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F26">
+        <v>3200</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26" s="56">
+        <f>($G26*(1/((1000000*$F26)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>1.35</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M26" s="26">
+        <v>78</v>
+      </c>
+      <c r="N26" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.875</v>
+      </c>
+      <c r="O26" s="49">
+        <v>42248</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F27">
+        <v>3200</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27" s="56">
+        <f>($G27*(1/((1000000*$F27)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>1.35</v>
+      </c>
+      <c r="J27">
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M27" s="26">
+        <v>164.99</v>
+      </c>
+      <c r="N27" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.1559375000000003</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F28">
+        <v>3200</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28" s="56">
+        <f>($G28*(1/((1000000*$F28)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1.35</v>
+      </c>
+      <c r="J28">
+        <v>64</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M28" s="26">
+        <v>329.99</v>
+      </c>
+      <c r="N28" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.1560937500000001</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F29">
+        <v>3200</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29" s="56">
+        <f>($G29*(1/((1000000*$F29)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>1.35</v>
+      </c>
+      <c r="J29">
+        <v>128</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M29" s="26">
+        <v>659.99</v>
+      </c>
+      <c r="N29" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.1561718750000001</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F30">
+        <v>3200</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30" s="56">
+        <f>($G30*(1/((1000000*$F30)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>1.35</v>
+      </c>
+      <c r="J30">
+        <v>128</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M30" s="26">
+        <v>659.99</v>
+      </c>
+      <c r="N30" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.1561718750000001</v>
+      </c>
+      <c r="O30" s="49"/>
+      <c r="P30" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F31">
+        <v>3200</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31" s="56">
+        <f>($G31*(1/((1000000*$F31)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1.35</v>
+      </c>
+      <c r="J31">
+        <v>64</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M31" s="26">
+        <v>344.99</v>
+      </c>
+      <c r="N31" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.3904687500000001</v>
+      </c>
+      <c r="O31" s="49"/>
+      <c r="P31" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F32">
+        <v>3200</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32" s="56">
+        <f>($G32*(1/((1000000*$F32)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>1.35</v>
+      </c>
+      <c r="J32">
+        <v>64</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M32" s="26">
+        <v>344.99</v>
+      </c>
+      <c r="N32" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.3904687500000001</v>
+      </c>
+      <c r="O32" s="49"/>
+      <c r="P32" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="45">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45">
+        <v>3681</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F33">
+        <v>3200</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33" s="56">
+        <f>($G33*(1/((1000000*$F33)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>1.35</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M33" s="26">
+        <v>174</v>
+      </c>
+      <c r="N33" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4375</v>
+      </c>
+      <c r="O33" s="49">
+        <v>43435</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F34">
+        <v>3200</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34" s="56">
+        <f>($G34*(1/((1000000*$F34)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>1.35</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M34" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="N34" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="O34" s="49"/>
+      <c r="P34" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F35">
+        <v>3200</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35" s="56">
+        <f>($G35*(1/((1000000*$F35)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1.35</v>
+      </c>
+      <c r="J35">
+        <v>32</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M35" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="N35" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="O35" s="49"/>
+      <c r="P35" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F36">
+        <v>3200</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36" s="56">
+        <f>($G36*(1/((1000000*$F36)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>1.35</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M36" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="N36" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="O36" s="49"/>
+      <c r="P36" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F37">
+        <v>3600</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37" s="56">
+        <f>($G37*(1/((1000000*$F37)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>1.35</v>
+      </c>
+      <c r="J37">
+        <v>32</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M37" s="26">
+        <v>174.99</v>
+      </c>
+      <c r="N37" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4684375000000003</v>
+      </c>
+      <c r="O37" s="49"/>
+      <c r="P37" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F38" s="34">
+        <v>3200</v>
+      </c>
+      <c r="G38" s="34">
+        <v>16</v>
+      </c>
+      <c r="H38" s="57">
+        <f>($G38*(1/((1000000*$F38)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1.35</v>
+      </c>
+      <c r="J38" s="34">
+        <v>128</v>
+      </c>
+      <c r="K38" s="34">
+        <v>4</v>
+      </c>
+      <c r="L38" s="35">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="M38" s="36">
+        <v>699.99</v>
+      </c>
+      <c r="N38" s="36">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.4686718750000001</v>
+      </c>
+      <c r="O38" s="49"/>
+      <c r="P38" s="34" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q38" s="34"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F39">
+        <v>3600</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39" s="56">
+        <f>($G39*(1/((1000000*$F39)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>1.35</v>
+      </c>
+      <c r="J39">
+        <v>64</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M39" s="26">
+        <v>354.99</v>
+      </c>
+      <c r="N39" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.5467187500000001</v>
+      </c>
+      <c r="O39" s="49"/>
+      <c r="P39" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F40">
+        <v>3200</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" s="56">
+        <f>($G40*(1/((1000000*$F40)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>1.35</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M40" s="26">
+        <v>92.99</v>
+      </c>
+      <c r="N40" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.8118749999999997</v>
+      </c>
+      <c r="O40" s="49"/>
+      <c r="P40" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F41">
+        <v>3200</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41" s="56">
+        <f>($G41*(1/((1000000*$F41)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>1.35</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M41" s="26">
+        <v>94.99</v>
+      </c>
+      <c r="N41" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.9368749999999997</v>
+      </c>
+      <c r="O41" s="49"/>
+      <c r="P41" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="45">
+        <v>32</v>
+      </c>
+      <c r="B42" s="45">
+        <v>3600</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F42">
+        <v>3200</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42" s="56">
+        <f>($G42*(1/((1000000*$F42)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>1.35</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M42" s="26">
+        <v>99</v>
+      </c>
+      <c r="N42" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.1875</v>
+      </c>
+      <c r="O42" s="49">
+        <v>42736</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F43">
+        <v>3200</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43" s="56">
+        <f>($G43*(1/((1000000*$F43)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>1.35</v>
+      </c>
+      <c r="J43">
+        <v>32</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M43" s="26">
+        <v>203.99</v>
+      </c>
+      <c r="N43" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.3746875000000003</v>
+      </c>
+      <c r="O43" s="49"/>
+      <c r="P43" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F44">
+        <v>3200</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44" s="56">
+        <f>($G44*(1/((1000000*$F44)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>1.35</v>
+      </c>
+      <c r="J44">
+        <v>16</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M44" s="26">
+        <v>103.99</v>
+      </c>
+      <c r="N44" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.4993749999999997</v>
+      </c>
+      <c r="O44" s="49"/>
+      <c r="P44" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F45">
+        <v>3600</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45" s="56">
+        <f>($G45*(1/((1000000*$F45)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>1.35</v>
+      </c>
+      <c r="J45">
+        <v>32</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M45" s="26">
+        <v>209.99</v>
+      </c>
+      <c r="N45" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>6.5621875000000003</v>
+      </c>
+      <c r="O45" s="49"/>
+      <c r="P45" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
+        <v>6</v>
+      </c>
+      <c r="B46" s="45">
+        <v>3247</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F46">
+        <v>3000</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46" s="56">
+        <f>($G46*(1/((1000000*$F46)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>1.35</v>
+      </c>
+      <c r="J46">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M46" s="26">
+        <v>530</v>
+      </c>
+      <c r="N46" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>8.28125</v>
+      </c>
+      <c r="O46" s="49">
+        <v>42339</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
+        <v>13</v>
+      </c>
+      <c r="B47" s="45">
+        <v>2847</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F47">
+        <v>3000</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47" s="56">
+        <f>($G47*(1/((1000000*$F47)/2))*1000000000)</f>
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>1.35</v>
+      </c>
+      <c r="J47">
+        <v>16</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>4</v>
+      </c>
+      <c r="M47" s="26">
+        <v>285</v>
+      </c>
+      <c r="N47" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>17.8125</v>
+      </c>
+      <c r="O47" s="49">
+        <v>44118</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F48" s="51">
+        <v>2133</v>
+      </c>
+      <c r="G48" s="51">
+        <v>11</v>
+      </c>
+      <c r="H48" s="58">
+        <f>($G48*(1/((1000000*$F48)/2))*1000000000)</f>
+        <v>10.314111579934364</v>
+      </c>
+      <c r="I48" s="51">
+        <v>1.6</v>
+      </c>
+      <c r="J48" s="51">
+        <v>16</v>
+      </c>
+      <c r="K48" s="51">
+        <v>4</v>
+      </c>
+      <c r="L48" s="53">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>4</v>
+      </c>
+      <c r="M48" s="54">
+        <v>113.73</v>
+      </c>
+      <c r="N48" s="54">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>7.1081250000000002</v>
+      </c>
+      <c r="O48" s="55">
+        <v>40878</v>
+      </c>
+      <c r="P48" s="55" t="s">
+        <v>1289</v>
+      </c>
+      <c r="Q48" s="51" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F49">
+        <v>3000</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49" s="56">
+        <f>($G49*(1/((1000000*$F49)/2))*1000000000)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I49">
+        <v>1.35</v>
+      </c>
+      <c r="J49">
+        <v>32</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M49" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="N49" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.9996875000000003</v>
+      </c>
+      <c r="O49" s="49"/>
+      <c r="P49" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F50">
+        <v>3000</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50" s="56">
+        <f>($G50*(1/((1000000*$F50)/2))*1000000000)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I50">
+        <v>1.35</v>
+      </c>
+      <c r="J50">
+        <v>32</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M50" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="N50" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.9996875000000003</v>
+      </c>
+      <c r="O50" s="49"/>
+      <c r="P50" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F51">
+        <v>3000</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51" s="56">
+        <f>($G51*(1/((1000000*$F51)/2))*1000000000)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I51">
+        <v>1.35</v>
+      </c>
+      <c r="J51">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M51" s="26">
+        <v>322.99</v>
+      </c>
+      <c r="N51" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.0467187500000001</v>
+      </c>
+      <c r="O51" s="49"/>
+      <c r="P51" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F52">
+        <v>3000</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52" s="56">
+        <f>($G52*(1/((1000000*$F52)/2))*1000000000)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I52">
+        <v>1.35</v>
+      </c>
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M52" s="26">
+        <v>89.99</v>
+      </c>
+      <c r="N52" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.6243749999999997</v>
+      </c>
+      <c r="O52" s="49"/>
+      <c r="P52" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F53">
+        <v>3000</v>
+      </c>
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53" s="56">
+        <f>($G53*(1/((1000000*$F53)/2))*1000000000)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I53">
+        <v>1.35</v>
+      </c>
+      <c r="J53">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M53" s="26">
+        <v>179.99</v>
+      </c>
+      <c r="N53" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>5.6246875000000003</v>
+      </c>
+      <c r="O53" s="49"/>
+      <c r="P53" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="45">
+        <v>8</v>
+      </c>
+      <c r="B54" s="45">
+        <v>2961</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F54">
+        <v>2666</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54" s="56">
+        <f>($G54*(1/((1000000*$F54)/2))*1000000000)</f>
+        <v>11.252813203300825</v>
+      </c>
+      <c r="I54">
+        <v>1.2</v>
+      </c>
+      <c r="J54">
+        <v>32</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M54" s="26">
+        <v>9999</v>
+      </c>
+      <c r="N54" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>312.46875</v>
+      </c>
+      <c r="O54" s="49">
+        <v>41913</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
+        <v>17</v>
+      </c>
+      <c r="B55" s="45">
+        <v>3379</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F55">
+        <v>2800</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55" s="56">
+        <f>($G55*(1/((1000000*$F55)/2))*1000000000)</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="I55">
+        <v>1.2</v>
+      </c>
+      <c r="J55">
+        <v>16</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>4</v>
+      </c>
+      <c r="M55" s="26">
+        <v>395.51</v>
+      </c>
+      <c r="N55" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>24.719374999999999</v>
+      </c>
+      <c r="O55" s="49">
+        <v>43466</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="45">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3200</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E2" s="34">
+      <c r="B56" s="45">
+        <v>2797</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F56">
+        <v>2400</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56" s="56">
+        <f>($G56*(1/((1000000*$F56)/2))*1000000000)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I56">
+        <v>1.2</v>
+      </c>
+      <c r="J56">
         <v>128</v>
       </c>
-      <c r="F2" s="34">
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M56" s="26">
+        <v>1291</v>
+      </c>
+      <c r="N56" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>10.0859375</v>
+      </c>
+      <c r="O56" s="49">
+        <v>42125</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F57">
+        <v>2666</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57" s="56">
+        <f>($G57*(1/((1000000*$F57)/2))*1000000000)</f>
+        <v>12.003000750187546</v>
+      </c>
+      <c r="I57">
+        <v>1.2</v>
+      </c>
+      <c r="J57">
+        <v>32</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="M57" s="26">
+        <v>158.99</v>
+      </c>
+      <c r="N57" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.9684375000000003</v>
+      </c>
+      <c r="O57" s="49"/>
+      <c r="P57" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="45">
+        <v>73</v>
+      </c>
+      <c r="B58" s="45">
+        <v>2630</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F58">
+        <v>2133</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58" s="56">
+        <f>($G58*(1/((1000000*$F58)/2))*1000000000)</f>
+        <v>13.127051101734645</v>
+      </c>
+      <c r="I58">
+        <v>1.2</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="M58" s="26">
+        <v>125</v>
+      </c>
+      <c r="N58" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>7.8125</v>
+      </c>
+      <c r="O58" s="49">
+        <v>42036</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F59">
+        <v>2666</v>
+      </c>
+      <c r="G59">
+        <v>18</v>
+      </c>
+      <c r="H59" s="56">
+        <f>($G59*(1/((1000000*$F59)/2))*1000000000)</f>
+        <v>13.50337584396099</v>
+      </c>
+      <c r="I59">
+        <v>1.2</v>
+      </c>
+      <c r="J59">
+        <v>128</v>
+      </c>
+      <c r="K59">
         <v>4</v>
       </c>
-      <c r="G2" s="35">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+      <c r="L59" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
         <v>32</v>
       </c>
-      <c r="H2" s="36">
-        <v>699.99</v>
-      </c>
-      <c r="I2" s="36">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4686718750000001</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>1235</v>
-      </c>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C3">
-        <v>3200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E3">
+      <c r="M59" s="26">
+        <v>569.99</v>
+      </c>
+      <c r="N59" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.4530468750000001</v>
+      </c>
+      <c r="O59" s="49"/>
+      <c r="P59" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F60">
+        <v>2666</v>
+      </c>
+      <c r="G60">
+        <v>18</v>
+      </c>
+      <c r="H60" s="56">
+        <f>($G60*(1/((1000000*$F60)/2))*1000000000)</f>
+        <v>13.50337584396099</v>
+      </c>
+      <c r="I60">
+        <v>1.2</v>
+      </c>
+      <c r="J60">
         <v>128</v>
       </c>
-      <c r="F3">
+      <c r="K60">
         <v>4</v>
       </c>
-      <c r="G3">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
+      <c r="L60" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
         <v>32</v>
       </c>
-      <c r="H3" s="26">
-        <v>659.99</v>
-      </c>
-      <c r="I3" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1561718750000001</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C4">
-        <v>3200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E4">
-        <v>128</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
-      </c>
-      <c r="H4" s="26">
-        <v>659.99</v>
-      </c>
-      <c r="I4" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1561718750000001</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C5">
-        <v>3200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E5">
-        <v>64</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="M60" s="26">
         <v>599.99</v>
       </c>
-      <c r="I5" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.3748437500000001</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C6">
-        <v>3600</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H6" s="26">
-        <v>589.99</v>
-      </c>
-      <c r="I6" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.2185937500000001</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C7">
-        <v>2666</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E7">
-        <v>128</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
-      </c>
-      <c r="H7" s="26">
-        <v>569.99</v>
-      </c>
-      <c r="I7" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.4530468750000001</v>
-      </c>
-      <c r="J7" s="28" t="s">
+      <c r="N60" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>4.6874218750000001</v>
+      </c>
+      <c r="O60" s="49"/>
+      <c r="P60" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C8">
-        <v>3200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E8">
-        <v>64</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H8" s="26">
-        <v>463.99</v>
-      </c>
-      <c r="I8" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>7.2498437500000001</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C9">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H9" s="26">
-        <v>430.99</v>
-      </c>
-      <c r="I9" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.7342187500000001</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C10">
-        <v>3600</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E10">
-        <v>64</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H10" s="26">
-        <v>384.99</v>
-      </c>
-      <c r="I10" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.0154687500000001</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C11">
-        <v>3600</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E11">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H11" s="26">
-        <v>354.99</v>
-      </c>
-      <c r="I11" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.5467187500000001</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C12">
-        <v>3200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E12">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
-      </c>
-      <c r="H12" s="26">
-        <v>344.99</v>
-      </c>
-      <c r="I12" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.3904687500000001</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C13">
-        <v>3200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E13">
-        <v>64</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
-      </c>
-      <c r="H13" s="26">
-        <v>344.99</v>
-      </c>
-      <c r="I13" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.3904687500000001</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C14">
-        <v>3200</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E14">
-        <v>64</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>32</v>
-      </c>
-      <c r="H14" s="26">
-        <v>329.99</v>
-      </c>
-      <c r="I14" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1560937500000001</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C15">
-        <v>3000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E15">
-        <v>64</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H15" s="26">
-        <v>322.99</v>
-      </c>
-      <c r="I15" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.0467187500000001</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C16">
-        <v>3866</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E16">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H16" s="26">
-        <v>316.99</v>
-      </c>
-      <c r="I16" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.9059375000000003</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C17">
-        <v>3866</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E17">
-        <v>32</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H17" s="26">
-        <v>316.99</v>
-      </c>
-      <c r="I17" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.9059375000000003</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C18">
-        <v>3600</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H18" s="26">
-        <v>289.99</v>
-      </c>
-      <c r="I18" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>9.0621875000000003</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C19">
-        <v>3200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E19">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H19" s="26">
-        <v>273.99</v>
-      </c>
-      <c r="I19" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>8.5621875000000003</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C20">
-        <v>3466</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E20">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H20" s="26">
-        <v>269.99</v>
-      </c>
-      <c r="I20" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>8.4371875000000003</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C21">
-        <v>3200</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E21">
-        <v>32</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H21" s="26">
-        <v>229.99</v>
-      </c>
-      <c r="I21" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>7.1871875000000003</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C22">
-        <v>4266</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H22" s="26">
-        <v>219.99</v>
-      </c>
-      <c r="I22" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>13.749375000000001</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C23">
-        <v>3000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H23" s="26">
-        <v>213.99</v>
-      </c>
-      <c r="I23" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.6871875000000003</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C24">
-        <v>3000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H24" s="26">
-        <v>213.99</v>
-      </c>
-      <c r="I24" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.6871875000000003</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C25">
-        <v>3600</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E25">
-        <v>32</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H25" s="26">
-        <v>209.99</v>
-      </c>
-      <c r="I25" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.5621875000000003</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C26">
-        <v>3200</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E26">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H26" s="26">
-        <v>203.99</v>
-      </c>
-      <c r="I26" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.3746875000000003</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C27">
-        <v>3600</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H27" s="26">
-        <v>189.99</v>
-      </c>
-      <c r="I27" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.9371875000000003</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C28">
-        <v>3000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H28" s="26">
-        <v>179.99</v>
-      </c>
-      <c r="I28" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.6246875000000003</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C29">
-        <v>3200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E29">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H29" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I29" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C30">
-        <v>3200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E30">
-        <v>32</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H30" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I30" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C31">
-        <v>3200</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E31">
-        <v>32</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H31" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I31" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C32">
-        <v>3600</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E32">
-        <v>32</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H32" s="26">
-        <v>174.99</v>
-      </c>
-      <c r="I32" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.4684375000000003</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C33">
-        <v>3200</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H33" s="26">
-        <v>164.99</v>
-      </c>
-      <c r="I33" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.1559375000000003</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C34">
-        <v>3000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E34">
-        <v>32</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H34" s="26">
-        <v>159.99</v>
-      </c>
-      <c r="I34" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9996875000000003</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C35">
-        <v>3000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H35" s="26">
-        <v>159.99</v>
-      </c>
-      <c r="I35" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9996875000000003</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C36">
-        <v>2666</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E36">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H36" s="26">
-        <v>158.99</v>
-      </c>
-      <c r="I36" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.9684375000000003</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C37">
-        <v>3200</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E37">
-        <v>32</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="H37" s="26">
-        <v>154.99</v>
-      </c>
-      <c r="I37" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>4.8434375000000003</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C38">
-        <v>3200</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H38" s="26">
-        <v>103.99</v>
-      </c>
-      <c r="I38" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>6.4993749999999997</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C39">
-        <v>3200</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E39">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H39" s="26">
-        <v>94.99</v>
-      </c>
-      <c r="I39" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.9368749999999997</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C40">
-        <v>3200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E40">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H40" s="26">
-        <v>92.99</v>
-      </c>
-      <c r="I40" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.8118749999999997</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C41">
-        <v>3000</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E41">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" s="32">
-        <f>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</f>
-        <v>8</v>
-      </c>
-      <c r="H41" s="26">
-        <v>89.99</v>
-      </c>
-      <c r="I41" s="26">
-        <f>IFERROR(Table4[[#This Row],[Cost]]/Table4[[#This Row],[Ttl GB]],0)</f>
-        <v>5.6243749999999997</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>1234</v>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G41">
+  <conditionalFormatting sqref="H2:H60">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J60">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -21386,7 +25177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H41">
+  <conditionalFormatting sqref="I2:I60">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -21398,7 +25189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I41">
+  <conditionalFormatting sqref="G2:G60">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -21410,7 +25201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E41">
+  <conditionalFormatting sqref="F2:F60">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -21422,77 +25213,1125 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F1048576 J1:J41">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C41">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="M2:M60">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N60">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" xr:uid="{16C2754A-4142-43F5-81F1-C5A87091EAB3}"/>
-    <hyperlink ref="J15" r:id="rId2" xr:uid="{79AD2FA7-7D6F-4E1A-A5BD-1E12472C4ED7}"/>
-    <hyperlink ref="J11" r:id="rId3" xr:uid="{81F8722C-5B63-4CCC-BFED-90559DEF46D2}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{FAE67112-CB08-4807-91C6-FCE7F117FB1B}"/>
-    <hyperlink ref="J22" r:id="rId5" xr:uid="{A307FFED-8608-4CA8-AB71-00484E140E3A}"/>
-    <hyperlink ref="J5" r:id="rId6" xr:uid="{F5AEF70C-9007-4769-8E84-448E4B1E407A}"/>
-    <hyperlink ref="J32" r:id="rId7" xr:uid="{AFDC7797-78F9-4BE5-9BC6-695B190B54E6}"/>
-    <hyperlink ref="J27" r:id="rId8" xr:uid="{19E67430-CBE4-40F0-8A88-331F9C1B315F}"/>
-    <hyperlink ref="J33" r:id="rId9" xr:uid="{EE1D5146-486C-4053-B02A-A18B484D8A0C}"/>
-    <hyperlink ref="J21" r:id="rId10" xr:uid="{AD923C7A-A7EB-4E7D-8C26-C32A3E8120EE}"/>
-    <hyperlink ref="J7" r:id="rId11" xr:uid="{204E46CD-2A1E-425F-9D77-70D764345304}"/>
-    <hyperlink ref="J14" r:id="rId12" xr:uid="{E325E3C3-9C7C-45B9-B081-483090EC8464}"/>
-    <hyperlink ref="J4" r:id="rId13" xr:uid="{2B2CE37D-1DCD-4A8A-83DE-49878C4871D9}"/>
-    <hyperlink ref="J16" r:id="rId14" xr:uid="{B0EDD67E-B80D-4EE2-902C-314E23295D55}"/>
-    <hyperlink ref="J6" r:id="rId15" xr:uid="{858CB37F-183F-4142-B6CE-162E6AF9C03D}"/>
-    <hyperlink ref="J29" r:id="rId16" xr:uid="{D399E858-E9D8-425B-8D4F-ECC0DDECF3CE}"/>
-    <hyperlink ref="J17" r:id="rId17" xr:uid="{203DFE8C-2BC0-48CB-934B-D3861B33EADF}"/>
-    <hyperlink ref="J12" r:id="rId18" xr:uid="{398A0357-F0B3-4DAE-8ED8-7DBA10522E98}"/>
-    <hyperlink ref="J23" r:id="rId19" xr:uid="{61B63E9E-57CC-4470-858A-63AA43463F10}"/>
-    <hyperlink ref="J9" r:id="rId20" xr:uid="{95E9F002-7AF1-4975-B97E-0F845733F6E1}"/>
-    <hyperlink ref="J20" r:id="rId21" xr:uid="{83C6C9F8-72B2-4730-9B5B-6F75DD45855F}"/>
-    <hyperlink ref="J18" r:id="rId22" xr:uid="{56C4A955-61B6-48D5-9AF3-F3550144F187}"/>
-    <hyperlink ref="J8" r:id="rId23" xr:uid="{1D1ED406-A9E8-4C1F-95BF-361ECE6411BD}"/>
-    <hyperlink ref="J19" r:id="rId24" xr:uid="{5F328C26-8131-4239-A5AE-4FB6014C01EC}"/>
-    <hyperlink ref="J36" r:id="rId25" xr:uid="{9AC2A9D4-7923-44CE-902B-EE5429135982}"/>
-    <hyperlink ref="J30" r:id="rId26" xr:uid="{5055383A-D423-42FB-9547-22DD7AB0D447}"/>
-    <hyperlink ref="J13" r:id="rId27" xr:uid="{ABC2AB90-FEE2-4F1D-B06C-3A000A368EE8}"/>
-    <hyperlink ref="J31" r:id="rId28" xr:uid="{06DBF727-0A6D-44B5-A324-43382F08B2C2}"/>
-    <hyperlink ref="J28" r:id="rId29" xr:uid="{40F16354-7A06-4E01-B4F2-703A447D6FD4}"/>
-    <hyperlink ref="J24" r:id="rId30" xr:uid="{3AF3905E-DE9D-40EF-8DC5-B18BA910C37A}"/>
-    <hyperlink ref="J34" r:id="rId31" xr:uid="{E6173F77-10A1-4D51-94AA-5F4D2B252402}"/>
-    <hyperlink ref="J40" r:id="rId32" xr:uid="{24B6B5F2-4DE0-493D-959B-BFFA161DD4F8}"/>
-    <hyperlink ref="J39" r:id="rId33" xr:uid="{BCCD4565-5BF9-420D-AE77-FC9E34787390}"/>
-    <hyperlink ref="J38" r:id="rId34" xr:uid="{1411FD03-E70F-4FB6-A30C-459C21E5FC2A}"/>
-    <hyperlink ref="J25" r:id="rId35" xr:uid="{02B0BFEB-EFA5-4628-8F50-F12DB997B15B}"/>
-    <hyperlink ref="J26" r:id="rId36" xr:uid="{A01767D4-471B-4471-9814-2D09DE99B54D}"/>
-    <hyperlink ref="J41" r:id="rId37" xr:uid="{21234BC0-A4AD-48CE-943D-03691565B389}"/>
-    <hyperlink ref="J35" r:id="rId38" xr:uid="{DEAB788C-5605-4BE2-8087-B98ED9B6E7FE}"/>
-    <hyperlink ref="J37" r:id="rId39" xr:uid="{5CAC8C89-3B4D-4E38-95C6-EF0B37917D16}"/>
-    <hyperlink ref="J2" r:id="rId40" xr:uid="{3C133155-7B0B-41E6-A1C5-011FE358F9C5}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{CFF6A25B-3A2F-46DD-8CFA-2EA8824274CA}"/>
+    <hyperlink ref="E51" r:id="rId2" xr:uid="{B7AEB40D-EBB7-4576-BC3B-380C5B550A23}"/>
+    <hyperlink ref="E39" r:id="rId3" xr:uid="{2F493F2B-25BF-4D14-8F38-F76CB16962C8}"/>
+    <hyperlink ref="E29" r:id="rId4" xr:uid="{066A9489-E2E2-45DD-9849-E98F788B8124}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{47CDEA62-FF6E-4DFC-9227-D42833B5144C}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{D258AD6F-9F0C-4158-AD39-1BF6D2D9A712}"/>
+    <hyperlink ref="E37" r:id="rId7" xr:uid="{9AA96668-9347-442E-A578-E02C5939774E}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{14B0B5B8-A287-4F10-B9A6-792B3293D30A}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{A4DBBF6C-DBA7-4720-9A70-74434FE04730}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{23836076-A375-4246-A5AB-718B01C5A379}"/>
+    <hyperlink ref="E59" r:id="rId11" xr:uid="{5080B173-AF2D-45AB-8BED-BA97A2560552}"/>
+    <hyperlink ref="E28" r:id="rId12" xr:uid="{4451168D-08C6-49B1-8D9D-01CE7B3A4C9F}"/>
+    <hyperlink ref="E30" r:id="rId13" xr:uid="{612A7678-0EEB-4F6A-A680-ABCA6F26F2CC}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{879C77C9-22B0-4FF0-AC5E-B5F061D89DC1}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{9A1D19D8-8A02-46EC-A2BE-565F98C15983}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{9F372238-7A6E-4EB9-B4BC-1760D99BA275}"/>
+    <hyperlink ref="E15" r:id="rId17" xr:uid="{1F96D6A9-A453-4E3D-BC40-1F78192DC527}"/>
+    <hyperlink ref="E31" r:id="rId18" xr:uid="{8D4548B4-C6FA-4D1A-B8B5-FE993113E250}"/>
+    <hyperlink ref="E16" r:id="rId19" xr:uid="{5D165CCE-82D1-4865-900D-FB828229DC3A}"/>
+    <hyperlink ref="E18" r:id="rId20" xr:uid="{7A3A5C84-6CCD-4F52-88E9-44C56536F79E}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{C420EA22-D67F-4374-9424-6837D8AB62AA}"/>
+    <hyperlink ref="E9" r:id="rId22" xr:uid="{E8B735AB-0D4B-422A-B495-E86C51CD52A6}"/>
+    <hyperlink ref="E20" r:id="rId23" xr:uid="{B6373173-58FB-4F24-B5C2-46029CBB759D}"/>
+    <hyperlink ref="E3" r:id="rId24" xr:uid="{68B5142C-0F25-49C4-B76F-64A2841F34F9}"/>
+    <hyperlink ref="E57" r:id="rId25" xr:uid="{AF460156-59EA-40A4-B832-1D76401B75FA}"/>
+    <hyperlink ref="E35" r:id="rId26" xr:uid="{15D07D1E-ED1D-40E9-BB94-950603AF1719}"/>
+    <hyperlink ref="E32" r:id="rId27" xr:uid="{6ED15C6C-02FD-4BB0-98D3-C65BE087A67A}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{DE34CBD0-F385-4F99-A7FA-D361D53F0098}"/>
+    <hyperlink ref="E53" r:id="rId29" xr:uid="{4E2E80EC-E4FD-4D4B-AAD9-B4B539EF14E5}"/>
+    <hyperlink ref="E17" r:id="rId30" xr:uid="{3D054915-B9B6-4BB3-B24A-B2588D81DBC0}"/>
+    <hyperlink ref="E49" r:id="rId31" xr:uid="{3DB7BC9E-925E-4A55-9DA1-0049B690D256}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{31D7D169-0D82-4316-A05A-E561B203FCBE}"/>
+    <hyperlink ref="E41" r:id="rId33" xr:uid="{8A2CE99F-9A30-4515-962D-9D2096A17561}"/>
+    <hyperlink ref="E44" r:id="rId34" xr:uid="{0577515C-7A39-4A18-B42E-A3F23AFD699E}"/>
+    <hyperlink ref="E45" r:id="rId35" xr:uid="{FF004BF8-E662-455A-8B3B-E7DB1B7437A5}"/>
+    <hyperlink ref="E43" r:id="rId36" xr:uid="{05574524-1CA8-4FA8-AB73-555431A4B5C0}"/>
+    <hyperlink ref="E52" r:id="rId37" xr:uid="{1CAADF7F-3837-4EFE-B1AD-534AAFC1C076}"/>
+    <hyperlink ref="E50" r:id="rId38" xr:uid="{7CA732AD-7816-4EAA-90DD-FE0CD3DC59AE}"/>
+    <hyperlink ref="E25" r:id="rId39" xr:uid="{E5F74465-E859-4B09-AFC3-971D78CE49E0}"/>
+    <hyperlink ref="E38" r:id="rId40" xr:uid="{0C144117-3F4E-4CCD-8234-15293EBC1937}"/>
+    <hyperlink ref="E60" r:id="rId41" xr:uid="{FEFDC0C1-2D27-4A76-921C-EC656E9D7301}"/>
+    <hyperlink ref="E56" r:id="rId42" xr:uid="{5349DFEB-5574-424F-84B9-0C1004955ABC}"/>
+    <hyperlink ref="E11" r:id="rId43" xr:uid="{4942E17C-BF6B-45D0-BA56-6FB06C77620F}"/>
+    <hyperlink ref="E4" r:id="rId44" xr:uid="{0C956304-2AF2-49AA-9460-C5B1BBF2841D}"/>
+    <hyperlink ref="E5" r:id="rId45" xr:uid="{D045FD94-4EA4-41C8-B61A-2B5E10DC7953}"/>
+    <hyperlink ref="E54" r:id="rId46" xr:uid="{578D6F22-E30D-411A-827C-7AD33FBC4CEC}"/>
+    <hyperlink ref="E55" r:id="rId47" xr:uid="{57AA5050-4848-42BD-BE43-94C9F5BEE487}"/>
+    <hyperlink ref="E46" r:id="rId48" xr:uid="{740C85FA-8961-464D-A4A2-781D6A6D262D}"/>
+    <hyperlink ref="E33" r:id="rId49" xr:uid="{BB2C0AFB-296C-49D2-95E3-A3071A295D11}"/>
+    <hyperlink ref="E24" r:id="rId50" xr:uid="{90A81417-1F9B-4DB9-B816-B80B497F82F5}"/>
+    <hyperlink ref="E21" r:id="rId51" xr:uid="{4581D832-07B1-4F2D-AD9D-31FC42504477}"/>
+    <hyperlink ref="E26" r:id="rId52" xr:uid="{F108D775-0A0F-45B7-B1DB-8BE5577361A7}"/>
+    <hyperlink ref="E58" r:id="rId53" xr:uid="{AC483697-EF47-40D8-B872-2980E080E109}"/>
+    <hyperlink ref="E23" r:id="rId54" xr:uid="{39FD5C39-3524-425C-B7E3-7CEE3436100F}"/>
+    <hyperlink ref="E22" r:id="rId55" xr:uid="{F0E12A3F-1E55-4B6E-B007-E632F28C719C}"/>
+    <hyperlink ref="E2" r:id="rId56" xr:uid="{05C88727-FAF4-43E8-9A25-C126626E8229}"/>
+    <hyperlink ref="E48" r:id="rId57" xr:uid="{16CE7D53-5FA5-4853-AD26-C0526A7F13DC}"/>
+    <hyperlink ref="A65" r:id="rId58" xr:uid="{934A8811-E32C-4164-AA37-25D5A5CC29DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC59E5-4E49-4E84-A714-832164F2AFEE}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>1260</v>
+      </c>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>2133</v>
+      </c>
+      <c r="B3" s="44">
+        <f t="shared" ref="B3:M19" si="0">(B$2*(1/(($A3*1000000)/2)))*1000000000</f>
+        <v>8.4388185654008439</v>
+      </c>
+      <c r="C3" s="44">
+        <f t="shared" si="0"/>
+        <v>9.3764650726676049</v>
+      </c>
+      <c r="D3" s="44">
+        <f t="shared" si="0"/>
+        <v>10.314111579934364</v>
+      </c>
+      <c r="E3" s="44">
+        <f t="shared" si="0"/>
+        <v>11.251758087201125</v>
+      </c>
+      <c r="F3" s="44">
+        <f t="shared" si="0"/>
+        <v>12.189404594467886</v>
+      </c>
+      <c r="G3" s="44">
+        <f t="shared" si="0"/>
+        <v>13.127051101734645</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" si="0"/>
+        <v>14.064697609001408</v>
+      </c>
+      <c r="I3" s="44">
+        <f t="shared" si="0"/>
+        <v>15.002344116268167</v>
+      </c>
+      <c r="J3" s="44">
+        <f t="shared" si="0"/>
+        <v>15.939990623534928</v>
+      </c>
+      <c r="K3" s="44">
+        <f t="shared" si="0"/>
+        <v>16.877637130801688</v>
+      </c>
+      <c r="L3" s="44">
+        <f t="shared" si="0"/>
+        <v>17.815283638068447</v>
+      </c>
+      <c r="M3" s="44">
+        <f t="shared" si="0"/>
+        <v>18.75293014533521</v>
+      </c>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2400</v>
+      </c>
+      <c r="B4" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="C4" s="44">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D4" s="44">
+        <f t="shared" si="0"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="E4" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="44">
+        <f t="shared" si="0"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="G4" s="44">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I4" s="44">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J4" s="44">
+        <f t="shared" si="0"/>
+        <v>14.166666666666668</v>
+      </c>
+      <c r="K4" s="44">
+        <f t="shared" si="0"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="L4" s="44">
+        <f t="shared" si="0"/>
+        <v>15.833333333333332</v>
+      </c>
+      <c r="M4" s="44">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>2666</v>
+      </c>
+      <c r="B5" s="44">
+        <f t="shared" si="0"/>
+        <v>6.7516879219804951</v>
+      </c>
+      <c r="C5" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5018754688672162</v>
+      </c>
+      <c r="D5" s="44">
+        <f t="shared" si="0"/>
+        <v>8.2520630157539383</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="0"/>
+        <v>9.0022505626406595</v>
+      </c>
+      <c r="F5" s="44">
+        <f t="shared" si="0"/>
+        <v>9.7524381095273807</v>
+      </c>
+      <c r="G5" s="44">
+        <f t="shared" si="0"/>
+        <v>10.502625656414104</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="0"/>
+        <v>11.252813203300825</v>
+      </c>
+      <c r="I5" s="44">
+        <f t="shared" si="0"/>
+        <v>12.003000750187546</v>
+      </c>
+      <c r="J5" s="44">
+        <f t="shared" si="0"/>
+        <v>12.753188297074267</v>
+      </c>
+      <c r="K5" s="44">
+        <f t="shared" si="0"/>
+        <v>13.50337584396099</v>
+      </c>
+      <c r="L5" s="44">
+        <f t="shared" si="0"/>
+        <v>14.253563390847711</v>
+      </c>
+      <c r="M5" s="44">
+        <f t="shared" si="0"/>
+        <v>15.003750937734432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>2800</v>
+      </c>
+      <c r="B6" s="44">
+        <f t="shared" si="0"/>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="C6" s="44">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" si="0"/>
+        <v>7.8571428571428577</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="0"/>
+        <v>9.2857142857142865</v>
+      </c>
+      <c r="G6" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="44">
+        <f t="shared" si="0"/>
+        <v>10.714285714285715</v>
+      </c>
+      <c r="I6" s="44">
+        <f t="shared" si="0"/>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="J6" s="44">
+        <f t="shared" si="0"/>
+        <v>12.142857142857142</v>
+      </c>
+      <c r="K6" s="44">
+        <f t="shared" si="0"/>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="L6" s="44">
+        <f t="shared" si="0"/>
+        <v>13.571428571428571</v>
+      </c>
+      <c r="M6" s="44">
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>3000</v>
+      </c>
+      <c r="B7" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="44">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D7" s="44">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G7" s="44">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="44">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" si="0"/>
+        <v>11.333333333333332</v>
+      </c>
+      <c r="K7" s="44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="44">
+        <f t="shared" si="0"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="M7" s="44">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>3200</v>
+      </c>
+      <c r="B8" s="44">
+        <f t="shared" si="0"/>
+        <v>5.625</v>
+      </c>
+      <c r="C8" s="44">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="D8" s="44">
+        <f t="shared" si="0"/>
+        <v>6.875</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>8.125</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="I8" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="44">
+        <f t="shared" si="0"/>
+        <v>10.625</v>
+      </c>
+      <c r="K8" s="44">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="L8" s="44">
+        <f t="shared" si="0"/>
+        <v>11.875</v>
+      </c>
+      <c r="M8" s="44">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
+        <v>3300</v>
+      </c>
+      <c r="B9" s="44">
+        <f t="shared" si="0"/>
+        <v>5.454545454545455</v>
+      </c>
+      <c r="C9" s="44">
+        <f t="shared" si="0"/>
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="D9" s="44">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="0"/>
+        <v>7.2727272727272734</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="0"/>
+        <v>7.8787878787878789</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="0"/>
+        <v>8.4848484848484862</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" si="0"/>
+        <v>9.6969696969696972</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" si="0"/>
+        <v>10.303030303030305</v>
+      </c>
+      <c r="K9" s="44">
+        <f t="shared" si="0"/>
+        <v>10.90909090909091</v>
+      </c>
+      <c r="L9" s="44">
+        <f t="shared" si="0"/>
+        <v>11.515151515151516</v>
+      </c>
+      <c r="M9" s="44">
+        <f t="shared" si="0"/>
+        <v>12.121212121212121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
+        <v>3333</v>
+      </c>
+      <c r="B10" s="44">
+        <f t="shared" si="0"/>
+        <v>5.4005400540054005</v>
+      </c>
+      <c r="C10" s="44">
+        <f t="shared" si="0"/>
+        <v>6.0006000600060014</v>
+      </c>
+      <c r="D10" s="44">
+        <f t="shared" si="0"/>
+        <v>6.6006600660066006</v>
+      </c>
+      <c r="E10" s="44">
+        <f t="shared" si="0"/>
+        <v>7.2007200720072007</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" si="0"/>
+        <v>7.8007800780078016</v>
+      </c>
+      <c r="G10" s="44">
+        <f t="shared" si="0"/>
+        <v>8.4008400840084008</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="0"/>
+        <v>9.0009000900090026</v>
+      </c>
+      <c r="I10" s="44">
+        <f t="shared" si="0"/>
+        <v>9.6009600960096009</v>
+      </c>
+      <c r="J10" s="44">
+        <f t="shared" si="0"/>
+        <v>10.201020102010201</v>
+      </c>
+      <c r="K10" s="44">
+        <f t="shared" si="0"/>
+        <v>10.801080108010801</v>
+      </c>
+      <c r="L10" s="44">
+        <f t="shared" si="0"/>
+        <v>11.401140114011401</v>
+      </c>
+      <c r="M10" s="44">
+        <f t="shared" si="0"/>
+        <v>12.001200120012003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>3400</v>
+      </c>
+      <c r="B11" s="44">
+        <f t="shared" si="0"/>
+        <v>5.2941176470588234</v>
+      </c>
+      <c r="C11" s="44">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="D11" s="44">
+        <f t="shared" si="0"/>
+        <v>6.4705882352941178</v>
+      </c>
+      <c r="E11" s="44">
+        <f t="shared" si="0"/>
+        <v>7.0588235294117636</v>
+      </c>
+      <c r="F11" s="44">
+        <f t="shared" si="0"/>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="G11" s="44">
+        <f t="shared" si="0"/>
+        <v>8.235294117647058</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065</v>
+      </c>
+      <c r="I11" s="44">
+        <f t="shared" si="0"/>
+        <v>9.4117647058823515</v>
+      </c>
+      <c r="J11" s="44">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="K11" s="44">
+        <f t="shared" si="0"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="L11" s="44">
+        <f t="shared" si="0"/>
+        <v>11.176470588235293</v>
+      </c>
+      <c r="M11" s="44">
+        <f t="shared" si="0"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>3466</v>
+      </c>
+      <c r="B12" s="44">
+        <f t="shared" si="0"/>
+        <v>5.1933064050778999</v>
+      </c>
+      <c r="C12" s="44">
+        <f t="shared" si="0"/>
+        <v>5.7703404500865547</v>
+      </c>
+      <c r="D12" s="44">
+        <f t="shared" si="0"/>
+        <v>6.3473744950952105</v>
+      </c>
+      <c r="E12" s="44">
+        <f t="shared" si="0"/>
+        <v>6.9244085401038662</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5014425851125219</v>
+      </c>
+      <c r="G12" s="44">
+        <f t="shared" si="0"/>
+        <v>8.078476630121175</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="0"/>
+        <v>8.6555106751298307</v>
+      </c>
+      <c r="I12" s="44">
+        <f t="shared" si="0"/>
+        <v>9.2325447201384883</v>
+      </c>
+      <c r="J12" s="44">
+        <f t="shared" si="0"/>
+        <v>9.809578765147144</v>
+      </c>
+      <c r="K12" s="44">
+        <f t="shared" si="0"/>
+        <v>10.3866128101558</v>
+      </c>
+      <c r="L12" s="44">
+        <f t="shared" si="0"/>
+        <v>10.963646855164454</v>
+      </c>
+      <c r="M12" s="44">
+        <f t="shared" si="0"/>
+        <v>11.540680900173109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="43">
+        <v>3600</v>
+      </c>
+      <c r="B13" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="D13" s="44">
+        <f t="shared" si="0"/>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="E13" s="44">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F13" s="44">
+        <f t="shared" si="0"/>
+        <v>7.2222222222222214</v>
+      </c>
+      <c r="G13" s="44">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777768</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I13" s="44">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="J13" s="44">
+        <f t="shared" si="0"/>
+        <v>9.4444444444444429</v>
+      </c>
+      <c r="K13" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="44">
+        <f t="shared" si="0"/>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="M13" s="44">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
+        <v>3733</v>
+      </c>
+      <c r="B14" s="44">
+        <f t="shared" si="0"/>
+        <v>4.8218590945620141</v>
+      </c>
+      <c r="C14" s="44">
+        <f t="shared" si="0"/>
+        <v>5.3576212161800161</v>
+      </c>
+      <c r="D14" s="44">
+        <f t="shared" si="0"/>
+        <v>5.893383337798018</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" si="0"/>
+        <v>6.4291454594160191</v>
+      </c>
+      <c r="F14" s="44">
+        <f t="shared" si="0"/>
+        <v>6.9649075810340211</v>
+      </c>
+      <c r="G14" s="44">
+        <f t="shared" si="0"/>
+        <v>7.500669702652023</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="0"/>
+        <v>8.0364318242700232</v>
+      </c>
+      <c r="I14" s="44">
+        <f t="shared" si="0"/>
+        <v>8.5721939458880261</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="0"/>
+        <v>9.1079560675060289</v>
+      </c>
+      <c r="K14" s="44">
+        <f t="shared" si="0"/>
+        <v>9.6437181891240282</v>
+      </c>
+      <c r="L14" s="44">
+        <f t="shared" si="0"/>
+        <v>10.179480310742031</v>
+      </c>
+      <c r="M14" s="44">
+        <f t="shared" si="0"/>
+        <v>10.715242432360032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <v>3866</v>
+      </c>
+      <c r="B15" s="44">
+        <f t="shared" si="0"/>
+        <v>4.6559751681324366</v>
+      </c>
+      <c r="C15" s="44">
+        <f t="shared" si="0"/>
+        <v>5.1733057423693749</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="0"/>
+        <v>5.6906363166063123</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" si="0"/>
+        <v>6.2079668908432488</v>
+      </c>
+      <c r="F15" s="44">
+        <f t="shared" si="0"/>
+        <v>6.7252974650801871</v>
+      </c>
+      <c r="G15" s="44">
+        <f t="shared" si="0"/>
+        <v>7.2426280393171245</v>
+      </c>
+      <c r="H15" s="44">
+        <f t="shared" si="0"/>
+        <v>7.7599586135540619</v>
+      </c>
+      <c r="I15" s="44">
+        <f t="shared" si="0"/>
+        <v>8.2772891877909984</v>
+      </c>
+      <c r="J15" s="44">
+        <f t="shared" si="0"/>
+        <v>8.7946197620279367</v>
+      </c>
+      <c r="K15" s="44">
+        <f t="shared" si="0"/>
+        <v>9.3119503362648732</v>
+      </c>
+      <c r="L15" s="44">
+        <f t="shared" si="0"/>
+        <v>9.8292809105018115</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" si="0"/>
+        <v>10.34661148473875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <v>4000</v>
+      </c>
+      <c r="B16" s="44">
+        <f t="shared" si="0"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="C16" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="44">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000009</v>
+      </c>
+      <c r="E16" s="44">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="G16" s="44">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="I16" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J16" s="44">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="K16" s="44">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="L16" s="44">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="M16" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>4133</v>
+      </c>
+      <c r="B17" s="44">
+        <f t="shared" si="0"/>
+        <v>4.3551899346721505</v>
+      </c>
+      <c r="C17" s="44">
+        <f t="shared" si="0"/>
+        <v>4.8390999274135007</v>
+      </c>
+      <c r="D17" s="44">
+        <f t="shared" si="0"/>
+        <v>5.3230099201548509</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="0"/>
+        <v>5.8069199128962001</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="0"/>
+        <v>6.2908299056375503</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="0"/>
+        <v>6.7747398983789004</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="0"/>
+        <v>7.2586498911202506</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="0"/>
+        <v>7.7425598838616008</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="0"/>
+        <v>8.2264698766029518</v>
+      </c>
+      <c r="K17" s="44">
+        <f t="shared" si="0"/>
+        <v>8.7103798693443011</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" si="0"/>
+        <v>9.1942898620856521</v>
+      </c>
+      <c r="M17" s="44">
+        <f t="shared" si="0"/>
+        <v>9.6781998548270014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>4266</v>
+      </c>
+      <c r="B18" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2194092827004219</v>
+      </c>
+      <c r="C18" s="44">
+        <f t="shared" si="0"/>
+        <v>4.6882325363338024</v>
+      </c>
+      <c r="D18" s="44">
+        <f t="shared" si="0"/>
+        <v>5.1570557899671821</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" si="0"/>
+        <v>5.6258790436005626</v>
+      </c>
+      <c r="F18" s="44">
+        <f t="shared" si="0"/>
+        <v>6.0947022972339431</v>
+      </c>
+      <c r="G18" s="44">
+        <f t="shared" si="0"/>
+        <v>6.5635255508673227</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="0"/>
+        <v>7.0323488045007041</v>
+      </c>
+      <c r="I18" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5011720581340837</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="0"/>
+        <v>7.9699953117674642</v>
+      </c>
+      <c r="K18" s="44">
+        <f t="shared" si="0"/>
+        <v>8.4388185654008439</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" si="0"/>
+        <v>8.9076418190342235</v>
+      </c>
+      <c r="M18" s="44">
+        <f t="shared" si="0"/>
+        <v>9.3764650726676049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>4500</v>
+      </c>
+      <c r="B19" s="44">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="C19" s="44">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D19" s="44">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F19" s="44">
+        <f t="shared" si="0"/>
+        <v>5.7777777777777768</v>
+      </c>
+      <c r="G19" s="44">
+        <f t="shared" si="0"/>
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="H19" s="44">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I19" s="44">
+        <f t="shared" si="0"/>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="J19" s="44">
+        <f t="shared" si="0"/>
+        <v>7.5555555555555545</v>
+      </c>
+      <c r="K19" s="44">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="L19" s="44">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="M19" s="44">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="str">
+        <f>"Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds"</f>
+        <v>Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A24:M24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:M19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FF523-5251-4FF3-B975-B54A21DBAE44}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06D42C-D523-4067-AD2A-2F7E0467BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7BD97-93D8-4F6B-B476-EE85F1C2BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14160" windowHeight="15360" firstSheet="4" activeTab="6" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="4" activeTab="7" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="11" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="GPUs" sheetId="14" r:id="rId5"/>
     <sheet name="Goals" sheetId="6" r:id="rId6"/>
     <sheet name="RAM_NEW" sheetId="13" r:id="rId7"/>
-    <sheet name="RAM Speed" sheetId="12" r:id="rId8"/>
-    <sheet name="Current" sheetId="9" r:id="rId9"/>
+    <sheet name="RAM_ROYAL" sheetId="15" r:id="rId8"/>
+    <sheet name="RAM Speed" sheetId="12" r:id="rId9"/>
+    <sheet name="Current" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1304">
   <si>
     <t>Brand</t>
   </si>
@@ -3953,9 +3954,6 @@
   </si>
   <si>
     <t>1085MHz</t>
-  </si>
-  <si>
-    <t>https://www.newegg.com/p/pl?N=100007611%20600554753&amp;d=Trident%20Z%20Royal&amp;PageSize=96</t>
   </si>
 </sst>
 </file>
@@ -3966,9 +3964,9 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
-    <numFmt numFmtId="176" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -4130,7 +4128,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4209,19 +4207,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4238,7 +4230,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4246,10 +4238,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4257,42 +4256,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="201">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$-409]yyyy\-mmm;@"/>
-    </dxf>
+  <dxfs count="202">
     <dxf>
       <font>
         <b/>
@@ -4332,7 +4296,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="171" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4404,43 +4404,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5142,6 +5166,9 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5171,7 +5198,7 @@
     <tableColumn id="12" xr3:uid="{01EB102E-8E46-49AB-B492-48AA210A3A04}" name="V"/>
     <tableColumn id="6" xr3:uid="{26CDA6F6-C7D5-4803-8D91-8C552C1CDE40}" name="Ttl GB"/>
     <tableColumn id="4" xr3:uid="{8C3664EF-1677-4847-B766-84E1F14D476C}" name="Sticks"/>
-    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="201">
       <calculatedColumnFormula>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7284CDCA-952F-4E3B-863A-95C36699F7FE}" name="Cost" dataCellStyle="Currency"/>
@@ -5186,27 +5213,73 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="18">
+      <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="17">
+      <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="16">
+      <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="15">
+      <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="14">
+      <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="13">
+      <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="12">
+      <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="11">
+      <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="10">
+      <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="9">
+      <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="8">
+      <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="7">
+      <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="23">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="21" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5443,34 +5516,34 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{701AF49C-AD0E-4915-A4E5-9CE665566E86}" name="Table412" displayName="Table412" ref="A1:Q60" totalsRowShown="0">
-  <autoFilter ref="A1:Q60" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{701AF49C-AD0E-4915-A4E5-9CE665566E86}" name="Table412" displayName="Table412" ref="A1:Q77" totalsRowShown="0">
+  <autoFilter ref="A1:Q77" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q60">
     <sortCondition ref="H1:H60"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="16" xr3:uid="{41845326-1A04-4644-BDF1-B10877EBF9D3}" name="#"/>
-    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="24"/>
     <tableColumn id="1" xr3:uid="{87EEEE7D-8A7C-4C24-9598-DB325FC0FC09}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{893697FC-BC3F-41D5-9F18-66756D938A6C}" name="Model"/>
     <tableColumn id="3" xr3:uid="{F6D54D7C-6DE6-4F6C-B53C-456B9C834017}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{2A688068-02CF-405A-8CE9-17AECCC908BA}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="1">
-      <calculatedColumnFormula>($G2*(1/((1000000*$F2)/2))*1000000000)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{9D2AC746-C18E-4356-9A3F-CFCC480B0E67}" name="V"/>
     <tableColumn id="6" xr3:uid="{1627D630-B3C2-4191-B028-B9DEC53B6B60}" name="GBs"/>
     <tableColumn id="4" xr3:uid="{229A9ACB-0A32-475C-BB13-BD1A94F0A138}" name="Stix"/>
-    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="23">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E364F542-415A-4E85-BF8A-22B0E46F000B}" name="Cost" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{65313B8E-7D92-44F7-B255-26CBDCEEB288}" name="$ / GB" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="22" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="21"/>
     <tableColumn id="11" xr3:uid="{5CBFD6EE-B1A8-4C06-AB9B-583A7FF37E01}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5478,48 +5551,37 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="7">
-      <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5DFCFA4D-9CE5-4110-B918-DB9DEF88A613}" name="Table41213" displayName="Table41213" ref="A1:Q77" totalsRowShown="0">
+  <autoFilter ref="A1:Q77" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q60">
+    <sortCondition ref="H1:H60"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="16" xr3:uid="{7A6ED63C-2442-4110-91DB-D0DD327BDE83}" name="#"/>
+    <tableColumn id="21" xr3:uid="{36CFB4E4-6AB6-4293-ACC7-594F11ED4DCF}" name="PTS" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00F985A0-278B-4BEE-9509-E874A28D20BD}" name="Brand"/>
+    <tableColumn id="10" xr3:uid="{65A9EA8D-E6E3-4486-B6EF-A413122EC015}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{8DAC12E2-07C9-43C5-AD67-DE497EE6A39F}" name="GHz"/>
+    <tableColumn id="15" xr3:uid="{1106C5C3-DF2D-4173-89F5-DA284ED9A543}" name="CL"/>
+    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL">
+      <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="18">
-      <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{AE191B81-1B0C-4951-8F06-FD540A0596C2}" name="V"/>
+    <tableColumn id="6" xr3:uid="{DBA0870C-5D7A-4EDD-A786-14D24D5F4285}" name="GBs"/>
+    <tableColumn id="4" xr3:uid="{0AB09B8C-0B29-42A9-888A-2A075261BAAE}" name="Stix"/>
+    <tableColumn id="5" xr3:uid="{77AEB7E2-9777-4274-A80C-E00DE86B41B5}" name="GB">
+      <calculatedColumnFormula>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="17">
-      <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{FFF7A32F-5685-4F96-9CD2-48CC90BD1E8B}" name="Cost"/>
+    <tableColumn id="8" xr3:uid="{1DE31CFF-FE1F-42CB-8BC5-2E818B05259B}" name="$ / GB">
+      <calculatedColumnFormula>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="16">
-      <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="15">
-      <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="14">
-      <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="13">
-      <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="12">
-      <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="11">
-      <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="10">
-      <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="9">
-      <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="8">
-      <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="20" xr3:uid="{56D64F76-FB96-48CC-8F40-BF1C89EFF7B5}" name="Released"/>
+    <tableColumn id="9" xr3:uid="{BABD2869-AAA2-4125-B218-4274BAD685DB}" name="Timing"/>
+    <tableColumn id="11" xr3:uid="{8063835B-702D-4372-AC3A-BFF95E7DBEF8}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7446,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <f>D46/E46</f>
+        <f t="shared" ref="F46:F52" si="0">D46/E46</f>
         <v>12800</v>
       </c>
       <c r="G46">
@@ -7477,7 +7539,7 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <f>D47/E47</f>
+        <f t="shared" si="0"/>
         <v>8533.3333333333339</v>
       </c>
       <c r="L47">
@@ -7495,7 +7557,7 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <f>D48/E48</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
       <c r="L48">
@@ -7513,7 +7575,7 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <f>D49/E49</f>
+        <f t="shared" si="0"/>
         <v>5120</v>
       </c>
     </row>
@@ -7525,7 +7587,7 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <f>D50/E50</f>
+        <f t="shared" si="0"/>
         <v>4266.666666666667</v>
       </c>
     </row>
@@ -7537,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="F51">
-        <f>D51/E51</f>
+        <f t="shared" si="0"/>
         <v>3657.1428571428573</v>
       </c>
     </row>
@@ -7549,7 +7611,7 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <f>D52/E52</f>
+        <f t="shared" si="0"/>
         <v>3200</v>
       </c>
     </row>
@@ -7601,6 +7663,519 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
   <tableParts count="1">
     <tablePart r:id="rId43"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FF523-5251-4FF3-B975-B54A21DBAE44}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="26">
+        <v>214.99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="26">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="26">
+        <v>134.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="26">
+        <v>49.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="26">
+        <v>63.74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="26">
+        <v>89.99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="26">
+        <v>209.99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="26">
+        <v>59.99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="26">
+        <v>129.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="26">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="26">
+        <v>169.99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="26">
+        <v>249.99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="26">
+        <v>34.99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="26">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16">
+        <f>SUBTOTAL(109,Table5[Brand])</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>SUBTOTAL(109,Table5[Model])</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <f>SUBTOTAL(109,Table5[Cost])</f>
+        <v>1486.6000000000001</v>
+      </c>
+      <c r="E16">
+        <f>SUBTOTAL(109,Table5[Notes])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D21" s="26">
+        <v>529.99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D22" s="26">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D23" s="26">
+        <v>296.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D28" s="26">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D31" s="26">
+        <v>399.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D32" s="26">
+        <v>399.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35">
+        <f>SUBTOTAL(109,Table57[Brand])</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>SUBTOTAL(109,Table57[Model])</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="29">
+        <f>SUBTOTAL(109,Table57[Cost])</f>
+        <v>1886.45</v>
+      </c>
+      <c r="E35">
+        <f>SUBTOTAL(109,Table57[Notes])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{7B530F77-8F25-4EF8-814A-32C087C9F9DA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{73432D9D-5C5B-4565-9FDD-1B0F0B1A2EA9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{4A4546AE-3CC9-45B2-A84D-353EE8AD2FFD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{76EC57F8-3DFA-4FA8-9238-E906EC542851}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{AFD91D9F-FB33-4F52-91E1-5BA37EC0CE83}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{D941E302-482F-4D6A-9392-2FD68C689551}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{F5F2ADEB-B881-495E-8D57-EACDE9929B37}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{437EE641-D8EC-41F7-A37F-EBD8A2167AC9}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{52E63EF8-E8C3-4552-8986-E2F101A2936F}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{E8437D9C-B6C0-4302-8B9B-43AC266615D1}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{E21026D4-8A2B-4C7A-8A1C-D98D30E16BCD}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{84DFBEE4-9261-4E2A-9299-F0B3681D3364}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{A636C3E4-97C9-4580-8E23-F003A326DA67}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{1511CEA9-DF06-404F-84CA-8806971F9182}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{8EB5DF82-C631-43D4-9808-0F68411A1FB5}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{D3193845-31F4-4EEC-AF19-B998F9F8A650}"/>
+    <hyperlink ref="C31" r:id="rId17" xr:uid="{2D1E2093-B0AD-4E40-AE74-A0824427036A}"/>
+    <hyperlink ref="C32" r:id="rId18" xr:uid="{FC332AAC-0204-42E5-8DAA-FBCC0F4E747D}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{A77A9479-7657-4301-AFF4-DCCE70D62627}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{0C2C02E8-B6BD-44A9-8DE1-9173D86C8618}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{F8F7755E-D63F-4B44-988D-DC38BA06B822}"/>
+    <hyperlink ref="B21" r:id="rId22" xr:uid="{8746CB26-F989-4CFE-82D7-DE2D7B0E0E78}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{A7A0B690-B77F-44F7-8B81-88DEBADE979B}"/>
+    <hyperlink ref="B32" r:id="rId24" xr:uid="{822378AB-39B5-446A-B107-7362826D90F2}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{FAB88813-99FC-4672-822F-77DC5FCD1283}"/>
+    <hyperlink ref="C22" r:id="rId26" xr:uid="{7B4FAEFC-F092-43CC-946B-221CAE6F964C}"/>
+    <hyperlink ref="C23" r:id="rId27" xr:uid="{68968BC9-DEB2-4BF1-8055-E804C74E9173}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
+  <tableParts count="2">
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22387,10 +22962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ADAB04-86BD-4131-AFBF-5CACD8C584C8}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22402,7 +22977,7 @@
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -22468,13 +23043,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>4039</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D2" t="s">
@@ -22489,8 +23064,8 @@
       <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" s="56">
-        <f>($G2*(1/((1000000*$F2)/2))*1000000000)</f>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2:H33" si="0">IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</f>
         <v>8.4444444444444446</v>
       </c>
       <c r="I2">
@@ -22513,7 +23088,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>20.936875000000001</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="47">
         <v>43191</v>
       </c>
       <c r="P2" t="s">
@@ -22533,8 +23108,8 @@
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" s="56">
-        <f>($G3*(1/((1000000*$F3)/2))*1000000000)</f>
+      <c r="H3" s="57">
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="I3">
@@ -22557,19 +23132,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>8.5621875000000003</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="47"/>
       <c r="P3" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>4065</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D4" t="s">
@@ -22584,8 +23159,8 @@
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" s="56">
-        <f>($G4*(1/((1000000*$F4)/2))*1000000000)</f>
+      <c r="H4" s="57">
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="I4">
@@ -22608,7 +23183,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>8.6717187500000001</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="47">
         <v>42339</v>
       </c>
       <c r="P4" t="s">
@@ -22616,13 +23191,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>7</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="43">
         <v>3610</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>1261</v>
       </c>
       <c r="D5" t="s">
@@ -22637,8 +23212,8 @@
       <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" s="56">
-        <f>($G5*(1/((1000000*$F5)/2))*1000000000)</f>
+      <c r="H5" s="57">
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="I5">
@@ -22661,7 +23236,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>8.7184375000000003</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="47">
         <v>42979</v>
       </c>
       <c r="P5" t="s">
@@ -22681,8 +23256,8 @@
       <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="56">
-        <f>($G6*(1/((1000000*$F6)/2))*1000000000)</f>
+      <c r="H6" s="57">
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="I6">
@@ -22705,7 +23280,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.3748437500000001</v>
       </c>
-      <c r="O6" s="49"/>
+      <c r="O6" s="47"/>
       <c r="P6" t="s">
         <v>1195</v>
       </c>
@@ -22723,8 +23298,8 @@
       <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="56">
-        <f>($G7*(1/((1000000*$F7)/2))*1000000000)</f>
+      <c r="H7" s="57">
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="I7">
@@ -22747,7 +23322,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.9371875000000003</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="47"/>
       <c r="P7" t="s">
         <v>1184</v>
       </c>
@@ -22765,8 +23340,8 @@
       <c r="G8">
         <v>16</v>
       </c>
-      <c r="H8" s="56">
-        <f>($G8*(1/((1000000*$F8)/2))*1000000000)</f>
+      <c r="H8" s="57">
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="I8">
@@ -22789,7 +23364,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.0154687500000001</v>
       </c>
-      <c r="O8" s="49"/>
+      <c r="O8" s="47"/>
       <c r="P8" t="s">
         <v>1184</v>
       </c>
@@ -22807,8 +23382,8 @@
       <c r="G9">
         <v>16</v>
       </c>
-      <c r="H9" s="56">
-        <f>($G9*(1/((1000000*$F9)/2))*1000000000)</f>
+      <c r="H9" s="57">
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="I9">
@@ -22831,7 +23406,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.0621875000000003</v>
       </c>
-      <c r="O9" s="49"/>
+      <c r="O9" s="47"/>
       <c r="P9" t="s">
         <v>1208</v>
       </c>
@@ -22849,8 +23424,8 @@
       <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" s="56">
-        <f>($G10*(1/((1000000*$F10)/2))*1000000000)</f>
+      <c r="H10" s="57">
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="I10">
@@ -22873,19 +23448,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.2185937500000001</v>
       </c>
-      <c r="O10" s="49"/>
+      <c r="O10" s="47"/>
       <c r="P10" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <v>4</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <v>4304</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>1261</v>
       </c>
       <c r="D11" t="s">
@@ -22900,8 +23475,8 @@
       <c r="G11">
         <v>16</v>
       </c>
-      <c r="H11" s="56">
-        <f>($G11*(1/((1000000*$F11)/2))*1000000000)</f>
+      <c r="H11" s="57">
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="I11">
@@ -22924,7 +23499,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>17.901250000000001</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="47">
         <v>43678</v>
       </c>
       <c r="P11" t="s">
@@ -22944,8 +23519,8 @@
       <c r="G12">
         <v>19</v>
       </c>
-      <c r="H12" s="56">
-        <f>($G12*(1/((1000000*$F12)/2))*1000000000)</f>
+      <c r="H12" s="57">
+        <f t="shared" si="0"/>
         <v>8.9076418190342235</v>
       </c>
       <c r="I12">
@@ -22968,7 +23543,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>13.749375000000001</v>
       </c>
-      <c r="O12" s="49"/>
+      <c r="O12" s="47"/>
       <c r="P12" t="s">
         <v>1193</v>
       </c>
@@ -22986,8 +23561,8 @@
       <c r="G13">
         <v>16</v>
       </c>
-      <c r="H13" s="56">
-        <f>($G13*(1/((1000000*$F13)/2))*1000000000)</f>
+      <c r="H13" s="57">
+        <f t="shared" si="0"/>
         <v>9.2325447201384883</v>
       </c>
       <c r="I13">
@@ -23010,7 +23585,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>8.4371875000000003</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="47"/>
       <c r="P13" t="s">
         <v>1185</v>
       </c>
@@ -23028,8 +23603,8 @@
       <c r="G14">
         <v>18</v>
       </c>
-      <c r="H14" s="56">
-        <f>($G14*(1/((1000000*$F14)/2))*1000000000)</f>
+      <c r="H14" s="57">
+        <f t="shared" si="0"/>
         <v>9.3119503362648732</v>
       </c>
       <c r="I14">
@@ -23052,7 +23627,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.9059375000000003</v>
       </c>
-      <c r="O14" s="49"/>
+      <c r="O14" s="47"/>
       <c r="P14" t="s">
         <v>1206</v>
       </c>
@@ -23070,8 +23645,8 @@
       <c r="G15">
         <v>18</v>
       </c>
-      <c r="H15" s="56">
-        <f>($G15*(1/((1000000*$F15)/2))*1000000000)</f>
+      <c r="H15" s="57">
+        <f t="shared" si="0"/>
         <v>9.3119503362648732</v>
       </c>
       <c r="I15">
@@ -23094,7 +23669,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.9059375000000003</v>
       </c>
-      <c r="O15" s="49"/>
+      <c r="O15" s="47"/>
       <c r="P15" t="s">
         <v>1206</v>
       </c>
@@ -23112,8 +23687,8 @@
       <c r="G16">
         <v>14</v>
       </c>
-      <c r="H16" s="56">
-        <f>($G16*(1/((1000000*$F16)/2))*1000000000)</f>
+      <c r="H16" s="57">
+        <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
       <c r="I16">
@@ -23136,7 +23711,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.6871875000000003</v>
       </c>
-      <c r="O16" s="49"/>
+      <c r="O16" s="47"/>
       <c r="P16" t="s">
         <v>1195</v>
       </c>
@@ -23154,8 +23729,8 @@
       <c r="G17">
         <v>14</v>
       </c>
-      <c r="H17" s="56">
-        <f>($G17*(1/((1000000*$F17)/2))*1000000000)</f>
+      <c r="H17" s="57">
+        <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
       <c r="I17">
@@ -23178,7 +23753,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.6871875000000003</v>
       </c>
-      <c r="O17" s="49"/>
+      <c r="O17" s="47"/>
       <c r="P17" t="s">
         <v>1195</v>
       </c>
@@ -23196,8 +23771,8 @@
       <c r="G18">
         <v>14</v>
       </c>
-      <c r="H18" s="56">
-        <f>($G18*(1/((1000000*$F18)/2))*1000000000)</f>
+      <c r="H18" s="57">
+        <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
       <c r="I18">
@@ -23220,7 +23795,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.7342187500000001</v>
       </c>
-      <c r="O18" s="49"/>
+      <c r="O18" s="47"/>
       <c r="P18" t="s">
         <v>1195</v>
       </c>
@@ -23238,8 +23813,8 @@
       <c r="G19">
         <v>15</v>
       </c>
-      <c r="H19" s="56">
-        <f>($G19*(1/((1000000*$F19)/2))*1000000000)</f>
+      <c r="H19" s="57">
+        <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
       <c r="I19">
@@ -23262,7 +23837,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>7.1871875000000003</v>
       </c>
-      <c r="O19" s="49"/>
+      <c r="O19" s="47"/>
       <c r="P19" t="s">
         <v>1201</v>
       </c>
@@ -23280,8 +23855,8 @@
       <c r="G20">
         <v>15</v>
       </c>
-      <c r="H20" s="56">
-        <f>($G20*(1/((1000000*$F20)/2))*1000000000)</f>
+      <c r="H20" s="57">
+        <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
       <c r="I20">
@@ -23304,19 +23879,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>7.2498437500000001</v>
       </c>
-      <c r="O20" s="49"/>
+      <c r="O20" s="47"/>
       <c r="P20" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <v>5</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="43">
         <v>3391</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D21" t="s">
@@ -23331,8 +23906,8 @@
       <c r="G21">
         <v>15</v>
       </c>
-      <c r="H21" s="56">
-        <f>($G21*(1/((1000000*$F21)/2))*1000000000)</f>
+      <c r="H21" s="57">
+        <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
       <c r="I21">
@@ -23355,7 +23930,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>9.0623437500000001</v>
       </c>
-      <c r="O21" s="49">
+      <c r="O21" s="47">
         <v>43647</v>
       </c>
       <c r="P21" t="s">
@@ -23363,13 +23938,13 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>12</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>3539</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D22" t="s">
@@ -23384,8 +23959,8 @@
       <c r="G22">
         <v>16</v>
       </c>
-      <c r="H22" s="56">
-        <f>($G22*(1/((1000000*$F22)/2))*1000000000)</f>
+      <c r="H22" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I22">
@@ -23408,7 +23983,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.2967187500000001</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="47">
         <v>42339</v>
       </c>
       <c r="P22" t="s">
@@ -23416,13 +23991,13 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>33</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="43">
         <v>3679</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D23" t="s">
@@ -23437,8 +24012,8 @@
       <c r="G23">
         <v>16</v>
       </c>
-      <c r="H23" s="56">
-        <f>($G23*(1/((1000000*$F23)/2))*1000000000)</f>
+      <c r="H23" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I23">
@@ -23461,7 +24036,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.625</v>
       </c>
-      <c r="O23" s="49">
+      <c r="O23" s="47">
         <v>42339</v>
       </c>
       <c r="P23" t="s">
@@ -23469,13 +24044,13 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <v>48</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>3408</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D24" t="s">
@@ -23490,8 +24065,8 @@
       <c r="G24">
         <v>15</v>
       </c>
-      <c r="H24" s="56">
-        <f>($G24*(1/((1000000*$F24)/2))*1000000000)</f>
+      <c r="H24" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I24">
@@ -23514,7 +24089,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.6875</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="47">
         <v>42186</v>
       </c>
       <c r="P24" t="s">
@@ -23534,8 +24109,8 @@
       <c r="G25">
         <v>16</v>
       </c>
-      <c r="H25" s="56">
-        <f>($G25*(1/((1000000*$F25)/2))*1000000000)</f>
+      <c r="H25" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I25">
@@ -23558,19 +24133,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.8434375000000003</v>
       </c>
-      <c r="O25" s="49"/>
+      <c r="O25" s="47"/>
       <c r="P25" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="43">
         <v>37</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>3474</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="43" t="s">
         <v>1263</v>
       </c>
       <c r="D26" t="s">
@@ -23585,8 +24160,8 @@
       <c r="G26">
         <v>16</v>
       </c>
-      <c r="H26" s="56">
-        <f>($G26*(1/((1000000*$F26)/2))*1000000000)</f>
+      <c r="H26" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I26">
@@ -23609,7 +24184,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.875</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="47">
         <v>42248</v>
       </c>
       <c r="P26" t="s">
@@ -23629,8 +24204,8 @@
       <c r="G27">
         <v>16</v>
       </c>
-      <c r="H27" s="56">
-        <f>($G27*(1/((1000000*$F27)/2))*1000000000)</f>
+      <c r="H27" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I27">
@@ -23653,7 +24228,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.1559375000000003</v>
       </c>
-      <c r="O27" s="49"/>
+      <c r="O27" s="47"/>
       <c r="P27" t="s">
         <v>1185</v>
       </c>
@@ -23671,8 +24246,8 @@
       <c r="G28">
         <v>16</v>
       </c>
-      <c r="H28" s="56">
-        <f>($G28*(1/((1000000*$F28)/2))*1000000000)</f>
+      <c r="H28" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I28">
@@ -23695,7 +24270,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.1560937500000001</v>
       </c>
-      <c r="O28" s="49"/>
+      <c r="O28" s="47"/>
       <c r="P28" t="s">
         <v>1185</v>
       </c>
@@ -23713,8 +24288,8 @@
       <c r="G29">
         <v>16</v>
       </c>
-      <c r="H29" s="56">
-        <f>($G29*(1/((1000000*$F29)/2))*1000000000)</f>
+      <c r="H29" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I29">
@@ -23737,7 +24312,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.1561718750000001</v>
       </c>
-      <c r="O29" s="49"/>
+      <c r="O29" s="47"/>
       <c r="P29" t="s">
         <v>1185</v>
       </c>
@@ -23755,8 +24330,8 @@
       <c r="G30">
         <v>16</v>
       </c>
-      <c r="H30" s="56">
-        <f>($G30*(1/((1000000*$F30)/2))*1000000000)</f>
+      <c r="H30" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I30">
@@ -23779,7 +24354,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.1561718750000001</v>
       </c>
-      <c r="O30" s="49"/>
+      <c r="O30" s="47"/>
       <c r="P30" t="s">
         <v>1185</v>
       </c>
@@ -23797,8 +24372,8 @@
       <c r="G31">
         <v>16</v>
       </c>
-      <c r="H31" s="56">
-        <f>($G31*(1/((1000000*$F31)/2))*1000000000)</f>
+      <c r="H31" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I31">
@@ -23821,7 +24396,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.3904687500000001</v>
       </c>
-      <c r="O31" s="49"/>
+      <c r="O31" s="47"/>
       <c r="P31" t="s">
         <v>1214</v>
       </c>
@@ -23839,8 +24414,8 @@
       <c r="G32">
         <v>16</v>
       </c>
-      <c r="H32" s="56">
-        <f>($G32*(1/((1000000*$F32)/2))*1000000000)</f>
+      <c r="H32" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I32">
@@ -23863,19 +24438,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.3904687500000001</v>
       </c>
-      <c r="O32" s="49"/>
+      <c r="O32" s="47"/>
       <c r="P32" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="43">
         <v>28</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="43">
         <v>3681</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D33" t="s">
@@ -23890,8 +24465,8 @@
       <c r="G33">
         <v>16</v>
       </c>
-      <c r="H33" s="56">
-        <f>($G33*(1/((1000000*$F33)/2))*1000000000)</f>
+      <c r="H33" s="57">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I33">
@@ -23914,7 +24489,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4375</v>
       </c>
-      <c r="O33" s="49">
+      <c r="O33" s="47">
         <v>43435</v>
       </c>
       <c r="P33" t="s">
@@ -23934,8 +24509,8 @@
       <c r="G34">
         <v>16</v>
       </c>
-      <c r="H34" s="56">
-        <f>($G34*(1/((1000000*$F34)/2))*1000000000)</f>
+      <c r="H34" s="57">
+        <f t="shared" ref="H34:H65" si="1">IFERROR(($G34*(1/((1000000*$F34)/2))*1000000000),0)</f>
         <v>10</v>
       </c>
       <c r="I34">
@@ -23958,7 +24533,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4684375000000003</v>
       </c>
-      <c r="O34" s="49"/>
+      <c r="O34" s="47"/>
       <c r="P34" t="s">
         <v>1212</v>
       </c>
@@ -23976,8 +24551,8 @@
       <c r="G35">
         <v>16</v>
       </c>
-      <c r="H35" s="56">
-        <f>($G35*(1/((1000000*$F35)/2))*1000000000)</f>
+      <c r="H35" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I35">
@@ -24000,7 +24575,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4684375000000003</v>
       </c>
-      <c r="O35" s="49"/>
+      <c r="O35" s="47"/>
       <c r="P35" t="s">
         <v>1212</v>
       </c>
@@ -24018,8 +24593,8 @@
       <c r="G36">
         <v>16</v>
       </c>
-      <c r="H36" s="56">
-        <f>($G36*(1/((1000000*$F36)/2))*1000000000)</f>
+      <c r="H36" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I36">
@@ -24042,7 +24617,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4684375000000003</v>
       </c>
-      <c r="O36" s="49"/>
+      <c r="O36" s="47"/>
       <c r="P36" t="s">
         <v>1212</v>
       </c>
@@ -24060,8 +24635,8 @@
       <c r="G37">
         <v>18</v>
       </c>
-      <c r="H37" s="56">
-        <f>($G37*(1/((1000000*$F37)/2))*1000000000)</f>
+      <c r="H37" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I37">
@@ -24084,7 +24659,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4684375000000003</v>
       </c>
-      <c r="O37" s="49"/>
+      <c r="O37" s="47"/>
       <c r="P37" t="s">
         <v>1197</v>
       </c>
@@ -24105,8 +24680,8 @@
       <c r="G38" s="34">
         <v>16</v>
       </c>
-      <c r="H38" s="57">
-        <f>($G38*(1/((1000000*$F38)/2))*1000000000)</f>
+      <c r="H38" s="58">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I38" s="34">
@@ -24129,7 +24704,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.4686718750000001</v>
       </c>
-      <c r="O38" s="49"/>
+      <c r="O38" s="47"/>
       <c r="P38" s="34" t="s">
         <v>1185</v>
       </c>
@@ -24148,8 +24723,8 @@
       <c r="G39">
         <v>18</v>
       </c>
-      <c r="H39" s="56">
-        <f>($G39*(1/((1000000*$F39)/2))*1000000000)</f>
+      <c r="H39" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I39">
@@ -24172,7 +24747,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.5467187500000001</v>
       </c>
-      <c r="O39" s="49"/>
+      <c r="O39" s="47"/>
       <c r="P39" t="s">
         <v>1189</v>
       </c>
@@ -24190,8 +24765,8 @@
       <c r="G40">
         <v>16</v>
       </c>
-      <c r="H40" s="56">
-        <f>($G40*(1/((1000000*$F40)/2))*1000000000)</f>
+      <c r="H40" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I40">
@@ -24214,7 +24789,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.8118749999999997</v>
       </c>
-      <c r="O40" s="49"/>
+      <c r="O40" s="47"/>
       <c r="P40" t="s">
         <v>1185</v>
       </c>
@@ -24235,8 +24810,8 @@
       <c r="G41">
         <v>16</v>
       </c>
-      <c r="H41" s="56">
-        <f>($G41*(1/((1000000*$F41)/2))*1000000000)</f>
+      <c r="H41" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I41">
@@ -24259,19 +24834,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.9368749999999997</v>
       </c>
-      <c r="O41" s="49"/>
+      <c r="O41" s="47"/>
       <c r="P41" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
+      <c r="A42" s="43">
         <v>32</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>3600</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="45" t="s">
         <v>205</v>
       </c>
       <c r="D42" t="s">
@@ -24286,8 +24861,8 @@
       <c r="G42">
         <v>16</v>
       </c>
-      <c r="H42" s="56">
-        <f>($G42*(1/((1000000*$F42)/2))*1000000000)</f>
+      <c r="H42" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I42">
@@ -24310,7 +24885,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.1875</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="47">
         <v>42736</v>
       </c>
       <c r="P42" t="s">
@@ -24330,8 +24905,8 @@
       <c r="G43">
         <v>16</v>
       </c>
-      <c r="H43" s="56">
-        <f>($G43*(1/((1000000*$F43)/2))*1000000000)</f>
+      <c r="H43" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I43">
@@ -24354,7 +24929,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.3746875000000003</v>
       </c>
-      <c r="O43" s="49"/>
+      <c r="O43" s="47"/>
       <c r="P43" t="s">
         <v>1185</v>
       </c>
@@ -24372,8 +24947,8 @@
       <c r="G44">
         <v>16</v>
       </c>
-      <c r="H44" s="56">
-        <f>($G44*(1/((1000000*$F44)/2))*1000000000)</f>
+      <c r="H44" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I44">
@@ -24396,7 +24971,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.4993749999999997</v>
       </c>
-      <c r="O44" s="49"/>
+      <c r="O44" s="47"/>
       <c r="P44" t="s">
         <v>1212</v>
       </c>
@@ -24414,8 +24989,8 @@
       <c r="G45">
         <v>18</v>
       </c>
-      <c r="H45" s="56">
-        <f>($G45*(1/((1000000*$F45)/2))*1000000000)</f>
+      <c r="H45" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I45">
@@ -24438,19 +25013,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>6.5621875000000003</v>
       </c>
-      <c r="O45" s="49"/>
+      <c r="O45" s="47"/>
       <c r="P45" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="43">
         <v>6</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>3247</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D46" t="s">
@@ -24465,8 +25040,8 @@
       <c r="G46">
         <v>15</v>
       </c>
-      <c r="H46" s="56">
-        <f>($G46*(1/((1000000*$F46)/2))*1000000000)</f>
+      <c r="H46" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I46">
@@ -24489,7 +25064,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>8.28125</v>
       </c>
-      <c r="O46" s="49">
+      <c r="O46" s="47">
         <v>42339</v>
       </c>
       <c r="P46" t="s">
@@ -24497,13 +25072,13 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="43">
         <v>13</v>
       </c>
-      <c r="B47" s="45">
+      <c r="B47" s="43">
         <v>2847</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D47" t="s">
@@ -24518,8 +25093,8 @@
       <c r="G47">
         <v>15</v>
       </c>
-      <c r="H47" s="56">
-        <f>($G47*(1/((1000000*$F47)/2))*1000000000)</f>
+      <c r="H47" s="57">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I47">
@@ -24542,7 +25117,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>17.8125</v>
       </c>
-      <c r="O47" s="49">
+      <c r="O47" s="47">
         <v>44118</v>
       </c>
       <c r="P47" t="s">
@@ -24550,52 +25125,52 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="51" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49" t="s">
         <v>1181</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="50" t="s">
         <v>1288</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="49">
         <v>2133</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="49">
         <v>11</v>
       </c>
-      <c r="H48" s="58">
-        <f>($G48*(1/((1000000*$F48)/2))*1000000000)</f>
+      <c r="H48" s="59">
+        <f t="shared" si="1"/>
         <v>10.314111579934364</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="49">
         <v>1.6</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="49">
         <v>16</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="49">
         <v>4</v>
       </c>
-      <c r="L48" s="53">
+      <c r="L48" s="51">
         <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
         <v>4</v>
       </c>
-      <c r="M48" s="54">
+      <c r="M48" s="52">
         <v>113.73</v>
       </c>
-      <c r="N48" s="54">
+      <c r="N48" s="52">
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>7.1081250000000002</v>
       </c>
-      <c r="O48" s="55">
+      <c r="O48" s="53">
         <v>40878</v>
       </c>
-      <c r="P48" s="55" t="s">
+      <c r="P48" s="53" t="s">
         <v>1289</v>
       </c>
-      <c r="Q48" s="51" t="s">
+      <c r="Q48" s="49" t="s">
         <v>1290</v>
       </c>
     </row>
@@ -24612,8 +25187,8 @@
       <c r="G49">
         <v>16</v>
       </c>
-      <c r="H49" s="56">
-        <f>($G49*(1/((1000000*$F49)/2))*1000000000)</f>
+      <c r="H49" s="57">
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="I49">
@@ -24636,7 +25211,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.9996875000000003</v>
       </c>
-      <c r="O49" s="49"/>
+      <c r="O49" s="47"/>
       <c r="P49" t="s">
         <v>1185</v>
       </c>
@@ -24654,8 +25229,8 @@
       <c r="G50">
         <v>16</v>
       </c>
-      <c r="H50" s="56">
-        <f>($G50*(1/((1000000*$F50)/2))*1000000000)</f>
+      <c r="H50" s="57">
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="I50">
@@ -24678,7 +25253,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.9996875000000003</v>
       </c>
-      <c r="O50" s="49"/>
+      <c r="O50" s="47"/>
       <c r="P50" t="s">
         <v>1185</v>
       </c>
@@ -24696,8 +25271,8 @@
       <c r="G51">
         <v>16</v>
       </c>
-      <c r="H51" s="56">
-        <f>($G51*(1/((1000000*$F51)/2))*1000000000)</f>
+      <c r="H51" s="57">
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="I51">
@@ -24720,7 +25295,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.0467187500000001</v>
       </c>
-      <c r="O51" s="49"/>
+      <c r="O51" s="47"/>
       <c r="P51" t="s">
         <v>1185</v>
       </c>
@@ -24738,8 +25313,8 @@
       <c r="G52">
         <v>16</v>
       </c>
-      <c r="H52" s="56">
-        <f>($G52*(1/((1000000*$F52)/2))*1000000000)</f>
+      <c r="H52" s="57">
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="I52">
@@ -24762,7 +25337,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.6243749999999997</v>
       </c>
-      <c r="O52" s="49"/>
+      <c r="O52" s="47"/>
       <c r="P52" t="s">
         <v>1185</v>
       </c>
@@ -24780,8 +25355,8 @@
       <c r="G53">
         <v>16</v>
       </c>
-      <c r="H53" s="56">
-        <f>($G53*(1/((1000000*$F53)/2))*1000000000)</f>
+      <c r="H53" s="57">
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="I53">
@@ -24804,19 +25379,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>5.6246875000000003</v>
       </c>
-      <c r="O53" s="49"/>
+      <c r="O53" s="47"/>
       <c r="P53" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="43">
         <v>8</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>2961</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D54" t="s">
@@ -24831,8 +25406,8 @@
       <c r="G54">
         <v>15</v>
       </c>
-      <c r="H54" s="56">
-        <f>($G54*(1/((1000000*$F54)/2))*1000000000)</f>
+      <c r="H54" s="57">
+        <f t="shared" si="1"/>
         <v>11.252813203300825</v>
       </c>
       <c r="I54">
@@ -24855,7 +25430,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>312.46875</v>
       </c>
-      <c r="O54" s="49">
+      <c r="O54" s="47">
         <v>41913</v>
       </c>
       <c r="P54" t="s">
@@ -24863,13 +25438,13 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="45">
+      <c r="A55" s="43">
         <v>17</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="43">
         <v>3379</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D55" t="s">
@@ -24884,8 +25459,8 @@
       <c r="G55">
         <v>16</v>
       </c>
-      <c r="H55" s="56">
-        <f>($G55*(1/((1000000*$F55)/2))*1000000000)</f>
+      <c r="H55" s="57">
+        <f t="shared" si="1"/>
         <v>11.428571428571429</v>
       </c>
       <c r="I55">
@@ -24908,7 +25483,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>24.719374999999999</v>
       </c>
-      <c r="O55" s="49">
+      <c r="O55" s="47">
         <v>43466</v>
       </c>
       <c r="P55" t="s">
@@ -24916,13 +25491,13 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+      <c r="A56" s="43">
         <v>1</v>
       </c>
-      <c r="B56" s="45">
+      <c r="B56" s="43">
         <v>2797</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D56" t="s">
@@ -24937,8 +25512,8 @@
       <c r="G56">
         <v>14</v>
       </c>
-      <c r="H56" s="56">
-        <f>($G56*(1/((1000000*$F56)/2))*1000000000)</f>
+      <c r="H56" s="57">
+        <f t="shared" si="1"/>
         <v>11.666666666666666</v>
       </c>
       <c r="I56">
@@ -24961,7 +25536,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>10.0859375</v>
       </c>
-      <c r="O56" s="49">
+      <c r="O56" s="47">
         <v>42125</v>
       </c>
       <c r="P56" t="s">
@@ -24981,8 +25556,8 @@
       <c r="G57">
         <v>16</v>
       </c>
-      <c r="H57" s="56">
-        <f>($G57*(1/((1000000*$F57)/2))*1000000000)</f>
+      <c r="H57" s="57">
+        <f t="shared" si="1"/>
         <v>12.003000750187546</v>
       </c>
       <c r="I57">
@@ -25005,19 +25580,19 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.9684375000000003</v>
       </c>
-      <c r="O57" s="49"/>
+      <c r="O57" s="47"/>
       <c r="P57" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="45">
+      <c r="A58" s="43">
         <v>73</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>2630</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D58" t="s">
@@ -25032,8 +25607,8 @@
       <c r="G58">
         <v>14</v>
       </c>
-      <c r="H58" s="56">
-        <f>($G58*(1/((1000000*$F58)/2))*1000000000)</f>
+      <c r="H58" s="57">
+        <f t="shared" si="1"/>
         <v>13.127051101734645</v>
       </c>
       <c r="I58">
@@ -25056,7 +25631,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>7.8125</v>
       </c>
-      <c r="O58" s="49">
+      <c r="O58" s="47">
         <v>42036</v>
       </c>
       <c r="P58" t="s">
@@ -25076,8 +25651,8 @@
       <c r="G59">
         <v>18</v>
       </c>
-      <c r="H59" s="56">
-        <f>($G59*(1/((1000000*$F59)/2))*1000000000)</f>
+      <c r="H59" s="57">
+        <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
       <c r="I59">
@@ -25100,7 +25675,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.4530468750000001</v>
       </c>
-      <c r="O59" s="49"/>
+      <c r="O59" s="47"/>
       <c r="P59" t="s">
         <v>1203</v>
       </c>
@@ -25118,8 +25693,8 @@
       <c r="G60">
         <v>18</v>
       </c>
-      <c r="H60" s="56">
-        <f>($G60*(1/((1000000*$F60)/2))*1000000000)</f>
+      <c r="H60" s="57">
+        <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
       <c r="I60">
@@ -25142,18 +25717,339 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>4.6874218750000001</v>
       </c>
-      <c r="O60" s="49"/>
+      <c r="O60" s="47"/>
       <c r="P60" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
-        <v>1304</v>
-      </c>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="H61" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="56"/>
+      <c r="P61" s="47"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="H62" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="56"/>
+      <c r="P62" s="47"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="H63" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="56"/>
+      <c r="P63" s="47"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="H64" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="56"/>
+      <c r="P64" s="47"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="H65" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="56"/>
+      <c r="P65" s="47"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="H66" s="57">
+        <f t="shared" ref="H66:H77" si="2">IFERROR(($G66*(1/((1000000*$F66)/2))*1000000000),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="56"/>
+      <c r="P66" s="47"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="H67" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="56"/>
+      <c r="P67" s="47"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="H68" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="56"/>
+      <c r="P68" s="47"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="H69" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="56"/>
+      <c r="P69" s="47"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="H70" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="56"/>
+      <c r="P70" s="47"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="H71" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="56"/>
+      <c r="P71" s="47"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="H72" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="56"/>
+      <c r="P72" s="47"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="H73" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="56"/>
+      <c r="P73" s="47"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="H74" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="56"/>
+      <c r="P74" s="47"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="H75" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="56"/>
+      <c r="P75" s="47"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="H76" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="56"/>
+      <c r="P76" s="47"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="H77" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="32">
+        <f>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26">
+        <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="56"/>
+      <c r="P77" s="47"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H60">
+  <conditionalFormatting sqref="H2:H77">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -25165,7 +26061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J60">
+  <conditionalFormatting sqref="J2:J77">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25177,7 +26073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I60">
+  <conditionalFormatting sqref="I2:I77">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -25189,7 +26085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G60">
+  <conditionalFormatting sqref="G2:G77">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25201,7 +26097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F60">
+  <conditionalFormatting sqref="F2:F77">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -25213,7 +26109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M60">
+  <conditionalFormatting sqref="M2:M77">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25225,7 +26121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N60">
+  <conditionalFormatting sqref="N2:N77">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -25295,17 +26191,1254 @@
     <hyperlink ref="E22" r:id="rId55" xr:uid="{F0E12A3F-1E55-4B6E-B007-E632F28C719C}"/>
     <hyperlink ref="E2" r:id="rId56" xr:uid="{05C88727-FAF4-43E8-9A25-C126626E8229}"/>
     <hyperlink ref="E48" r:id="rId57" xr:uid="{16CE7D53-5FA5-4853-AD26-C0526A7F13DC}"/>
-    <hyperlink ref="A65" r:id="rId58" xr:uid="{934A8811-E32C-4164-AA37-25D5A5CC29DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId59"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId58"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF519C8E-A723-49B3-BD55-7C85526FFFDA}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f t="shared" ref="H2:H65" si="0">IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="H66">
+        <f t="shared" ref="H66:H77" si="1">IFERROR(($G66*(1/((1000000*$F66)/2))*1000000000),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J61:J77">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I77">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G77">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F77">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC59E5-4E49-4E84-A714-832164F2AFEE}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -25324,983 +27457,983 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>1247</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>1248</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>1249</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>1250</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>1251</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>1252</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="39" t="s">
         <v>1253</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>1254</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>1255</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="39" t="s">
         <v>1256</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39" t="s">
         <v>1257</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="39" t="s">
         <v>1258</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="39" t="s">
         <v>1259</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="39" t="s">
         <v>1260</v>
       </c>
-      <c r="P2" s="42"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="41">
         <v>2133</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="42">
         <f t="shared" ref="B3:M19" si="0">(B$2*(1/(($A3*1000000)/2)))*1000000000</f>
         <v>8.4388185654008439</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <f t="shared" si="0"/>
         <v>9.3764650726676049</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="42">
         <f t="shared" si="0"/>
         <v>10.314111579934364</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="42">
         <f t="shared" si="0"/>
         <v>11.251758087201125</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="42">
         <f t="shared" si="0"/>
         <v>12.189404594467886</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="42">
         <f t="shared" si="0"/>
         <v>13.127051101734645</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="42">
         <f t="shared" si="0"/>
         <v>14.064697609001408</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="42">
         <f t="shared" si="0"/>
         <v>15.002344116268167</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="42">
         <f t="shared" si="0"/>
         <v>15.939990623534928</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="42">
         <f t="shared" si="0"/>
         <v>16.877637130801688</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="42">
         <f t="shared" si="0"/>
         <v>17.815283638068447</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="42">
         <f t="shared" si="0"/>
         <v>18.75293014533521</v>
       </c>
-      <c r="P3" s="42"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>2400</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="42">
         <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="42">
         <f t="shared" si="0"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="42">
         <f t="shared" si="0"/>
         <v>10.833333333333334</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="42">
         <f t="shared" si="0"/>
         <v>14.166666666666668</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>15.000000000000002</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="42">
         <f t="shared" si="0"/>
         <v>15.833333333333332</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>2666</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <f t="shared" si="0"/>
         <v>6.7516879219804951</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
         <v>7.5018754688672162</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
         <v>8.2520630157539383</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>9.0022505626406595</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="42">
         <f t="shared" si="0"/>
         <v>9.7524381095273807</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="42">
         <f t="shared" si="0"/>
         <v>10.502625656414104</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>11.252813203300825</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="42">
         <f t="shared" si="0"/>
         <v>12.003000750187546</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="42">
         <f t="shared" si="0"/>
         <v>12.753188297074267</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="42">
         <f t="shared" si="0"/>
         <v>13.50337584396099</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="42">
         <f t="shared" si="0"/>
         <v>14.253563390847711</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="42">
         <f t="shared" si="0"/>
         <v>15.003750937734432</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="41">
         <v>2800</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="42">
         <f t="shared" si="0"/>
         <v>6.4285714285714288</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="42">
         <f t="shared" si="0"/>
         <v>7.8571428571428577</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <f t="shared" si="0"/>
         <v>9.2857142857142865</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>10.714285714285715</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="42">
         <f t="shared" si="0"/>
         <v>11.428571428571429</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="42">
         <f t="shared" si="0"/>
         <v>12.142857142857142</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="42">
         <f t="shared" si="0"/>
         <v>12.857142857142858</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="42">
         <f t="shared" si="0"/>
         <v>13.571428571428571</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="42">
         <f t="shared" si="0"/>
         <v>14.285714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="41">
         <v>3000</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="42">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="42">
         <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="42">
         <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="42">
         <f t="shared" si="0"/>
         <v>11.333333333333332</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="42">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="42">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="41">
         <v>3200</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="42">
         <f t="shared" si="0"/>
         <v>5.625</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="42">
         <f t="shared" si="0"/>
         <v>6.875</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="42">
         <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>8.125</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="42">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="42">
         <f t="shared" si="0"/>
         <v>10.625</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="42">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="42">
         <f t="shared" si="0"/>
         <v>11.875</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="42">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="41">
         <v>3300</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="42">
         <f t="shared" si="0"/>
         <v>5.454545454545455</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <f t="shared" si="0"/>
         <v>6.0606060606060606</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="42">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="42">
         <f t="shared" si="0"/>
         <v>7.2727272727272734</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="42">
         <f t="shared" si="0"/>
         <v>7.8787878787878789</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="42">
         <f t="shared" si="0"/>
         <v>8.4848484848484862</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>9.0909090909090899</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>9.6969696969696972</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="42">
         <f t="shared" si="0"/>
         <v>10.303030303030305</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="42">
         <f t="shared" si="0"/>
         <v>10.90909090909091</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="42">
         <f t="shared" si="0"/>
         <v>11.515151515151516</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="42">
         <f t="shared" si="0"/>
         <v>12.121212121212121</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="41">
         <v>3333</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="42">
         <f t="shared" si="0"/>
         <v>5.4005400540054005</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="42">
         <f t="shared" si="0"/>
         <v>6.0006000600060014</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="42">
         <f t="shared" si="0"/>
         <v>6.6006600660066006</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
         <v>7.2007200720072007</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <f t="shared" si="0"/>
         <v>7.8007800780078016</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="42">
         <f t="shared" si="0"/>
         <v>8.4008400840084008</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>9.0009000900090026</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>9.6009600960096009</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="42">
         <f t="shared" si="0"/>
         <v>10.201020102010201</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="42">
         <f t="shared" si="0"/>
         <v>10.801080108010801</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="42">
         <f t="shared" si="0"/>
         <v>11.401140114011401</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="42">
         <f t="shared" si="0"/>
         <v>12.001200120012003</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="41">
         <v>3400</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <f t="shared" si="0"/>
         <v>5.2941176470588234</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <f t="shared" si="0"/>
         <v>5.8823529411764701</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="42">
         <f t="shared" si="0"/>
         <v>6.4705882352941178</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>7.0588235294117636</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>7.6470588235294121</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="42">
         <f t="shared" si="0"/>
         <v>8.235294117647058</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>8.8235294117647065</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>9.4117647058823515</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="42">
         <f t="shared" si="0"/>
         <v>9.9999999999999982</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="42">
         <f t="shared" si="0"/>
         <v>10.588235294117647</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="42">
         <f t="shared" si="0"/>
         <v>11.176470588235293</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="42">
         <f t="shared" si="0"/>
         <v>11.76470588235294</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>3466</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="42">
         <f t="shared" si="0"/>
         <v>5.1933064050778999</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <f t="shared" si="0"/>
         <v>5.7703404500865547</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>6.3473744950952105</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>6.9244085401038662</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <f t="shared" si="0"/>
         <v>7.5014425851125219</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="42">
         <f t="shared" si="0"/>
         <v>8.078476630121175</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>8.6555106751298307</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="42">
         <f t="shared" si="0"/>
         <v>9.2325447201384883</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="42">
         <f t="shared" si="0"/>
         <v>9.809578765147144</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="42">
         <f t="shared" si="0"/>
         <v>10.3866128101558</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="42">
         <f t="shared" si="0"/>
         <v>10.963646855164454</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="42">
         <f t="shared" si="0"/>
         <v>11.540680900173109</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="41">
         <v>3600</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="42">
         <f t="shared" si="0"/>
         <v>6.1111111111111107</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <f t="shared" si="0"/>
         <v>7.2222222222222214</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <f t="shared" si="0"/>
         <v>7.7777777777777768</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="42">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="42">
         <f t="shared" si="0"/>
         <v>9.4444444444444429</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="42">
         <f t="shared" si="0"/>
         <v>10.555555555555555</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="42">
         <f t="shared" si="0"/>
         <v>11.111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>3733</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="42">
         <f t="shared" si="0"/>
         <v>4.8218590945620141</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <f t="shared" si="0"/>
         <v>5.3576212161800161</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="42">
         <f t="shared" si="0"/>
         <v>5.893383337798018</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="42">
         <f t="shared" si="0"/>
         <v>6.4291454594160191</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <f t="shared" si="0"/>
         <v>6.9649075810340211</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>7.500669702652023</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="42">
         <f t="shared" si="0"/>
         <v>8.0364318242700232</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="42">
         <f t="shared" si="0"/>
         <v>8.5721939458880261</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="42">
         <f t="shared" si="0"/>
         <v>9.1079560675060289</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="42">
         <f t="shared" si="0"/>
         <v>9.6437181891240282</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="42">
         <f t="shared" si="0"/>
         <v>10.179480310742031</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="42">
         <f t="shared" si="0"/>
         <v>10.715242432360032</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="41">
         <v>3866</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="42">
         <f t="shared" si="0"/>
         <v>4.6559751681324366</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="42">
         <f t="shared" si="0"/>
         <v>5.1733057423693749</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="42">
         <f t="shared" si="0"/>
         <v>5.6906363166063123</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
         <v>6.2079668908432488</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <f t="shared" si="0"/>
         <v>6.7252974650801871</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="42">
         <f t="shared" si="0"/>
         <v>7.2426280393171245</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="42">
         <f t="shared" si="0"/>
         <v>7.7599586135540619</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="42">
         <f t="shared" si="0"/>
         <v>8.2772891877909984</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="42">
         <f t="shared" si="0"/>
         <v>8.7946197620279367</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="42">
         <f t="shared" si="0"/>
         <v>9.3119503362648732</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="42">
         <f t="shared" si="0"/>
         <v>9.8292809105018115</v>
       </c>
-      <c r="M15" s="44">
+      <c r="M15" s="42">
         <f t="shared" si="0"/>
         <v>10.34661148473875</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="41">
         <v>4000</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <f t="shared" si="0"/>
         <v>4.5000000000000009</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="42">
         <f t="shared" si="0"/>
         <v>5.5000000000000009</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="42">
         <f t="shared" si="0"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="42">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="42">
         <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="42">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="42">
         <f t="shared" si="0"/>
         <v>9.0000000000000018</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="42">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="M16" s="44">
+      <c r="M16" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>4133</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="42">
         <f t="shared" si="0"/>
         <v>4.3551899346721505</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <f t="shared" si="0"/>
         <v>4.8390999274135007</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="42">
         <f t="shared" si="0"/>
         <v>5.3230099201548509</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <f t="shared" si="0"/>
         <v>5.8069199128962001</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <f t="shared" si="0"/>
         <v>6.2908299056375503</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="42">
         <f t="shared" si="0"/>
         <v>6.7747398983789004</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="42">
         <f t="shared" si="0"/>
         <v>7.2586498911202506</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="42">
         <f t="shared" si="0"/>
         <v>7.7425598838616008</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="42">
         <f t="shared" si="0"/>
         <v>8.2264698766029518</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="42">
         <f t="shared" si="0"/>
         <v>8.7103798693443011</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="42">
         <f t="shared" si="0"/>
         <v>9.1942898620856521</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="42">
         <f t="shared" si="0"/>
         <v>9.6781998548270014</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="41">
         <v>4266</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="42">
         <f t="shared" si="0"/>
         <v>4.2194092827004219</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <f t="shared" si="0"/>
         <v>4.6882325363338024</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="42">
         <f t="shared" si="0"/>
         <v>5.1570557899671821</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="42">
         <f t="shared" si="0"/>
         <v>5.6258790436005626</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="42">
         <f t="shared" si="0"/>
         <v>6.0947022972339431</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="42">
         <f t="shared" si="0"/>
         <v>6.5635255508673227</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="42">
         <f t="shared" si="0"/>
         <v>7.0323488045007041</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="42">
         <f t="shared" si="0"/>
         <v>7.5011720581340837</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="42">
         <f t="shared" si="0"/>
         <v>7.9699953117674642</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="42">
         <f t="shared" si="0"/>
         <v>8.4388185654008439</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="42">
         <f t="shared" si="0"/>
         <v>8.9076418190342235</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="42">
         <f t="shared" si="0"/>
         <v>9.3764650726676049</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="41">
         <v>4500</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="42">
         <f t="shared" si="0"/>
         <v>3.9999999999999996</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="42">
         <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="42">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="42">
         <f t="shared" si="0"/>
         <v>5.7777777777777768</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="42">
         <f t="shared" si="0"/>
         <v>6.2222222222222223</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="42">
         <f t="shared" si="0"/>
         <v>7.1111111111111107</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="42">
         <f t="shared" si="0"/>
         <v>7.5555555555555545</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="42">
         <f t="shared" si="0"/>
         <v>7.9999999999999991</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="42">
         <f t="shared" si="0"/>
         <v>8.4444444444444446</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="42">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="str">
+      <c r="A24" s="55" t="str">
         <f>"Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds"</f>
         <v>Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -26324,517 +28457,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FF523-5251-4FF3-B975-B54A21DBAE44}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="26">
-        <v>214.99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="26">
-        <v>36.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="26">
-        <v>134.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="26">
-        <v>49.99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="26">
-        <v>63.74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="26">
-        <v>89.99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="26">
-        <v>209.99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="26">
-        <v>59.99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="26">
-        <v>129.99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="26">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="26">
-        <v>169.99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="26">
-        <v>249.99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="26">
-        <v>34.99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="26">
-        <v>20.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16">
-        <f>SUBTOTAL(109,Table5[Brand])</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>SUBTOTAL(109,Table5[Model])</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="29">
-        <f>SUBTOTAL(109,Table5[Cost])</f>
-        <v>1486.6000000000001</v>
-      </c>
-      <c r="E16">
-        <f>SUBTOTAL(109,Table5[Notes])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D21" s="26">
-        <v>529.99</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D22" s="26">
-        <v>149.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D23" s="26">
-        <v>296.5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D28" s="26">
-        <v>109.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D31" s="26">
-        <v>399.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D32" s="26">
-        <v>399.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35">
-        <f>SUBTOTAL(109,Table57[Brand])</f>
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <f>SUBTOTAL(109,Table57[Model])</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="29">
-        <f>SUBTOTAL(109,Table57[Cost])</f>
-        <v>1886.45</v>
-      </c>
-      <c r="E35">
-        <f>SUBTOTAL(109,Table57[Notes])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{7B530F77-8F25-4EF8-814A-32C087C9F9DA}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{73432D9D-5C5B-4565-9FDD-1B0F0B1A2EA9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{4A4546AE-3CC9-45B2-A84D-353EE8AD2FFD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{76EC57F8-3DFA-4FA8-9238-E906EC542851}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{AFD91D9F-FB33-4F52-91E1-5BA37EC0CE83}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{D941E302-482F-4D6A-9392-2FD68C689551}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{F5F2ADEB-B881-495E-8D57-EACDE9929B37}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{437EE641-D8EC-41F7-A37F-EBD8A2167AC9}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{52E63EF8-E8C3-4552-8986-E2F101A2936F}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{E8437D9C-B6C0-4302-8B9B-43AC266615D1}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{E21026D4-8A2B-4C7A-8A1C-D98D30E16BCD}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{84DFBEE4-9261-4E2A-9299-F0B3681D3364}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{A636C3E4-97C9-4580-8E23-F003A326DA67}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{1511CEA9-DF06-404F-84CA-8806971F9182}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{8EB5DF82-C631-43D4-9808-0F68411A1FB5}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{D3193845-31F4-4EEC-AF19-B998F9F8A650}"/>
-    <hyperlink ref="C31" r:id="rId17" xr:uid="{2D1E2093-B0AD-4E40-AE74-A0824427036A}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{FC332AAC-0204-42E5-8DAA-FBCC0F4E747D}"/>
-    <hyperlink ref="C28" r:id="rId19" xr:uid="{A77A9479-7657-4301-AFF4-DCCE70D62627}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{0C2C02E8-B6BD-44A9-8DE1-9173D86C8618}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{F8F7755E-D63F-4B44-988D-DC38BA06B822}"/>
-    <hyperlink ref="B21" r:id="rId22" xr:uid="{8746CB26-F989-4CFE-82D7-DE2D7B0E0E78}"/>
-    <hyperlink ref="B31" r:id="rId23" xr:uid="{A7A0B690-B77F-44F7-8B81-88DEBADE979B}"/>
-    <hyperlink ref="B32" r:id="rId24" xr:uid="{822378AB-39B5-446A-B107-7362826D90F2}"/>
-    <hyperlink ref="B22" r:id="rId25" xr:uid="{FAB88813-99FC-4672-822F-77DC5FCD1283}"/>
-    <hyperlink ref="C22" r:id="rId26" xr:uid="{7B4FAEFC-F092-43CC-946B-221CAE6F964C}"/>
-    <hyperlink ref="C23" r:id="rId27" xr:uid="{68968BC9-DEB2-4BF1-8055-E804C74E9173}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
-  <tableParts count="2">
-    <tablePart r:id="rId29"/>
-    <tablePart r:id="rId30"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7BD97-93D8-4F6B-B476-EE85F1C2BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DB2B8-B1C2-4BC7-B1E9-62509569480D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="4" activeTab="7" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="6" activeTab="9" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1418">
   <si>
     <t>Brand</t>
   </si>
@@ -3954,6 +3954,348 @@
   </si>
   <si>
     <t>1085MHz</t>
+  </si>
+  <si>
+    <t>19-20-20-40</t>
+  </si>
+  <si>
+    <t>18-22-22-42</t>
+  </si>
+  <si>
+    <t>16-18-18-38</t>
+  </si>
+  <si>
+    <t>16-19-19-39</t>
+  </si>
+  <si>
+    <t>14-14-14-34</t>
+  </si>
+  <si>
+    <t>15-16-16-36</t>
+  </si>
+  <si>
+    <t>16-16-16-36</t>
+  </si>
+  <si>
+    <t>14-15-15-35</t>
+  </si>
+  <si>
+    <t>18-19-19-39</t>
+  </si>
+  <si>
+    <t>17-18-18-38</t>
+  </si>
+  <si>
+    <t>17-17-17-37</t>
+  </si>
+  <si>
+    <t>18-18-18-43</t>
+  </si>
+  <si>
+    <t>19-19-19-39</t>
+  </si>
+  <si>
+    <t>F4-3600C19D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C18Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C16D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16Q-64GTRSC</t>
+  </si>
+  <si>
+    <t>F4-3200C14D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C16Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C14D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C16D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C15D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3000C16D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C14D-16GTRSB</t>
+  </si>
+  <si>
+    <t>F4-3600C18D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16D-32GTRSC</t>
+  </si>
+  <si>
+    <t>F4-3200C16Q-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C16D-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-4400C18D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16Q-32GTRSC</t>
+  </si>
+  <si>
+    <t>F4-4000C15Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-4600C18D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C17D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-4800C18D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C18D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C17D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C14Q-32GTRSB</t>
+  </si>
+  <si>
+    <t>F4-3600C17Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C14Q-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C17Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-3600C16D-16GTRSC</t>
+  </si>
+  <si>
+    <t>F4-3600C18D-16GTRS</t>
+  </si>
+  <si>
+    <t>F4-2666C18D-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C14Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16Q-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-3000C16Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-4000C17Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3000C16Q-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C16Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-3600C18Q-64GTRS</t>
+  </si>
+  <si>
+    <t>F4-3600C18Q-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-3200C14Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-3200C16Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-3600C17Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-3000C16Q-32GTRSU</t>
+  </si>
+  <si>
+    <t>F4-4000C19D-32GTRS</t>
+  </si>
+  <si>
+    <t>F4-4266C19D-16GTRS</t>
+  </si>
+  <si>
+    <t>NewEgg #</t>
+  </si>
+  <si>
+    <t>N82E16820232822</t>
+  </si>
+  <si>
+    <t>N82E16820232938</t>
+  </si>
+  <si>
+    <t>N82E16820232787</t>
+  </si>
+  <si>
+    <t>N82E16820232913</t>
+  </si>
+  <si>
+    <t>N82E16820232789</t>
+  </si>
+  <si>
+    <t>N82E16820232791</t>
+  </si>
+  <si>
+    <t>N82E16820232797</t>
+  </si>
+  <si>
+    <t>N82E16820232795</t>
+  </si>
+  <si>
+    <t>N82E16820232977</t>
+  </si>
+  <si>
+    <t>N82E16820232803</t>
+  </si>
+  <si>
+    <t>N82E16820232779</t>
+  </si>
+  <si>
+    <t>N82E16820232806</t>
+  </si>
+  <si>
+    <t>N82E16820232783</t>
+  </si>
+  <si>
+    <t>N82E16820232891</t>
+  </si>
+  <si>
+    <t>N82E16820232919</t>
+  </si>
+  <si>
+    <t>N82E16820232904</t>
+  </si>
+  <si>
+    <t>N82E16820232799</t>
+  </si>
+  <si>
+    <t>N82E16820232903</t>
+  </si>
+  <si>
+    <t>N82E16820232958</t>
+  </si>
+  <si>
+    <t>N82E16820232775</t>
+  </si>
+  <si>
+    <t>N82E16820232909</t>
+  </si>
+  <si>
+    <t>N82E16820232959</t>
+  </si>
+  <si>
+    <t>N82E16820232978</t>
+  </si>
+  <si>
+    <t>N82E16820232818</t>
+  </si>
+  <si>
+    <t>N82E16820232804</t>
+  </si>
+  <si>
+    <t>N82E16820232824</t>
+  </si>
+  <si>
+    <t>N82E16820232936</t>
+  </si>
+  <si>
+    <t>N82E16820232769</t>
+  </si>
+  <si>
+    <t>N82E16820232894</t>
+  </si>
+  <si>
+    <t>N82E16820232807</t>
+  </si>
+  <si>
+    <t>N82E16820232801</t>
+  </si>
+  <si>
+    <t>N82E16820232830</t>
+  </si>
+  <si>
+    <t>N82E16820232897</t>
+  </si>
+  <si>
+    <t>N82E16820232816</t>
+  </si>
+  <si>
+    <t>N82E16820232955</t>
+  </si>
+  <si>
+    <t>N82E16820232793</t>
+  </si>
+  <si>
+    <t>N82E16820232912</t>
+  </si>
+  <si>
+    <t>N82E16820232781</t>
+  </si>
+  <si>
+    <t>N82E16820232770</t>
+  </si>
+  <si>
+    <t>N82E16820232785</t>
+  </si>
+  <si>
+    <t>N82E16820232828</t>
+  </si>
+  <si>
+    <t>N82E16820232925</t>
+  </si>
+  <si>
+    <t>N82E16820232922</t>
+  </si>
+  <si>
+    <t>N82E16820232956</t>
+  </si>
+  <si>
+    <t>N82E16820232826</t>
+  </si>
+  <si>
+    <t>N82E16820232827</t>
+  </si>
+  <si>
+    <t>N82E16820232829</t>
+  </si>
+  <si>
+    <t>N82E16820232825</t>
+  </si>
+  <si>
+    <t>N82E16820232823</t>
+  </si>
+  <si>
+    <t>N82E16820232773</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Reviw</t>
+  </si>
+  <si>
+    <t>Chans</t>
   </si>
 </sst>
 </file>
@@ -3966,7 +4308,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -4239,16 +4581,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4258,45 +4600,7 @@
   </cellStyles>
   <dxfs count="202">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -4404,6 +4708,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
     </dxf>
     <dxf>
@@ -4427,6 +4750,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -5213,44 +5539,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="16">
       <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="15">
       <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="14">
       <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="13">
       <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="12">
       <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="11">
       <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="10">
       <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="9">
       <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="8">
       <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="7">
       <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="8">
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="6">
       <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="7">
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="5">
       <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5259,13 +5585,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5273,13 +5599,13 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5529,21 +5855,21 @@
     <tableColumn id="10" xr3:uid="{893697FC-BC3F-41D5-9F18-66756D938A6C}" name="Model"/>
     <tableColumn id="3" xr3:uid="{F6D54D7C-6DE6-4F6C-B53C-456B9C834017}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{2A688068-02CF-405A-8CE9-17AECCC908BA}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="23">
       <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{9D2AC746-C18E-4356-9A3F-CFCC480B0E67}" name="V"/>
     <tableColumn id="6" xr3:uid="{1627D630-B3C2-4191-B028-B9DEC53B6B60}" name="GBs"/>
     <tableColumn id="4" xr3:uid="{229A9ACB-0A32-475C-BB13-BD1A94F0A138}" name="Stix"/>
-    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="22">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E364F542-415A-4E85-BF8A-22B0E46F000B}" name="Cost" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{65313B8E-7D92-44F7-B255-26CBDCEEB288}" name="$ / GB" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="22" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="21" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="20"/>
     <tableColumn id="11" xr3:uid="{5CBFD6EE-B1A8-4C06-AB9B-583A7FF37E01}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5551,21 +5877,19 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5DFCFA4D-9CE5-4110-B918-DB9DEF88A613}" name="Table41213" displayName="Table41213" ref="A1:Q77" totalsRowShown="0">
-  <autoFilter ref="A1:Q77" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q60">
-    <sortCondition ref="H1:H60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5DFCFA4D-9CE5-4110-B918-DB9DEF88A613}" name="Table41213" displayName="Table41213" ref="A1:Q51" totalsRowShown="0">
+  <autoFilter ref="A1:Q51" xr:uid="{98CD2389-9A39-424E-912A-F3EC276EABD6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q51">
+    <sortCondition ref="F1:F51"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="16" xr3:uid="{7A6ED63C-2442-4110-91DB-D0DD327BDE83}" name="#"/>
-    <tableColumn id="21" xr3:uid="{36CFB4E4-6AB6-4293-ACC7-594F11ED4DCF}" name="PTS" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="19"/>
     <tableColumn id="1" xr3:uid="{00F985A0-278B-4BEE-9509-E874A28D20BD}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{65A9EA8D-E6E3-4486-B6EF-A413122EC015}" name="Model"/>
     <tableColumn id="3" xr3:uid="{8DAC12E2-07C9-43C5-AD67-DE497EE6A39F}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{1106C5C3-DF2D-4173-89F5-DA284ED9A543}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL">
-      <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{AE191B81-1B0C-4951-8F06-FD540A0596C2}" name="V"/>
     <tableColumn id="6" xr3:uid="{DBA0870C-5D7A-4EDD-A786-14D24D5F4285}" name="GBs"/>
@@ -5574,12 +5898,14 @@
       <calculatedColumnFormula>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{FFF7A32F-5685-4F96-9CD2-48CC90BD1E8B}" name="Cost"/>
-    <tableColumn id="8" xr3:uid="{1DE31CFF-FE1F-42CB-8BC5-2E818B05259B}" name="$ / GB">
+    <tableColumn id="8" xr3:uid="{1DE31CFF-FE1F-42CB-8BC5-2E818B05259B}" name="$ / GB" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{56D64F76-FB96-48CC-8F40-BF1C89EFF7B5}" name="Released"/>
+    <tableColumn id="20" xr3:uid="{56D64F76-FB96-48CC-8F40-BF1C89EFF7B5}" name="Chans"/>
     <tableColumn id="9" xr3:uid="{BABD2869-AAA2-4125-B218-4274BAD685DB}" name="Timing"/>
-    <tableColumn id="11" xr3:uid="{8063835B-702D-4372-AC3A-BFF95E7DBEF8}" name="Notes"/>
+    <tableColumn id="11" xr3:uid="{8063835B-702D-4372-AC3A-BFF95E7DBEF8}" name="NewEgg #"/>
+    <tableColumn id="13" xr3:uid="{308BCC62-84A4-43B7-BFEC-E781D0079333}" name="Rate"/>
+    <tableColumn id="17" xr3:uid="{E42B502E-98A4-4C85-918D-AA9A810E76D3}" name="Reviw"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7671,8 +7997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FF523-5251-4FF3-B975-B54A21DBAE44}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22964,8 +23290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ADAB04-86BD-4131-AFBF-5CACD8C584C8}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23064,7 +23390,7 @@
       <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="55">
         <f t="shared" ref="H2:H33" si="0">IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</f>
         <v>8.4444444444444446</v>
       </c>
@@ -23108,7 +23434,7 @@
       <c r="G3">
         <v>14</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="55">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -23159,7 +23485,7 @@
       <c r="G4">
         <v>14</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="55">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -23212,7 +23538,7 @@
       <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="55">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -23256,7 +23582,7 @@
       <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="55">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
@@ -23298,7 +23624,7 @@
       <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="55">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
@@ -23340,7 +23666,7 @@
       <c r="G8">
         <v>16</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="55">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
@@ -23382,7 +23708,7 @@
       <c r="G9">
         <v>16</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="55">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
@@ -23424,7 +23750,7 @@
       <c r="G10">
         <v>16</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="55">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
@@ -23475,7 +23801,7 @@
       <c r="G11">
         <v>16</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="55">
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
@@ -23519,7 +23845,7 @@
       <c r="G12">
         <v>19</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="55">
         <f t="shared" si="0"/>
         <v>8.9076418190342235</v>
       </c>
@@ -23561,7 +23887,7 @@
       <c r="G13">
         <v>16</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="55">
         <f t="shared" si="0"/>
         <v>9.2325447201384883</v>
       </c>
@@ -23603,7 +23929,7 @@
       <c r="G14">
         <v>18</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="55">
         <f t="shared" si="0"/>
         <v>9.3119503362648732</v>
       </c>
@@ -23645,7 +23971,7 @@
       <c r="G15">
         <v>18</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="55">
         <f t="shared" si="0"/>
         <v>9.3119503362648732</v>
       </c>
@@ -23687,7 +24013,7 @@
       <c r="G16">
         <v>14</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="55">
         <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
@@ -23729,7 +24055,7 @@
       <c r="G17">
         <v>14</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="55">
         <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
@@ -23771,7 +24097,7 @@
       <c r="G18">
         <v>14</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="55">
         <f t="shared" si="0"/>
         <v>9.3333333333333321</v>
       </c>
@@ -23813,7 +24139,7 @@
       <c r="G19">
         <v>15</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="55">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
@@ -23855,7 +24181,7 @@
       <c r="G20">
         <v>15</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="55">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
@@ -23906,7 +24232,7 @@
       <c r="G21">
         <v>15</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="55">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
@@ -23959,7 +24285,7 @@
       <c r="G22">
         <v>16</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24012,7 +24338,7 @@
       <c r="G23">
         <v>16</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24065,7 +24391,7 @@
       <c r="G24">
         <v>15</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24109,7 +24435,7 @@
       <c r="G25">
         <v>16</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24160,7 +24486,7 @@
       <c r="G26">
         <v>16</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24204,7 +24530,7 @@
       <c r="G27">
         <v>16</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24246,7 +24572,7 @@
       <c r="G28">
         <v>16</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24288,7 +24614,7 @@
       <c r="G29">
         <v>16</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24330,7 +24656,7 @@
       <c r="G30">
         <v>16</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24372,7 +24698,7 @@
       <c r="G31">
         <v>16</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24414,7 +24740,7 @@
       <c r="G32">
         <v>16</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24465,7 +24791,7 @@
       <c r="G33">
         <v>16</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -24509,7 +24835,7 @@
       <c r="G34">
         <v>16</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="55">
         <f t="shared" ref="H34:H65" si="1">IFERROR(($G34*(1/((1000000*$F34)/2))*1000000000),0)</f>
         <v>10</v>
       </c>
@@ -24551,7 +24877,7 @@
       <c r="G35">
         <v>16</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24593,7 +24919,7 @@
       <c r="G36">
         <v>16</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24635,7 +24961,7 @@
       <c r="G37">
         <v>18</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24680,7 +25006,7 @@
       <c r="G38" s="34">
         <v>16</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="56">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24723,7 +25049,7 @@
       <c r="G39">
         <v>18</v>
       </c>
-      <c r="H39" s="57">
+      <c r="H39" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24765,7 +25091,7 @@
       <c r="G40">
         <v>16</v>
       </c>
-      <c r="H40" s="57">
+      <c r="H40" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24810,7 +25136,7 @@
       <c r="G41">
         <v>16</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24861,7 +25187,7 @@
       <c r="G42">
         <v>16</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24905,7 +25231,7 @@
       <c r="G43">
         <v>16</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24947,7 +25273,7 @@
       <c r="G44">
         <v>16</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -24989,7 +25315,7 @@
       <c r="G45">
         <v>18</v>
       </c>
-      <c r="H45" s="57">
+      <c r="H45" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -25040,7 +25366,7 @@
       <c r="G46">
         <v>15</v>
       </c>
-      <c r="H46" s="57">
+      <c r="H46" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -25093,7 +25419,7 @@
       <c r="G47">
         <v>15</v>
       </c>
-      <c r="H47" s="57">
+      <c r="H47" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -25140,7 +25466,7 @@
       <c r="G48" s="49">
         <v>11</v>
       </c>
-      <c r="H48" s="59">
+      <c r="H48" s="57">
         <f t="shared" si="1"/>
         <v>10.314111579934364</v>
       </c>
@@ -25187,7 +25513,7 @@
       <c r="G49">
         <v>16</v>
       </c>
-      <c r="H49" s="57">
+      <c r="H49" s="55">
         <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
@@ -25229,7 +25555,7 @@
       <c r="G50">
         <v>16</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="55">
         <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
@@ -25271,7 +25597,7 @@
       <c r="G51">
         <v>16</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H51" s="55">
         <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
@@ -25313,7 +25639,7 @@
       <c r="G52">
         <v>16</v>
       </c>
-      <c r="H52" s="57">
+      <c r="H52" s="55">
         <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
@@ -25355,7 +25681,7 @@
       <c r="G53">
         <v>16</v>
       </c>
-      <c r="H53" s="57">
+      <c r="H53" s="55">
         <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
@@ -25406,7 +25732,7 @@
       <c r="G54">
         <v>15</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="55">
         <f t="shared" si="1"/>
         <v>11.252813203300825</v>
       </c>
@@ -25459,7 +25785,7 @@
       <c r="G55">
         <v>16</v>
       </c>
-      <c r="H55" s="57">
+      <c r="H55" s="55">
         <f t="shared" si="1"/>
         <v>11.428571428571429</v>
       </c>
@@ -25512,7 +25838,7 @@
       <c r="G56">
         <v>14</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="55">
         <f t="shared" si="1"/>
         <v>11.666666666666666</v>
       </c>
@@ -25556,7 +25882,7 @@
       <c r="G57">
         <v>16</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="55">
         <f t="shared" si="1"/>
         <v>12.003000750187546</v>
       </c>
@@ -25607,7 +25933,7 @@
       <c r="G58">
         <v>14</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H58" s="55">
         <f t="shared" si="1"/>
         <v>13.127051101734645</v>
       </c>
@@ -25651,7 +25977,7 @@
       <c r="G59">
         <v>18</v>
       </c>
-      <c r="H59" s="57">
+      <c r="H59" s="55">
         <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
@@ -25693,7 +26019,7 @@
       <c r="G60">
         <v>18</v>
       </c>
-      <c r="H60" s="57">
+      <c r="H60" s="55">
         <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
@@ -25725,7 +26051,7 @@
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
-      <c r="H61" s="57">
+      <c r="H61" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25738,13 +26064,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="56"/>
+      <c r="O61" s="54"/>
       <c r="P61" s="47"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
-      <c r="H62" s="57">
+      <c r="H62" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25757,13 +26083,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O62" s="56"/>
+      <c r="O62" s="54"/>
       <c r="P62" s="47"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
-      <c r="H63" s="57">
+      <c r="H63" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25776,13 +26102,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O63" s="56"/>
+      <c r="O63" s="54"/>
       <c r="P63" s="47"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
-      <c r="H64" s="57">
+      <c r="H64" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25795,13 +26121,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O64" s="56"/>
+      <c r="O64" s="54"/>
       <c r="P64" s="47"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
-      <c r="H65" s="57">
+      <c r="H65" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25814,13 +26140,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O65" s="56"/>
+      <c r="O65" s="54"/>
       <c r="P65" s="47"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
-      <c r="H66" s="57">
+      <c r="H66" s="55">
         <f t="shared" ref="H66:H77" si="2">IFERROR(($G66*(1/((1000000*$F66)/2))*1000000000),0)</f>
         <v>0</v>
       </c>
@@ -25833,13 +26159,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O66" s="56"/>
+      <c r="O66" s="54"/>
       <c r="P66" s="47"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
-      <c r="H67" s="57">
+      <c r="H67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25852,13 +26178,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O67" s="56"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="47"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
-      <c r="H68" s="57">
+      <c r="H68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25871,13 +26197,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O68" s="56"/>
+      <c r="O68" s="54"/>
       <c r="P68" s="47"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
-      <c r="H69" s="57">
+      <c r="H69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25890,13 +26216,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O69" s="56"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="47"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
-      <c r="H70" s="57">
+      <c r="H70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25909,13 +26235,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="56"/>
+      <c r="O70" s="54"/>
       <c r="P70" s="47"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
-      <c r="H71" s="57">
+      <c r="H71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25928,13 +26254,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="56"/>
+      <c r="O71" s="54"/>
       <c r="P71" s="47"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
-      <c r="H72" s="57">
+      <c r="H72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25947,13 +26273,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O72" s="56"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="47"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
-      <c r="H73" s="57">
+      <c r="H73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25966,13 +26292,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O73" s="56"/>
+      <c r="O73" s="54"/>
       <c r="P73" s="47"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
-      <c r="H74" s="57">
+      <c r="H74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25985,13 +26311,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="56"/>
+      <c r="O74" s="54"/>
       <c r="P74" s="47"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
-      <c r="H75" s="57">
+      <c r="H75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26004,13 +26330,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O75" s="56"/>
+      <c r="O75" s="54"/>
       <c r="P75" s="47"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
-      <c r="H76" s="57">
+      <c r="H76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26023,13 +26349,13 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O76" s="56"/>
+      <c r="O76" s="54"/>
       <c r="P76" s="47"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
-      <c r="H77" s="57">
+      <c r="H77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26042,7 +26368,7 @@
         <f>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</f>
         <v>0</v>
       </c>
-      <c r="O77" s="56"/>
+      <c r="O77" s="54"/>
       <c r="P77" s="47"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -26202,1188 +26528,2763 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF519C8E-A723-49B3-BD55-7C85526FFFDA}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1165</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>1285</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="55">
+        <f>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="25">
+        <v>294.99</v>
+      </c>
+      <c r="L2" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>18.436875000000001</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D3">
+        <v>4800</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="55">
+        <f>IFERROR(($E3*(1/((1000000*$D3)/2))*1000000000),0)</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="25">
+        <v>404.99</v>
+      </c>
+      <c r="L3" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>25.311875000000001</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="55">
+        <f>IFERROR(($E4*(1/((1000000*$D4)/2))*1000000000),0)</f>
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="25">
+        <v>599.99</v>
+      </c>
+      <c r="L4" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>18.7496875</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="M1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D5">
+        <v>3600</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="55">
+        <f>IFERROR(($E5*(1/((1000000*$D5)/2))*1000000000),0)</f>
+        <v>7.7777777777777768</v>
+      </c>
+      <c r="G5">
+        <v>1.45</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="25">
+        <v>249.99</v>
+      </c>
+      <c r="L5" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>15.624375000000001</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D6">
+        <v>3600</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="55">
+        <f>IFERROR(($E6*(1/((1000000*$D6)/2))*1000000000),0)</f>
+        <v>7.7777777777777768</v>
+      </c>
+      <c r="G6">
+        <v>1.45</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K6" s="25">
+        <v>509.99</v>
+      </c>
+      <c r="L6" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>15.9371875</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D7">
+        <v>4600</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" s="55">
+        <f>IFERROR(($E7*(1/((1000000*$D7)/2))*1000000000),0)</f>
+        <v>7.8260869565217392</v>
+      </c>
+      <c r="G7">
+        <v>1.45</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="25">
+        <v>379.99</v>
+      </c>
+      <c r="L7" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>23.749375000000001</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D8">
+        <v>4400</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" s="55">
+        <f>IFERROR(($E8*(1/((1000000*$D8)/2))*1000000000),0)</f>
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="G8">
+        <v>1.4</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="25">
+        <v>304.99</v>
+      </c>
+      <c r="L8" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>19.061875000000001</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" s="55">
+        <f>IFERROR(($E9*(1/((1000000*$D9)/2))*1000000000),0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G9">
+        <v>1.35</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K9" s="25">
+        <v>239.99</v>
+      </c>
+      <c r="L9" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>14.999375000000001</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10" s="55">
+        <f>IFERROR(($E10*(1/((1000000*$D10)/2))*1000000000),0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G10">
+        <v>1.35</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="25">
+        <v>529.99</v>
+      </c>
+      <c r="L10" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>16.5621875</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11" s="55">
+        <f>IFERROR(($E11*(1/((1000000*$D11)/2))*1000000000),0)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G11">
+        <v>1.35</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K11" s="25">
+        <v>479.99</v>
+      </c>
+      <c r="L11" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>14.9996875</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D12">
+        <v>3200</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12" s="55">
+        <f>IFERROR(($E12*(1/((1000000*$D12)/2))*1000000000),0)</f>
+        <v>8.75</v>
+      </c>
+      <c r="G12">
+        <v>1.35</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K12" s="25">
+        <v>180.99</v>
+      </c>
+      <c r="L12" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>11.311875000000001</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D13">
+        <v>3200</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13" s="55">
+        <f>IFERROR(($E13*(1/((1000000*$D13)/2))*1000000000),0)</f>
+        <v>8.75</v>
+      </c>
+      <c r="G13">
+        <v>1.35</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K13" s="25">
+        <v>296.99</v>
+      </c>
+      <c r="L13" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.2809375000000003</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D14">
+        <v>3200</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14" s="55">
+        <f>IFERROR(($E14*(1/((1000000*$D14)/2))*1000000000),0)</f>
+        <v>8.75</v>
+      </c>
+      <c r="G14">
+        <v>1.35</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K14" s="25">
+        <v>645.99</v>
+      </c>
+      <c r="L14" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>10.09359375</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D15">
+        <v>3200</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="55">
+        <f>IFERROR(($E15*(1/((1000000*$D15)/2))*1000000000),0)</f>
+        <v>8.75</v>
+      </c>
+      <c r="G15">
+        <v>1.35</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K15" s="25">
+        <v>387.99</v>
+      </c>
+      <c r="L15" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>12.1246875</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D16">
+        <v>3200</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="55">
+        <f>IFERROR(($E16*(1/((1000000*$D16)/2))*1000000000),0)</f>
+        <v>8.75</v>
+      </c>
+      <c r="G16">
+        <v>1.35</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K16" s="25">
+        <v>436.99</v>
+      </c>
+      <c r="L16" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>13.6559375</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D17">
+        <v>3600</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="55">
+        <f>IFERROR(($E17*(1/((1000000*$D17)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G17">
+        <v>1.35</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="25">
+        <v>180.99</v>
+      </c>
+      <c r="L17" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>11.311875000000001</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D18">
+        <v>3600</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="55">
+        <f>IFERROR(($E18*(1/((1000000*$D18)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G18">
+        <v>1.35</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="25">
+        <v>212.99</v>
+      </c>
+      <c r="L18" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>6.6559375000000003</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D19">
+        <v>3600</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="55">
+        <f>IFERROR(($E19*(1/((1000000*$D19)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G19">
+        <v>1.35</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="25">
+        <v>311.99</v>
+      </c>
+      <c r="L19" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.7496875000000003</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D20">
+        <v>3600</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" s="55">
+        <f>IFERROR(($E20*(1/((1000000*$D20)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G20">
+        <v>1.35</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K20" s="25">
+        <v>137.99</v>
+      </c>
+      <c r="L20" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>8.6243750000000006</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D21">
+        <v>3600</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" s="55">
+        <f>IFERROR(($E21*(1/((1000000*$D21)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G21">
+        <v>1.35</v>
+      </c>
+      <c r="H21">
+        <v>64</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K21" s="25">
+        <v>429.99</v>
+      </c>
+      <c r="L21" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>6.7185937500000001</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D22">
+        <v>3600</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" s="55">
+        <f>IFERROR(($E22*(1/((1000000*$D22)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G22">
+        <v>1.35</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K22" s="25">
+        <v>376.99</v>
+      </c>
+      <c r="L22" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>11.7809375</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D23">
+        <v>3600</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="55">
+        <f>IFERROR(($E23*(1/((1000000*$D23)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G23">
+        <v>1.35</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K23" s="25">
+        <v>276.99</v>
+      </c>
+      <c r="L23" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>8.6559375000000003</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D24">
+        <v>3600</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24" s="55">
+        <f>IFERROR(($E24*(1/((1000000*$D24)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G24">
+        <v>1.35</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K24" s="25">
+        <v>635.99</v>
+      </c>
+      <c r="L24" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.9373437500000001</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D25">
+        <v>3600</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25" s="55">
+        <f>IFERROR(($E25*(1/((1000000*$D25)/2))*1000000000),0)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G25">
+        <v>1.35</v>
+      </c>
+      <c r="H25">
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K25" s="25">
+        <v>424.99</v>
+      </c>
+      <c r="L25" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>13.2809375</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D26">
+        <v>4266</v>
+      </c>
+      <c r="E26">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H2">
-        <f t="shared" ref="H2:H65" si="0">IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</f>
+      <c r="F26" s="55">
+        <f>IFERROR(($E26*(1/((1000000*$D26)/2))*1000000000),0)</f>
+        <v>8.9076418190342235</v>
+      </c>
+      <c r="G26">
+        <v>1.4</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K26" s="25">
+        <v>229.99</v>
+      </c>
+      <c r="L26" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>14.374375000000001</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27" s="55">
+        <f>IFERROR(($E27*(1/((1000000*$D27)/2))*1000000000),0)</f>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="G27">
+        <v>1.35</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K27" s="25">
+        <v>144.99</v>
+      </c>
+      <c r="L27" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.0618750000000006</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D28">
+        <v>4000</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28" s="55">
+        <f>IFERROR(($E28*(1/((1000000*$D28)/2))*1000000000),0)</f>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="G28">
+        <v>1.35</v>
+      </c>
+      <c r="H28">
+        <v>32</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K28" s="25">
+        <v>289.99</v>
+      </c>
+      <c r="L28" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.0621875000000003</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D29">
+        <v>3600</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29" s="55">
+        <f>IFERROR(($E29*(1/((1000000*$D29)/2))*1000000000),0)</f>
+        <v>9.4444444444444429</v>
+      </c>
+      <c r="G29">
+        <v>1.35</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K29" s="25">
+        <v>157.99</v>
+      </c>
+      <c r="L29" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.8743750000000006</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D30">
+        <v>3600</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30" s="55">
+        <f>IFERROR(($E30*(1/((1000000*$D30)/2))*1000000000),0)</f>
+        <v>9.4444444444444429</v>
+      </c>
+      <c r="G30">
+        <v>1.35</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K30" s="25">
+        <v>317.99</v>
+      </c>
+      <c r="L30" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.9371875000000003</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H3">
-        <f t="shared" si="0"/>
+      <c r="N30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1394</v>
+      </c>
+      <c r="P30">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D31">
+        <v>3600</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31" s="55">
+        <f>IFERROR(($E31*(1/((1000000*$D31)/2))*1000000000),0)</f>
+        <v>9.4444444444444429</v>
+      </c>
+      <c r="G31">
+        <v>1.35</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K31" s="25">
+        <v>371.99</v>
+      </c>
+      <c r="L31" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>11.6246875</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N31" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D32">
+        <v>4000</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32" s="55">
+        <f>IFERROR(($E32*(1/((1000000*$D32)/2))*1000000000),0)</f>
+        <v>9.5</v>
+      </c>
+      <c r="G32">
+        <v>1.35</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K32" s="25">
+        <v>364.99</v>
+      </c>
+      <c r="L32" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>11.4059375</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D33">
+        <v>3200</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" s="55">
+        <f>IFERROR(($E33*(1/((1000000*$D33)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1.35</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K33" s="25">
+        <v>124.99</v>
+      </c>
+      <c r="L33" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>7.8118749999999997</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D34">
+        <v>3200</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34" s="55">
+        <f>IFERROR(($E34*(1/((1000000*$D34)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>1.35</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K34" s="25">
+        <v>184.99</v>
+      </c>
+      <c r="L34" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.7809375000000003</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D35">
+        <v>3600</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35" s="55">
+        <f>IFERROR(($E35*(1/((1000000*$D35)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>1.35</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K35" s="25">
+        <v>197.99</v>
+      </c>
+      <c r="L35" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>6.1871875000000003</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D36">
+        <v>3200</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36" s="55">
+        <f>IFERROR(($E36*(1/((1000000*$D36)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>1.35</v>
+      </c>
+      <c r="H36">
+        <v>64</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K36" s="25">
+        <v>349.99</v>
+      </c>
+      <c r="L36" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.4685937500000001</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="Q36">
         <v>0</v>
       </c>
-      <c r="L4">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D37">
+        <v>3600</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37" s="55">
+        <f>IFERROR(($E37*(1/((1000000*$D37)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>1.35</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K37" s="25">
+        <v>129.99</v>
+      </c>
+      <c r="L37" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>8.1243750000000006</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1398</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D38">
+        <v>3200</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38" s="55">
+        <f>IFERROR(($E38*(1/((1000000*$D38)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>1.35</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K38" s="25">
+        <v>247.99</v>
+      </c>
+      <c r="L38" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>7.7496875000000003</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N38" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D39">
+        <v>3200</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39" s="55">
+        <f>IFERROR(($E39*(1/((1000000*$D39)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>1.35</v>
+      </c>
+      <c r="H39">
+        <v>64</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K39" s="25">
+        <v>379.99</v>
+      </c>
+      <c r="L39" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.9373437500000001</v>
+      </c>
+      <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="N39" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D40">
+        <v>3200</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40" s="55">
+        <f>IFERROR(($E40*(1/((1000000*$D40)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>1.35</v>
+      </c>
+      <c r="H40">
+        <v>128</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K40" s="25">
+        <v>699.99</v>
+      </c>
+      <c r="L40" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.4686718750000001</v>
+      </c>
+      <c r="M40">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="N40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D41">
+        <v>3600</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41" s="55">
+        <f>IFERROR(($E41*(1/((1000000*$D41)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>1.35</v>
+      </c>
+      <c r="H41">
+        <v>64</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K41" s="25">
+        <v>399.99</v>
+      </c>
+      <c r="L41" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>6.2498437500000001</v>
+      </c>
+      <c r="M41">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N41" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1406</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D42">
+        <v>3600</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42" s="55">
+        <f>IFERROR(($E42*(1/((1000000*$D42)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>1.35</v>
+      </c>
+      <c r="H42">
+        <v>32</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K42" s="25">
+        <v>259.99</v>
+      </c>
+      <c r="L42" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>8.1246875000000003</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="N42" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1407</v>
+      </c>
+      <c r="P42">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D43">
+        <v>3200</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43" s="55">
+        <f>IFERROR(($E43*(1/((1000000*$D43)/2))*1000000000),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>1.35</v>
+      </c>
+      <c r="H43">
+        <v>32</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K43" s="25">
+        <v>295.99</v>
+      </c>
+      <c r="L43" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>9.2496875000000003</v>
+      </c>
+      <c r="M43">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N43" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D44">
+        <v>3600</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+      <c r="F44" s="55">
+        <f>IFERROR(($E44*(1/((1000000*$D44)/2))*1000000000),0)</f>
+        <v>10.555555555555555</v>
+      </c>
+      <c r="G44">
+        <v>1.35</v>
+      </c>
+      <c r="H44">
+        <v>32</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K44" s="25">
+        <v>199.99</v>
+      </c>
+      <c r="L44" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>6.2496875000000003</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D45">
+        <v>3000</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45" s="55">
+        <f>IFERROR(($E45*(1/((1000000*$D45)/2))*1000000000),0)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G45">
+        <v>1.35</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K45" s="25">
+        <v>114.99</v>
+      </c>
+      <c r="L45" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>7.1868749999999997</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D46">
+        <v>3000</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46" s="55">
+        <f>IFERROR(($E46*(1/((1000000*$D46)/2))*1000000000),0)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G46">
+        <v>1.35</v>
+      </c>
+      <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K46" s="25">
+        <v>179.99</v>
+      </c>
+      <c r="L46" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.6246875000000003</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D47">
+        <v>3000</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47" s="55">
+        <f>IFERROR(($E47*(1/((1000000*$D47)/2))*1000000000),0)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G47">
+        <v>1.35</v>
+      </c>
+      <c r="H47">
+        <v>32</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K47" s="25">
+        <v>232.99</v>
+      </c>
+      <c r="L47" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>7.2809375000000003</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="N47" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D48">
+        <v>3000</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48" s="55">
+        <f>IFERROR(($E48*(1/((1000000*$D48)/2))*1000000000),0)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G48">
+        <v>1.35</v>
+      </c>
+      <c r="H48">
+        <v>64</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>16</v>
+      </c>
+      <c r="K48" s="25">
+        <v>362.99</v>
+      </c>
+      <c r="L48" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>5.6717187500000001</v>
+      </c>
+      <c r="M48">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="N48" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D49">
+        <v>3000</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" s="55">
+        <f>IFERROR(($E49*(1/((1000000*$D49)/2))*1000000000),0)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G49">
+        <v>1.35</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="K49" s="25">
+        <v>279.99</v>
+      </c>
+      <c r="L49" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>8.7496875000000003</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N49" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D50">
+        <v>2666</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" s="55">
+        <f>IFERROR(($E50*(1/((1000000*$D50)/2))*1000000000),0)</f>
+        <v>13.50337584396099</v>
+      </c>
+      <c r="G50">
+        <v>1.2</v>
+      </c>
+      <c r="H50">
+        <v>64</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K50" s="25">
+        <v>299.99</v>
+      </c>
+      <c r="L50" s="26">
         <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>4.6873437500000001</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="L8">
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D51">
+        <v>2666</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51" s="55">
+        <f>IFERROR(($E51*(1/((1000000*$D51)/2))*1000000000),0)</f>
+        <v>13.50337584396099</v>
+      </c>
+      <c r="G51">
+        <v>1.2</v>
+      </c>
+      <c r="H51">
+        <v>128</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
         <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
+        <v>32</v>
+      </c>
+      <c r="K51" s="25">
+        <v>599.99</v>
+      </c>
+      <c r="L51" s="26">
+        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+        <v>4.6874218750000001</v>
+      </c>
+      <c r="M51">
         <v>0</v>
       </c>
-      <c r="N8">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
+      <c r="N51" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1408</v>
+      </c>
+      <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f t="shared" si="0"/>
+      <c r="Q51">
         <v>0</v>
       </c>
-      <c r="L9">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="H66">
-        <f t="shared" ref="H66:H77" si="1">IFERROR(($G66*(1/((1000000*$F66)/2))*1000000000),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="H67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="H68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="H69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="H71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="H72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="H73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="H74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="H75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="H76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="H77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f>IFERROR(Table41213[[#This Row],[GBs]]/Table41213[[#This Row],[Stix]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f>IFERROR(Table41213[[#This Row],[Cost]]/Table41213[[#This Row],[GBs]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J61:J77">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="F2:F51">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G51">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H51">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27394,8 +29295,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61:I77">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="I2:I51">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K51">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27406,8 +29319,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G77">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="L2:L51">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27418,8 +29331,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F77">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="P2:P51">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M51">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -27457,21 +29382,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -28418,22 +30343,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="str">
+      <c r="A24" s="59" t="str">
         <f>"Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds"</f>
         <v>Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DB2B8-B1C2-4BC7-B1E9-62509569480D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70901582-6BCC-409C-A717-3564E47C6994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="6" activeTab="9" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="7" activeTab="9" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="11" r:id="rId1"/>
@@ -4600,9 +4600,6 @@
   </cellStyles>
   <dxfs count="202">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -4706,6 +4703,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -5539,44 +5539,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="15">
       <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="14">
       <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="13">
       <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="12">
       <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="11">
       <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="10">
       <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="9">
       <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="8">
       <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="7">
       <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="6">
       <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="5">
       <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="5">
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="4">
       <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5585,13 +5585,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5599,13 +5599,13 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5888,7 +5888,7 @@
     <tableColumn id="10" xr3:uid="{65A9EA8D-E6E3-4486-B6EF-A413122EC015}" name="Model"/>
     <tableColumn id="3" xr3:uid="{8DAC12E2-07C9-43C5-AD67-DE497EE6A39F}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{1106C5C3-DF2D-4173-89F5-DA284ED9A543}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{AE191B81-1B0C-4951-8F06-FD540A0596C2}" name="V"/>
@@ -7998,7 +7998,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26622,7 +26622,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="55">
-        <f>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</f>
+        <f t="shared" ref="F2:F33" si="0">IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</f>
         <v>7.5000000000000009</v>
       </c>
       <c r="G2">
@@ -26675,7 +26675,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="55">
-        <f>IFERROR(($E3*(1/((1000000*$D3)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
       <c r="G3">
@@ -26728,7 +26728,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="55">
-        <f>IFERROR(($E4*(1/((1000000*$D4)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>7.5000000000000009</v>
       </c>
       <c r="G4">
@@ -26781,7 +26781,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="55">
-        <f>IFERROR(($E5*(1/((1000000*$D5)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>7.7777777777777768</v>
       </c>
       <c r="G5">
@@ -26834,7 +26834,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="55">
-        <f>IFERROR(($E6*(1/((1000000*$D6)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>7.7777777777777768</v>
       </c>
       <c r="G6">
@@ -26887,7 +26887,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="55">
-        <f>IFERROR(($E7*(1/((1000000*$D7)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>7.8260869565217392</v>
       </c>
       <c r="G7">
@@ -26940,7 +26940,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="55">
-        <f>IFERROR(($E8*(1/((1000000*$D8)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.1818181818181817</v>
       </c>
       <c r="G8">
@@ -26993,7 +26993,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="55">
-        <f>IFERROR(($E9*(1/((1000000*$D9)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="G9">
@@ -27046,7 +27046,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="55">
-        <f>IFERROR(($E10*(1/((1000000*$D10)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="G10">
@@ -27099,7 +27099,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="55">
-        <f>IFERROR(($E11*(1/((1000000*$D11)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="G11">
@@ -27152,7 +27152,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="55">
-        <f>IFERROR(($E12*(1/((1000000*$D12)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="G12">
@@ -27205,7 +27205,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="55">
-        <f>IFERROR(($E13*(1/((1000000*$D13)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="G13">
@@ -27258,7 +27258,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="55">
-        <f>IFERROR(($E14*(1/((1000000*$D14)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="G14">
@@ -27311,7 +27311,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="55">
-        <f>IFERROR(($E15*(1/((1000000*$D15)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="G15">
@@ -27364,7 +27364,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="55">
-        <f>IFERROR(($E16*(1/((1000000*$D16)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="G16">
@@ -27417,7 +27417,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="55">
-        <f>IFERROR(($E17*(1/((1000000*$D17)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G17">
@@ -27470,7 +27470,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="55">
-        <f>IFERROR(($E18*(1/((1000000*$D18)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G18">
@@ -27523,7 +27523,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="55">
-        <f>IFERROR(($E19*(1/((1000000*$D19)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G19">
@@ -27576,7 +27576,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="55">
-        <f>IFERROR(($E20*(1/((1000000*$D20)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G20">
@@ -27629,7 +27629,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="55">
-        <f>IFERROR(($E21*(1/((1000000*$D21)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G21">
@@ -27682,7 +27682,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="55">
-        <f>IFERROR(($E22*(1/((1000000*$D22)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G22">
@@ -27735,7 +27735,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="55">
-        <f>IFERROR(($E23*(1/((1000000*$D23)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G23">
@@ -27788,7 +27788,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="55">
-        <f>IFERROR(($E24*(1/((1000000*$D24)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G24">
@@ -27841,7 +27841,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="55">
-        <f>IFERROR(($E25*(1/((1000000*$D25)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G25">
@@ -27894,7 +27894,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="55">
-        <f>IFERROR(($E26*(1/((1000000*$D26)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>8.9076418190342235</v>
       </c>
       <c r="G26">
@@ -27947,7 +27947,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="55">
-        <f>IFERROR(($E27*(1/((1000000*$D27)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.0000000000000018</v>
       </c>
       <c r="G27">
@@ -28000,7 +28000,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="55">
-        <f>IFERROR(($E28*(1/((1000000*$D28)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.0000000000000018</v>
       </c>
       <c r="G28">
@@ -28053,7 +28053,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="55">
-        <f>IFERROR(($E29*(1/((1000000*$D29)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.4444444444444429</v>
       </c>
       <c r="G29">
@@ -28106,7 +28106,7 @@
         <v>17</v>
       </c>
       <c r="F30" s="55">
-        <f>IFERROR(($E30*(1/((1000000*$D30)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.4444444444444429</v>
       </c>
       <c r="G30">
@@ -28159,7 +28159,7 @@
         <v>17</v>
       </c>
       <c r="F31" s="55">
-        <f>IFERROR(($E31*(1/((1000000*$D31)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.4444444444444429</v>
       </c>
       <c r="G31">
@@ -28212,7 +28212,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="55">
-        <f>IFERROR(($E32*(1/((1000000*$D32)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="G32">
@@ -28265,7 +28265,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="55">
-        <f>IFERROR(($E33*(1/((1000000*$D33)/2))*1000000000),0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G33">
@@ -28318,7 +28318,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="55">
-        <f>IFERROR(($E34*(1/((1000000*$D34)/2))*1000000000),0)</f>
+        <f t="shared" ref="F34:F51" si="1">IFERROR(($E34*(1/((1000000*$D34)/2))*1000000000),0)</f>
         <v>10</v>
       </c>
       <c r="G34">
@@ -28371,7 +28371,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="55">
-        <f>IFERROR(($E35*(1/((1000000*$D35)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G35">
@@ -28424,7 +28424,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="55">
-        <f>IFERROR(($E36*(1/((1000000*$D36)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G36">
@@ -28477,7 +28477,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="55">
-        <f>IFERROR(($E37*(1/((1000000*$D37)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G37">
@@ -28530,7 +28530,7 @@
         <v>16</v>
       </c>
       <c r="F38" s="55">
-        <f>IFERROR(($E38*(1/((1000000*$D38)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G38">
@@ -28583,7 +28583,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="55">
-        <f>IFERROR(($E39*(1/((1000000*$D39)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G39">
@@ -28636,7 +28636,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="55">
-        <f>IFERROR(($E40*(1/((1000000*$D40)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G40">
@@ -28689,7 +28689,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="55">
-        <f>IFERROR(($E41*(1/((1000000*$D41)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G41">
@@ -28742,7 +28742,7 @@
         <v>18</v>
       </c>
       <c r="F42" s="55">
-        <f>IFERROR(($E42*(1/((1000000*$D42)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G42">
@@ -28795,7 +28795,7 @@
         <v>16</v>
       </c>
       <c r="F43" s="55">
-        <f>IFERROR(($E43*(1/((1000000*$D43)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G43">
@@ -28848,7 +28848,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="55">
-        <f>IFERROR(($E44*(1/((1000000*$D44)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.555555555555555</v>
       </c>
       <c r="G44">
@@ -28901,7 +28901,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="55">
-        <f>IFERROR(($E45*(1/((1000000*$D45)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="G45">
@@ -28954,7 +28954,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="55">
-        <f>IFERROR(($E46*(1/((1000000*$D46)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="G46">
@@ -29007,7 +29007,7 @@
         <v>16</v>
       </c>
       <c r="F47" s="55">
-        <f>IFERROR(($E47*(1/((1000000*$D47)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="G47">
@@ -29060,7 +29060,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="55">
-        <f>IFERROR(($E48*(1/((1000000*$D48)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="G48">
@@ -29113,7 +29113,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="55">
-        <f>IFERROR(($E49*(1/((1000000*$D49)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>10.666666666666666</v>
       </c>
       <c r="G49">
@@ -29166,7 +29166,7 @@
         <v>18</v>
       </c>
       <c r="F50" s="55">
-        <f>IFERROR(($E50*(1/((1000000*$D50)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
       <c r="G50">
@@ -29219,7 +29219,7 @@
         <v>18</v>
       </c>
       <c r="F51" s="55">
-        <f>IFERROR(($E51*(1/((1000000*$D51)/2))*1000000000),0)</f>
+        <f t="shared" si="1"/>
         <v>13.50337584396099</v>
       </c>
       <c r="G51">

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70901582-6BCC-409C-A717-3564E47C6994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8013DE-0AA2-44DD-BC20-9763ECFEF062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="7" activeTab="9" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="7" activeTab="10" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="RAM_ROYAL" sheetId="15" r:id="rId8"/>
     <sheet name="RAM Speed" sheetId="12" r:id="rId9"/>
     <sheet name="Current" sheetId="9" r:id="rId10"/>
+    <sheet name="Matt" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1419">
   <si>
     <t>Brand</t>
   </si>
@@ -4296,6 +4297,9 @@
   </si>
   <si>
     <t>Chans</t>
+  </si>
+  <si>
+    <t>Matt's Build</t>
   </si>
 </sst>
 </file>
@@ -4310,7 +4314,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4440,8 +4444,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4451,6 +4463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4470,7 +4488,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4591,6 +4609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4598,7 +4620,31 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="202">
+  <dxfs count="204">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -5497,6 +5543,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5524,7 +5575,7 @@
     <tableColumn id="12" xr3:uid="{01EB102E-8E46-49AB-B492-48AA210A3A04}" name="V"/>
     <tableColumn id="6" xr3:uid="{26CDA6F6-C7D5-4803-8D91-8C552C1CDE40}" name="Ttl GB"/>
     <tableColumn id="4" xr3:uid="{8C3664EF-1677-4847-B766-84E1F14D476C}" name="Sticks"/>
-    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="201">
+    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="203">
       <calculatedColumnFormula>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7284CDCA-952F-4E3B-863A-95C36699F7FE}" name="Cost" dataCellStyle="Currency"/>
@@ -5539,44 +5590,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="17">
       <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="16">
       <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="15">
       <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="14">
       <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="13">
       <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="12">
       <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="11">
       <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="10">
       <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="9">
       <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="8">
       <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="7">
       <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="6">
       <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5585,13 +5636,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5599,100 +5650,114 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{49DEED7D-E3B1-45E5-B310-E1A6BA983754}" name="Table5714" displayName="Table5714" ref="A2:E15" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A2:E14" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0B870752-5127-48B6-9168-A1DF3D323912}" name="Part" totalsRowLabel="Sum"/>
+    <tableColumn id="2" xr3:uid="{024DAFBB-D4BD-4D46-AB5E-22B3C5312A42}" name="Brand" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{D1946FA1-8959-4487-B3C1-DC08D875A08C}" name="Model" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{13D6C783-7696-4E80-88B6-3DE8D02C510E}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{23AA0B78-4E32-4465-B710-E3DC6C8CA125}" name="Notes" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="202">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="196"/>
-    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="193"/>
-    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="192"/>
-    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="191"/>
-    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="190"/>
-    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="189"/>
-    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="188"/>
-    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="187"/>
-    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="186"/>
-    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="185"/>
-    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="184"/>
-    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="183"/>
-    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="182"/>
-    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="181"/>
-    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="180"/>
-    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="179"/>
-    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="178"/>
-    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="177"/>
-    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="176"/>
-    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="175"/>
-    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="174"/>
-    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="173"/>
-    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="172"/>
-    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="171"/>
-    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="170"/>
-    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="169"/>
-    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="168"/>
-    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="167"/>
-    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="166"/>
-    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="165"/>
-    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="164"/>
-    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="163"/>
-    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="162"/>
-    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="161"/>
-    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="160"/>
-    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="159"/>
-    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="158"/>
-    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="157"/>
-    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="156"/>
-    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="155"/>
-    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="154"/>
-    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="153"/>
-    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="152"/>
-    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="151"/>
-    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="150"/>
-    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="149"/>
-    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="148"/>
-    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="147"/>
-    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="146"/>
-    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="145"/>
-    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="144"/>
-    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="143"/>
-    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="142"/>
-    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="141"/>
-    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="140"/>
-    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="139"/>
-    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="138"/>
-    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="137"/>
-    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="136"/>
-    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="135"/>
-    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="134"/>
-    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="133"/>
-    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="132"/>
-    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="131"/>
-    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="130"/>
-    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="129"/>
-    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="128"/>
-    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="127"/>
-    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="126"/>
-    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="125"/>
-    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="124"/>
-    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="198"/>
+    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="197"/>
+    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="195"/>
+    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="194"/>
+    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="192"/>
+    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="191"/>
+    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="190"/>
+    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="189"/>
+    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="188"/>
+    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="187"/>
+    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="186"/>
+    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="185"/>
+    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="184"/>
+    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="183"/>
+    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="182"/>
+    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="181"/>
+    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="180"/>
+    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="179"/>
+    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="178"/>
+    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="177"/>
+    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="176"/>
+    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="175"/>
+    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="174"/>
+    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="173"/>
+    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="172"/>
+    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="171"/>
+    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="170"/>
+    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="169"/>
+    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="168"/>
+    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="167"/>
+    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="166"/>
+    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="165"/>
+    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="164"/>
+    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="163"/>
+    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="162"/>
+    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="161"/>
+    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="160"/>
+    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="159"/>
+    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="158"/>
+    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="157"/>
+    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="156"/>
+    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="155"/>
+    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="154"/>
+    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="153"/>
+    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="152"/>
+    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="151"/>
+    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="150"/>
+    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="149"/>
+    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="148"/>
+    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="147"/>
+    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="146"/>
+    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="145"/>
+    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="144"/>
+    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="143"/>
+    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="142"/>
+    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="141"/>
+    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="140"/>
+    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="139"/>
+    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="138"/>
+    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="137"/>
+    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="136"/>
+    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="135"/>
+    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="134"/>
+    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="133"/>
+    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="132"/>
+    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="131"/>
+    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="130"/>
+    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="129"/>
+    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="128"/>
+    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="127"/>
+    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="126"/>
+    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5703,97 +5768,97 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="119"/>
-    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="119">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="111"/>
-    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="110"/>
-    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="107"/>
-    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="106"/>
-    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="105"/>
-    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="104"/>
-    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="103"/>
-    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="102"/>
-    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="101"/>
-    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="100"/>
-    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="99"/>
-    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="98"/>
-    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="97"/>
-    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="96"/>
-    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="95"/>
-    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="94"/>
-    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="93"/>
-    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="92"/>
-    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="91"/>
-    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="90"/>
-    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="89"/>
-    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="88"/>
-    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="87"/>
-    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="86"/>
-    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="85"/>
-    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="84"/>
-    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="83"/>
-    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="82"/>
-    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="81"/>
-    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="80"/>
-    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="79"/>
-    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="78"/>
-    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="77"/>
-    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="76"/>
-    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="75"/>
-    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="74"/>
-    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="73"/>
-    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="72"/>
-    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="71"/>
-    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="70"/>
-    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="69"/>
-    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="68"/>
-    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="67"/>
-    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="66"/>
-    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="65"/>
-    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="64"/>
-    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="63"/>
-    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="62"/>
-    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="61"/>
-    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="60"/>
-    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="59"/>
-    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="58"/>
-    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="57"/>
-    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="56"/>
-    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="55"/>
-    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="54"/>
-    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="53"/>
-    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="52"/>
-    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="51"/>
-    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="50"/>
-    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="49"/>
-    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="48"/>
-    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="47"/>
-    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="46"/>
-    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="45"/>
-    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="44"/>
-    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="43"/>
-    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="42"/>
-    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="41"/>
-    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="110"/>
+    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="109"/>
+    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="108"/>
+    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="107"/>
+    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="106"/>
+    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="105"/>
+    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="104"/>
+    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="103"/>
+    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="102"/>
+    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="101"/>
+    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="100"/>
+    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="99"/>
+    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="98"/>
+    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="97"/>
+    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="96"/>
+    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="95"/>
+    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="94"/>
+    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="93"/>
+    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="92"/>
+    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="91"/>
+    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="90"/>
+    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="89"/>
+    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="88"/>
+    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="87"/>
+    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="86"/>
+    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="85"/>
+    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="84"/>
+    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="83"/>
+    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="82"/>
+    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="81"/>
+    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="80"/>
+    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="79"/>
+    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="78"/>
+    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="77"/>
+    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="76"/>
+    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="75"/>
+    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="74"/>
+    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="73"/>
+    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="72"/>
+    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="71"/>
+    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="70"/>
+    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="69"/>
+    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="68"/>
+    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="67"/>
+    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="66"/>
+    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="65"/>
+    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="64"/>
+    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="63"/>
+    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="62"/>
+    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="61"/>
+    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="60"/>
+    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="59"/>
+    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="58"/>
+    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="57"/>
+    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="56"/>
+    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="55"/>
+    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="54"/>
+    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="53"/>
+    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="52"/>
+    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="51"/>
+    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="50"/>
+    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="49"/>
+    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="48"/>
+    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="47"/>
+    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="46"/>
+    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="45"/>
+    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="44"/>
+    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="43"/>
+    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5804,11 +5869,11 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5818,10 +5883,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
   <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="36"/>
     <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
-    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5829,13 +5894,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5849,27 +5914,27 @@
   </sortState>
   <tableColumns count="17">
     <tableColumn id="16" xr3:uid="{41845326-1A04-4644-BDF1-B10877EBF9D3}" name="#"/>
-    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="27"/>
+    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="26"/>
     <tableColumn id="1" xr3:uid="{87EEEE7D-8A7C-4C24-9598-DB325FC0FC09}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{893697FC-BC3F-41D5-9F18-66756D938A6C}" name="Model"/>
     <tableColumn id="3" xr3:uid="{F6D54D7C-6DE6-4F6C-B53C-456B9C834017}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{2A688068-02CF-405A-8CE9-17AECCC908BA}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="23">
+    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{9D2AC746-C18E-4356-9A3F-CFCC480B0E67}" name="V"/>
     <tableColumn id="6" xr3:uid="{1627D630-B3C2-4191-B028-B9DEC53B6B60}" name="GBs"/>
     <tableColumn id="4" xr3:uid="{229A9ACB-0A32-475C-BB13-BD1A94F0A138}" name="Stix"/>
-    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="24">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E364F542-415A-4E85-BF8A-22B0E46F000B}" name="Cost" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{65313B8E-7D92-44F7-B255-26CBDCEEB288}" name="$ / GB" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="21" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="23" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="22"/>
     <tableColumn id="11" xr3:uid="{5CBFD6EE-B1A8-4C06-AB9B-583A7FF37E01}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5883,12 +5948,12 @@
     <sortCondition ref="F1:F51"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="21"/>
     <tableColumn id="1" xr3:uid="{00F985A0-278B-4BEE-9509-E874A28D20BD}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{65A9EA8D-E6E3-4486-B6EF-A413122EC015}" name="Model"/>
     <tableColumn id="3" xr3:uid="{8DAC12E2-07C9-43C5-AD67-DE497EE6A39F}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{1106C5C3-DF2D-4173-89F5-DA284ED9A543}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="18">
+    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="20">
       <calculatedColumnFormula>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{AE191B81-1B0C-4951-8F06-FD540A0596C2}" name="V"/>
@@ -7997,8 +8062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FF523-5251-4FF3-B975-B54A21DBAE44}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E54" sqref="A37:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8502,6 +8567,153 @@
   <tableParts count="2">
     <tablePart r:id="rId29"/>
     <tablePart r:id="rId30"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED04D34-623F-457E-8FEC-87623C634490}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15">
+        <f>SUBTOTAL(109,Table5714[Brand])</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SUBTOTAL(109,Table5714[Model])</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <f>SUBTOTAL(109,Table5714[Cost])</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>SUBTOTAL(109,Table5714[Notes])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8013DE-0AA2-44DD-BC20-9763ECFEF062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C7B0CC-96CD-40B7-A4A9-E7268FF16F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="7" activeTab="10" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1438">
   <si>
     <t>Brand</t>
   </si>
@@ -4300,6 +4300,119 @@
   </si>
   <si>
     <t>Matt's Build</t>
+  </si>
+  <si>
+    <t>Ryzen 9 3900X</t>
+  </si>
+  <si>
+    <t>Noctua</t>
+  </si>
+  <si>
+    <t>NH-D15</t>
+  </si>
+  <si>
+    <t>Motherboard</t>
+  </si>
+  <si>
+    <t>X570-A Pro</t>
+  </si>
+  <si>
+    <t>RX 5700 XT</t>
+  </si>
+  <si>
+    <t>H510</t>
+  </si>
+  <si>
+    <t>EVGA</t>
+  </si>
+  <si>
+    <t>M2 Storage</t>
+  </si>
+  <si>
+    <t>970 Evo</t>
+  </si>
+  <si>
+    <t>3.8 GHz  @  12 Cores</t>
+  </si>
+  <si>
+    <t>860 Evo</t>
+  </si>
+  <si>
+    <t>CMK16GX4M2D3600C18</t>
+  </si>
+  <si>
+    <t>16 GB (2x8)  -  3600 @ 18ns  = 10ns RL</t>
+  </si>
+  <si>
+    <t>500 GB  -  M.2-2280  &amp;  NVME 1.3  - PCIe G3 X4</t>
+  </si>
+  <si>
+    <t>1 TB  -  SATA 3</t>
+  </si>
+  <si>
+    <t>8 GB  -  1750 MHz</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>850W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &amp;  80+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gold</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SuperNOVA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4314,7 +4427,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4448,6 +4561,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4603,6 +4733,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4612,7 +4743,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4621,6 +4751,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="204">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -4644,12 +4780,6 @@
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -5642,7 +5772,7 @@
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5656,7 +5786,7 @@
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5664,14 +5794,14 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{49DEED7D-E3B1-45E5-B310-E1A6BA983754}" name="Table5714" displayName="Table5714" ref="A2:E15" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A2:E14" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{49DEED7D-E3B1-45E5-B310-E1A6BA983754}" name="Table5714" displayName="Table5714" ref="A2:E13" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A2:E12" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0B870752-5127-48B6-9168-A1DF3D323912}" name="Part" totalsRowLabel="Sum"/>
-    <tableColumn id="2" xr3:uid="{024DAFBB-D4BD-4D46-AB5E-22B3C5312A42}" name="Brand" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{D1946FA1-8959-4487-B3C1-DC08D875A08C}" name="Model" totalsRowFunction="sum"/>
+    <tableColumn id="2" xr3:uid="{024DAFBB-D4BD-4D46-AB5E-22B3C5312A42}" name="Brand" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{D1946FA1-8959-4487-B3C1-DC08D875A08C}" name="Model" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{13D6C783-7696-4E80-88B6-3DE8D02C510E}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{23AA0B78-4E32-4465-B710-E3DC6C8CA125}" name="Notes" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{23AA0B78-4E32-4465-B710-E3DC6C8CA125}" name="Notes" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8573,44 +8703,44 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED04D34-623F-457E-8FEC-87623C634490}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>1418</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="58" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8618,102 +8748,192 @@
       <c r="A3" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="B3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D3" s="26">
+        <v>434</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="B4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D4" s="26">
+        <v>89.99</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="26"/>
+        <v>1422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D5" s="26">
+        <v>159.99</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="B6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D6" s="26">
+        <v>82.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>1427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D7" s="26">
+        <v>99.99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D8" s="26">
+        <v>169.99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D9" s="26">
+        <v>349.49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D10" s="26">
+        <v>69.989999999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="B11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D11" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
         <v>234</v>
       </c>
-      <c r="B15">
-        <f>SUBTOTAL(109,Table5714[Brand])</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f>SUBTOTAL(109,Table5714[Model])</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="B13">
+        <f>SUBTOTAL(103,Table5714[Brand])</f>
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>SUBTOTAL(103,Table5714[Model])</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="29">
         <f>SUBTOTAL(109,Table5714[Cost])</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>SUBTOTAL(109,Table5714[Notes])</f>
-        <v>0</v>
+        <v>1616.42</v>
+      </c>
+      <c r="E13">
+        <f>SUBTOTAL(103,Table5714[Notes])</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{0F37C7B4-35FD-446C-BD27-9BB67DE39CA5}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{61D966E2-63CD-432A-92A6-1ADFFFC19A9C}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{3F9A162C-FD0E-48BE-A4DB-1EDC1DD29ACE}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8A73CF76-9D28-4DC7-BC4D-9775E9F59E43}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{5E17F966-28A1-4DD6-8A7F-8294082FC218}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{07C5E44E-4CFC-4554-A1DA-2FD82FE2BED4}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{F542FBC6-9790-4888-A4ED-72923E7E105C}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{07959389-B56F-4BF3-A720-BC3579E9F3CC}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{CADCA6B2-DD27-4DD8-9CC9-11FFC83EB2A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -29580,7 +29800,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29594,21 +29814,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>1247</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -30555,22 +30775,22 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="str">
+      <c r="A24" s="60" t="str">
         <f>"Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds"</f>
         <v>Equation = ( CL * ( 1 / (RAM Speed X 1B / 2))) = .0000000000## Seconds X 1B = #.# nanoseconds</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Notes/Other/Computer Parts.xlsx
+++ b/Notes/Other/Computer Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repos\Notes\Notes\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C7B0CC-96CD-40B7-A4A9-E7268FF16F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18BBE89-667D-498C-91EE-026D0A959454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="7" activeTab="10" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
+    <workbookView xWindow="780" yWindow="390" windowWidth="14160" windowHeight="15360" firstSheet="8" activeTab="12" xr2:uid="{AE592B13-F5E3-4D55-A349-4492C222292E}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="RAM Speed" sheetId="12" r:id="rId9"/>
     <sheet name="Current" sheetId="9" r:id="rId10"/>
     <sheet name="Matt" sheetId="16" r:id="rId11"/>
+    <sheet name="Mine" sheetId="18" r:id="rId12"/>
+    <sheet name="Compare" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="1470">
   <si>
     <t>Brand</t>
   </si>
@@ -4414,6 +4416,102 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t>Thermaltake</t>
+  </si>
+  <si>
+    <t>ToughPower Grand RGB</t>
+  </si>
+  <si>
+    <t>My Build - 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 Core@3.6GHz</t>
+  </si>
+  <si>
+    <t>ARGB - AIO Liquid Cooler</t>
+  </si>
+  <si>
+    <t>ROG Strix Z390-E</t>
+  </si>
+  <si>
+    <t>LGA 1151 Socket</t>
+  </si>
+  <si>
+    <t>Trident Z Royal</t>
+  </si>
+  <si>
+    <t>DDR4.3600 - 16CL - 64GB(4x16)</t>
+  </si>
+  <si>
+    <t>XPG</t>
+  </si>
+  <si>
+    <t>Gammix S11 Pro</t>
+  </si>
+  <si>
+    <t>Spectrix S40G RGB</t>
+  </si>
+  <si>
+    <t>3D.TLC-256GB@3.5/1.2kMBps</t>
+  </si>
+  <si>
+    <t>3D.NAND-256GB@3.5k/3kMBps</t>
+  </si>
+  <si>
+    <t>2070 Super XC Ultra+</t>
+  </si>
+  <si>
+    <t>DDR6.8GB - 2560 CUDA.Cores</t>
+  </si>
+  <si>
+    <t>850W - 80+Gold - Full.Modular</t>
+  </si>
+  <si>
+    <t>Commander C35</t>
+  </si>
+  <si>
+    <t>2x2oommARGB &amp; 1x120mm</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>12 Core@3.8GHz</t>
+  </si>
+  <si>
+    <t>DDR4.3600-18CL-16GB(2x8)</t>
+  </si>
+  <si>
+    <t>V.NAND-500GB@3.4/2.3kMBps</t>
+  </si>
+  <si>
+    <t>V.NAND-1TB@550/520MBps</t>
+  </si>
+  <si>
+    <t>Matt's Build - 2020</t>
+  </si>
+  <si>
+    <t>850W-80+Gold-Full.Modular</t>
+  </si>
+  <si>
+    <t>SuperNOVA G2</t>
+  </si>
+  <si>
+    <t>DDR6.8GB - 1.75k MHz</t>
+  </si>
+  <si>
+    <t>DDR6.8GB - 1.8kMHz</t>
+  </si>
+  <si>
+    <t>2x120mm</t>
+  </si>
+  <si>
+    <t>Soooo big! xD</t>
+  </si>
+  <si>
+    <t>AM4 Socket</t>
+  </si>
 </sst>
 </file>
 
@@ -4427,7 +4525,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]yyyy\-mmm;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4582,8 +4680,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4599,6 +4705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4618,7 +4730,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4743,6 +4855,22 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4750,9 +4878,417 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="230">
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -5705,7 +6241,7 @@
     <tableColumn id="12" xr3:uid="{01EB102E-8E46-49AB-B492-48AA210A3A04}" name="V"/>
     <tableColumn id="6" xr3:uid="{26CDA6F6-C7D5-4803-8D91-8C552C1CDE40}" name="Ttl GB"/>
     <tableColumn id="4" xr3:uid="{8C3664EF-1677-4847-B766-84E1F14D476C}" name="Sticks"/>
-    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="203">
+    <tableColumn id="5" xr3:uid="{56DE2F54-B205-4A0E-8832-7E97D1438BA4}" name="GB" dataDxfId="229">
       <calculatedColumnFormula>IFERROR(Table4[[#This Row],[Ttl GB]]/Table4[[#This Row],[Sticks]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{7284CDCA-952F-4E3B-863A-95C36699F7FE}" name="Cost" dataCellStyle="Currency"/>
@@ -5720,44 +6256,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D99ABB56-CEF0-41CB-BD68-FAD4399ACACF}" name="Table15" displayName="Table15" ref="A2:M19" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A2:M19" xr:uid="{963364D5-FBF6-4922-8C03-FB2C20BA1700}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{6BDEACEE-57CD-4D69-B5EA-4791E2BCCC8F}" name="MHz" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{FD523C23-A91F-4E85-98BB-DD97C461C802}" name="9" dataDxfId="43">
       <calculatedColumnFormula>(B$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{A3460A84-4D29-47E6-9563-42D01C31D49A}" name="10" dataDxfId="42">
       <calculatedColumnFormula>(C$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{16AF7556-3513-4D13-8A5B-803BCB0B7445}" name="11" dataDxfId="41">
       <calculatedColumnFormula>(D$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{4B5855CB-C09B-4FAB-9253-61525E7032FB}" name="12" dataDxfId="40">
       <calculatedColumnFormula>(E$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{B37555D4-69C1-4505-883C-74EEABA01408}" name="13" dataDxfId="39">
       <calculatedColumnFormula>(F$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{3FCB32F3-135F-42CC-AAD9-11955CC72839}" name="14" dataDxfId="38">
       <calculatedColumnFormula>(G$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{70603AD2-531A-4486-B9D7-7968A1CA9D8B}" name="15" dataDxfId="37">
       <calculatedColumnFormula>(H$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{3AD3A6D0-B465-4130-BE37-07DE606C1CCC}" name="16" dataDxfId="36">
       <calculatedColumnFormula>(I$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{8F89EA46-3FDA-4115-8A54-579685DBBD19}" name="17" dataDxfId="35">
       <calculatedColumnFormula>(J$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{62BD67A9-D6B0-494B-B8BE-4A52A451E7FF}" name="18" dataDxfId="34">
       <calculatedColumnFormula>(K$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{0688AA98-B1B1-4B8E-BF5E-711FA69FD300}" name="19" dataDxfId="33">
       <calculatedColumnFormula>(L$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{A590C9D2-B85C-4E23-8ED3-1E6DEE5EF4AD}" name="20" dataDxfId="32">
       <calculatedColumnFormula>(M$2*(1/(($A3*1000000)/2)))*1000000000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5766,13 +6302,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7DA4AAD8-2AAB-407E-91DC-3CDDD5EA3955}" name="Table5" displayName="Table5" ref="A1:E16" totalsRowCount="1" headerRowDxfId="31">
   <autoFilter ref="A1:E15" xr:uid="{DA2AF219-33AA-45DD-A85E-F593193A887D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8070B3A1-5BCF-41CB-B655-E648A0F427BE}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{58BE954C-2CF6-4658-A398-8B014DB87CAE}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{4AC4E9B7-D700-4BC6-8D33-A032263821F1}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{133FDA72-5138-4635-92B1-5D7970EF0AD2}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="28" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{4CE74562-7106-45C8-BE34-42EDF2C7A643}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5780,13 +6316,13 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{818353D2-E20B-445E-9789-59BB9F67A886}" name="Table57" displayName="Table57" ref="A19:E35" totalsRowCount="1" headerRowDxfId="30">
   <autoFilter ref="A19:E34" xr:uid="{7AD2F261-E4D2-4388-B01D-6FC5F2B69142}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A17C70C0-0057-45E7-957D-72EEBD5FB3DB}" name="Part" totalsRowLabel="Sum"/>
     <tableColumn id="2" xr3:uid="{C93E2899-907F-4ECE-9DA3-BC570E31BF12}" name="Brand" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F659F022-ED22-47D3-B1F7-8139D9C02686}" name="Model" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9B7DEAFF-5E12-4CD3-A572-97782925EB7C}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="27" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{1B2851B3-6CEB-4445-BAC2-7AA5BB981EC1}" name="Notes" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5794,100 +6330,142 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{49DEED7D-E3B1-45E5-B310-E1A6BA983754}" name="Table5714" displayName="Table5714" ref="A2:E13" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A2:E12" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{49DEED7D-E3B1-45E5-B310-E1A6BA983754}" name="Table5714" displayName="Table5714" ref="A2:E12" totalsRowCount="1" headerRowDxfId="29" totalsRowDxfId="13">
+  <autoFilter ref="A2:E11" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0B870752-5127-48B6-9168-A1DF3D323912}" name="Part" totalsRowLabel="Sum"/>
-    <tableColumn id="2" xr3:uid="{024DAFBB-D4BD-4D46-AB5E-22B3C5312A42}" name="Brand" totalsRowFunction="count"/>
-    <tableColumn id="3" xr3:uid="{D1946FA1-8959-4487-B3C1-DC08D875A08C}" name="Model" totalsRowFunction="count"/>
-    <tableColumn id="4" xr3:uid="{13D6C783-7696-4E80-88B6-3DE8D02C510E}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{23AA0B78-4E32-4465-B710-E3DC6C8CA125}" name="Notes" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{0B870752-5127-48B6-9168-A1DF3D323912}" name="Part" totalsRowLabel="Sum" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{024DAFBB-D4BD-4D46-AB5E-22B3C5312A42}" name="Brand" totalsRowFunction="count" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{D1946FA1-8959-4487-B3C1-DC08D875A08C}" name="Model" totalsRowFunction="count" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{13D6C783-7696-4E80-88B6-3DE8D02C510E}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{23AA0B78-4E32-4465-B710-E3DC6C8CA125}" name="Notes" totalsRowFunction="count" totalsRowDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FFB3C273-9433-438D-A2DD-10AE2C5304E8}" name="Table571415" displayName="Table571415" ref="A2:E12" totalsRowCount="1" headerRowDxfId="26" totalsRowDxfId="20">
+  <autoFilter ref="A2:E11" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6B730D9F-6814-457E-9085-3F10E7F988FD}" name="Part" totalsRowLabel="Totals" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{FAE4D039-F595-482C-BFCE-51D24E27FEF3}" name="Brand" totalsRowFunction="count" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FB607163-C2F2-4C0A-A1A2-CA26383A6DFE}" name="Model" totalsRowFunction="count" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A93E1A7E-E9E8-40B8-8836-A7D9F564274F}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="22" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8F24A6FB-4029-44C0-BCA7-4B6D6E215D99}" name="Notes" totalsRowFunction="count" totalsRowDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C6842A07-A55D-4C81-8271-C1A99E1CF624}" name="Table57141516" displayName="Table57141516" ref="A2:E12" totalsRowCount="1" headerRowDxfId="19" totalsRowDxfId="0">
+  <autoFilter ref="A2:E11" xr:uid="{55F18519-E924-4104-9F74-8457EE27C089}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AA8947E4-F097-4021-9DCB-7F40FB7A94F4}" name="Part" totalsRowLabel="Totals" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{25F0A528-A117-436E-A381-037BDBBE3949}" name="Brand" totalsRowFunction="count" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4089F0B9-5488-4048-8145-A751AE1DD56C}" name="Model" totalsRowFunction="count" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{25A1B4FB-925A-4DEA-BA16-63C0541AF935}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F737F551-B8A1-4EF2-AA6E-358D0CCAEF46}" name="Notes" totalsRowFunction="count" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1389C3A5-1A4D-45AA-8272-1AF9D81E8974}" name="Table571417" displayName="Table571417" ref="A14:E24" totalsRowCount="1" headerRowDxfId="12" totalsRowDxfId="6">
+  <autoFilter ref="A14:E23" xr:uid="{FB946DFC-A0AE-4D3C-820E-05672C4A44AA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7FF42F0A-DA99-4CEE-9E2A-4ADE003F2A0D}" name="Part" totalsRowLabel="Totals" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A6231961-5033-40B0-86E0-78CC696C344F}" name="Brand" totalsRowFunction="count" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3DAD8C9F-1D60-4A7D-8642-DB6317052F0E}" name="Model" totalsRowFunction="count" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5BAA124B-FF3A-4644-B6C8-641E2F795681}" name="Cost" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{751CEA90-D734-4978-80F3-312424EBC769}" name="Notes" totalsRowFunction="count" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{56F651CD-C718-430C-8BB5-ADB1259EFE59}" name="Table8" displayName="Table8" ref="A1:BY24" totalsRowShown="0" dataDxfId="228">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="200"/>
-    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="199"/>
-    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="198"/>
-    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="196"/>
-    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="195"/>
-    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="194"/>
-    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="193"/>
-    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="192"/>
-    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="191"/>
-    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="190"/>
-    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="189"/>
-    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="188"/>
-    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="187"/>
-    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="186"/>
-    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="185"/>
-    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="184"/>
-    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="183"/>
-    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="182"/>
-    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="181"/>
-    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="180"/>
-    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="179"/>
-    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="178"/>
-    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="177"/>
-    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="176"/>
-    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="175"/>
-    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="174"/>
-    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="173"/>
-    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="172"/>
-    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="171"/>
-    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="170"/>
-    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="169"/>
-    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="168"/>
-    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="167"/>
-    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="166"/>
-    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="165"/>
-    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="164"/>
-    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="163"/>
-    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="162"/>
-    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="161"/>
-    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="160"/>
-    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="159"/>
-    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="158"/>
-    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="157"/>
-    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="156"/>
-    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="155"/>
-    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="154"/>
-    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="153"/>
-    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="152"/>
-    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="151"/>
-    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="150"/>
-    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="149"/>
-    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="148"/>
-    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="147"/>
-    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="146"/>
-    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="145"/>
-    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="144"/>
-    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="143"/>
-    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="142"/>
-    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="141"/>
-    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="140"/>
-    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="139"/>
-    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="138"/>
-    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="137"/>
-    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="136"/>
-    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="135"/>
-    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="134"/>
-    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="133"/>
-    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="132"/>
-    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="131"/>
-    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="130"/>
-    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="129"/>
-    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="128"/>
-    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="127"/>
-    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="126"/>
-    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{AC7DA008-A063-4DB1-B714-D3D20D17AD4C}" name="Model" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{FBAAE1EB-5D7D-491E-A3FE-FCEFDABB4A70}" name="VX238H" dataDxfId="226"/>
+    <tableColumn id="3" xr3:uid="{E90B1C3C-913F-4117-B900-6FBACFA065BC}" name="S27D390H" dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{790C7416-CE63-4C76-9C32-5C1703314BBC}" name="PG348Q " dataDxfId="224"/>
+    <tableColumn id="5" xr3:uid="{C02157FF-0C38-49DC-9CC2-23E7CDB1F12B}" name="EL2870U" dataDxfId="223"/>
+    <tableColumn id="6" xr3:uid="{21338401-D7D4-425B-BDC5-3728D098D73A}" name="34UC79G-B" dataDxfId="222"/>
+    <tableColumn id="7" xr3:uid="{F372CAB7-6F8B-43C7-AC29-7D04E3E7E38F}" name="XG2560" dataDxfId="221"/>
+    <tableColumn id="8" xr3:uid="{0F248465-7E1C-445B-9A8B-AE33D1B2378C}" name="XB321HK" dataDxfId="220"/>
+    <tableColumn id="9" xr3:uid="{6AA8C1BF-C855-49DF-80B0-F020F60057A0}" name="PG258Q" dataDxfId="219"/>
+    <tableColumn id="10" xr3:uid="{B1D07B79-3909-49FA-9758-98CD9CD46B67}" name="29UM68-P" dataDxfId="218"/>
+    <tableColumn id="11" xr3:uid="{75B924EC-184D-437A-877D-E16FD5B0F92F}" name="Column10" dataDxfId="217"/>
+    <tableColumn id="12" xr3:uid="{8450C9D5-5D82-4755-8273-4FB050B905D3}" name="Column11" dataDxfId="216"/>
+    <tableColumn id="13" xr3:uid="{E7583380-8BB9-42EC-A6A8-2EE05316EDF6}" name="Column12" dataDxfId="215"/>
+    <tableColumn id="14" xr3:uid="{A9291E89-AF05-4536-8E1B-1218C515D56C}" name="Column13" dataDxfId="214"/>
+    <tableColumn id="15" xr3:uid="{6430A8CE-3ACC-4CAF-BCFE-68CCA65CDA65}" name="Column14" dataDxfId="213"/>
+    <tableColumn id="16" xr3:uid="{6F3AA333-3B80-43C1-926E-212F405623E2}" name="Column15" dataDxfId="212"/>
+    <tableColumn id="17" xr3:uid="{BDF798AA-1EE6-4D17-ADD8-BF1E883E4CEA}" name="Column16" dataDxfId="211"/>
+    <tableColumn id="18" xr3:uid="{E66ED024-E00C-41E2-B4E0-A43A29D0B122}" name="Column17" dataDxfId="210"/>
+    <tableColumn id="19" xr3:uid="{F985ED18-3B87-42F7-A914-5AD10A9A1E7F}" name="Column18" dataDxfId="209"/>
+    <tableColumn id="20" xr3:uid="{9B09E137-A922-4563-8938-66F82A2DC2C3}" name="Column19" dataDxfId="208"/>
+    <tableColumn id="21" xr3:uid="{51DC3A79-7206-4C1E-A900-0A283862C928}" name="Column20" dataDxfId="207"/>
+    <tableColumn id="22" xr3:uid="{2EB04A35-6B55-48C4-BF25-BD0A13066FDB}" name="Column21" dataDxfId="206"/>
+    <tableColumn id="23" xr3:uid="{5C2B83AC-9C67-436D-A9FF-DE4E44B451DF}" name="Column22" dataDxfId="205"/>
+    <tableColumn id="24" xr3:uid="{1E8A2B09-E45C-4F9A-8438-5072856AB39A}" name="Column23" dataDxfId="204"/>
+    <tableColumn id="25" xr3:uid="{C79B35D5-BFBE-4EDD-95DF-FBD653DE49F2}" name="Column24" dataDxfId="203"/>
+    <tableColumn id="26" xr3:uid="{41A3A219-0E06-43F6-B27F-70503D4D298E}" name="Column25" dataDxfId="202"/>
+    <tableColumn id="27" xr3:uid="{A9CB5ACF-143D-431E-8B73-A10603CBC726}" name="Column26" dataDxfId="201"/>
+    <tableColumn id="28" xr3:uid="{15DEDC50-8340-46C4-9C99-D7F426083A33}" name="Column27" dataDxfId="200"/>
+    <tableColumn id="29" xr3:uid="{7580E0E2-7481-4994-B393-8A3FD2F4882B}" name="Column28" dataDxfId="199"/>
+    <tableColumn id="30" xr3:uid="{054DDC6C-B35C-4D98-97AE-C40B7DFF4BB5}" name="Column29" dataDxfId="198"/>
+    <tableColumn id="31" xr3:uid="{1C2B14A1-7792-4134-9DBD-CB49AA51BA54}" name="Column30" dataDxfId="197"/>
+    <tableColumn id="32" xr3:uid="{AF0F4B31-54E6-4269-A741-1E8FC76AA442}" name="Column31" dataDxfId="196"/>
+    <tableColumn id="33" xr3:uid="{E2982529-C27D-4001-93BF-7F3188BE8707}" name="Column32" dataDxfId="195"/>
+    <tableColumn id="34" xr3:uid="{FD837390-E536-41B2-91A9-117419C23EFC}" name="Column33" dataDxfId="194"/>
+    <tableColumn id="35" xr3:uid="{77F131CC-50E9-41E0-B316-2A09F457A9E0}" name="Column34" dataDxfId="193"/>
+    <tableColumn id="36" xr3:uid="{E2FAD466-C352-4615-AD9D-EFE48AD51053}" name="Column35" dataDxfId="192"/>
+    <tableColumn id="37" xr3:uid="{36120818-C96D-4A5D-B138-472347F8A68B}" name="Column36" dataDxfId="191"/>
+    <tableColumn id="38" xr3:uid="{5A80E96A-4F4C-4507-8D79-27EFA967ACB3}" name="Column37" dataDxfId="190"/>
+    <tableColumn id="39" xr3:uid="{C97FB8E3-94BF-4F8C-A3B7-347338507FFB}" name="Column38" dataDxfId="189"/>
+    <tableColumn id="40" xr3:uid="{95C5B25A-D3E7-4EC9-B66F-973D7DCEB7BA}" name="Column39" dataDxfId="188"/>
+    <tableColumn id="41" xr3:uid="{DD7E6DAC-F911-45BC-ABDF-5B017D61CB62}" name="Column40" dataDxfId="187"/>
+    <tableColumn id="42" xr3:uid="{AE8957F5-3103-4555-8FFA-2F76196235A5}" name="Column41" dataDxfId="186"/>
+    <tableColumn id="43" xr3:uid="{E080CE59-2A38-4FEA-8B94-75EC9014ABF6}" name="Column42" dataDxfId="185"/>
+    <tableColumn id="44" xr3:uid="{1CDEA82F-034C-46B8-92D9-613CDC84908B}" name="Column43" dataDxfId="184"/>
+    <tableColumn id="45" xr3:uid="{C1C5FFF3-6DE9-4FCF-A82E-CAA333503621}" name="Column44" dataDxfId="183"/>
+    <tableColumn id="46" xr3:uid="{E6F2194B-920E-4A5E-8569-5908457601F6}" name="Column45" dataDxfId="182"/>
+    <tableColumn id="47" xr3:uid="{4CD5881B-28F3-4958-807B-F43305D2EB05}" name="Column46" dataDxfId="181"/>
+    <tableColumn id="48" xr3:uid="{6FD32DE4-4371-4A0A-A14B-9365866C2B76}" name="Column47" dataDxfId="180"/>
+    <tableColumn id="49" xr3:uid="{A10ADDB4-C9D4-4EFD-AE54-24D94D3D5FF0}" name="Column48" dataDxfId="179"/>
+    <tableColumn id="50" xr3:uid="{B96F4C1A-FDE0-44B4-A459-F0BACB69DD64}" name="Column49" dataDxfId="178"/>
+    <tableColumn id="51" xr3:uid="{C3479208-251C-4115-8190-59F2355A203D}" name="Column50" dataDxfId="177"/>
+    <tableColumn id="52" xr3:uid="{1D18C458-05FD-473A-A2D1-46BEAA1E78BB}" name="Column51" dataDxfId="176"/>
+    <tableColumn id="53" xr3:uid="{3FFFF742-1A3D-4394-964F-FFCA48F59F28}" name="Column52" dataDxfId="175"/>
+    <tableColumn id="54" xr3:uid="{92E55425-9D63-4826-A17D-AE7DA06FD7FD}" name="Column53" dataDxfId="174"/>
+    <tableColumn id="55" xr3:uid="{6A3BE147-6600-43D3-B862-FD3A737DD753}" name="Column54" dataDxfId="173"/>
+    <tableColumn id="56" xr3:uid="{975E22CE-525D-4A85-839F-AEDF60458C95}" name="Column55" dataDxfId="172"/>
+    <tableColumn id="57" xr3:uid="{6C656699-6046-4FFC-A2F9-53C60BBE55B3}" name="Column56" dataDxfId="171"/>
+    <tableColumn id="58" xr3:uid="{2EDF9244-3E07-496B-8D74-381343EFDF5B}" name="Column57" dataDxfId="170"/>
+    <tableColumn id="59" xr3:uid="{3845BA0E-100E-433B-B885-8386BE9A8BA5}" name="Column58" dataDxfId="169"/>
+    <tableColumn id="60" xr3:uid="{E1EC00A6-73D4-4311-B230-DC0906397053}" name="Column59" dataDxfId="168"/>
+    <tableColumn id="61" xr3:uid="{E6E756B9-EB4C-44BB-8FBE-13F9383A516E}" name="Column60" dataDxfId="167"/>
+    <tableColumn id="62" xr3:uid="{D2D1AEB3-1B14-42B3-A807-ABAD09B9BB1B}" name="Column61" dataDxfId="166"/>
+    <tableColumn id="63" xr3:uid="{AA302D49-4D94-4B0B-8A90-3ECA365037A7}" name="Column62" dataDxfId="165"/>
+    <tableColumn id="64" xr3:uid="{39C28622-517D-443A-A8E1-E2C5F6310968}" name="Column63" dataDxfId="164"/>
+    <tableColumn id="65" xr3:uid="{2E3EA648-1096-4434-93DC-A061CC93E2F1}" name="Column64" dataDxfId="163"/>
+    <tableColumn id="66" xr3:uid="{F7D8BB1E-2DE0-4B73-A414-744170FF5403}" name="Column65" dataDxfId="162"/>
+    <tableColumn id="67" xr3:uid="{C2E56346-40F8-47A8-A673-C181395A83DB}" name="Column66" dataDxfId="161"/>
+    <tableColumn id="68" xr3:uid="{EB743132-15C8-441A-899B-2E4DD56311E2}" name="Column67" dataDxfId="160"/>
+    <tableColumn id="69" xr3:uid="{3675A020-9BFA-472B-8EA8-333D729E6598}" name="Column68" dataDxfId="159"/>
+    <tableColumn id="70" xr3:uid="{EEB1EE58-25B7-4F57-AC00-C686DAE5155C}" name="Column69" dataDxfId="158"/>
+    <tableColumn id="71" xr3:uid="{F262F94F-4CB6-4637-9E00-58AD8486196F}" name="Column70" dataDxfId="157"/>
+    <tableColumn id="72" xr3:uid="{70137FBE-F2CF-44A3-AAEE-1B66E05F4AE8}" name="Column71" dataDxfId="156"/>
+    <tableColumn id="73" xr3:uid="{EA641F56-AD5B-4B3C-8BF5-474BDBEEAF47}" name="Column72" dataDxfId="155"/>
+    <tableColumn id="74" xr3:uid="{CAC85621-C28C-4B18-9099-13491E1014BA}" name="Column73" dataDxfId="154"/>
+    <tableColumn id="75" xr3:uid="{06354F82-CA83-4BC9-AD47-6DAE051AE825}" name="Column74" dataDxfId="153"/>
+    <tableColumn id="76" xr3:uid="{F6CB8EB8-A80B-4E57-8403-649278867718}" name="Column75" dataDxfId="152"/>
+    <tableColumn id="77" xr3:uid="{14F7364F-BCFF-45CF-9DDD-214EF02AA586}" name="Column76" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5898,97 +6476,97 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2CD7B9FD-CD8D-4CD0-8037-CC57DA8C1F9B}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{864EC4CB-61EA-4974-96C0-4C5EFE066ECA}" name="Size" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{2ED387D9-6ED6-4485-86DA-BA22E804086F}" name="DPI" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{C475F26E-020B-41ED-BCE3-2B21F61F2B72}" name="Dot Pitch" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{29C70336-DB53-4462-BD55-94D899A0A478}" name="Aspect Ratio" dataDxfId="147"/>
+    <tableColumn id="6" xr3:uid="{F4B09846-A112-4626-BD65-20C7D727720D}" name="Pixel Count" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C051C73-A555-4252-8AA7-409E0B6031A4}" name="Table82" displayName="Table82" ref="A1:BY24" totalsRowShown="0" dataDxfId="145">
   <autoFilter ref="A1:BY24" xr:uid="{465F9943-FAFD-4C14-9BF3-2AE477D1AB00}"/>
   <tableColumns count="77">
-    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="109"/>
-    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="108"/>
-    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="107"/>
-    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="106"/>
-    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="105"/>
-    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="104"/>
-    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="103"/>
-    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="102"/>
-    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="101"/>
-    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="100"/>
-    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="99"/>
-    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="98"/>
-    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="97"/>
-    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="96"/>
-    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="95"/>
-    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="94"/>
-    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="93"/>
-    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="92"/>
-    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="91"/>
-    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="90"/>
-    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="89"/>
-    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="88"/>
-    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="87"/>
-    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="86"/>
-    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="85"/>
-    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="84"/>
-    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="83"/>
-    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="82"/>
-    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="81"/>
-    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="80"/>
-    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="79"/>
-    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="78"/>
-    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="77"/>
-    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="76"/>
-    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="75"/>
-    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="74"/>
-    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="73"/>
-    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="72"/>
-    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="71"/>
-    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="70"/>
-    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="69"/>
-    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="68"/>
-    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="67"/>
-    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="66"/>
-    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="65"/>
-    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="64"/>
-    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="63"/>
-    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="62"/>
-    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="61"/>
-    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="60"/>
-    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="59"/>
-    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="58"/>
-    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="57"/>
-    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="56"/>
-    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="55"/>
-    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="54"/>
-    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="53"/>
-    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="52"/>
-    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="51"/>
-    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="50"/>
-    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="49"/>
-    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="48"/>
-    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="47"/>
-    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="46"/>
-    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="45"/>
-    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="44"/>
-    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="43"/>
-    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{F2B2DAF4-D7DC-4F67-B6C5-5F0C5A695C74}" name="Model" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{88162E8A-73DC-4519-B358-F9A1137030D0}" name="VX238H" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{CA218B29-397D-40BD-9732-1140D3D1FFFA}" name="S27D390H" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{22BE5365-BA65-4DC7-A549-5771D928B5A7}" name="PG348Q " dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{53BF5A09-B957-4283-A33A-ADCDD119851A}" name="34UC79G-B" dataDxfId="140"/>
+    <tableColumn id="6" xr3:uid="{67D2ADE4-BDF4-4BE9-9AB4-97ED9263FA20}" name="29UM68-P" dataDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{110C7BA6-2E34-4CC5-B038-87FC25A12134}" name="XG43VQ" dataDxfId="138"/>
+    <tableColumn id="8" xr3:uid="{29C0973F-7B72-49E7-A240-310E608D1B9F}" name="VG27WQ" dataDxfId="137"/>
+    <tableColumn id="9" xr3:uid="{D0D5E03C-C6B3-45F8-9F7E-4E82A484CB57}" name="AW3418DW" dataDxfId="136"/>
+    <tableColumn id="10" xr3:uid="{8FD430BA-8C1F-48F0-B7CE-06A35CBB856E}" name="Column1" dataDxfId="135"/>
+    <tableColumn id="11" xr3:uid="{7A35988E-8236-4494-ACAC-0D88818054DB}" name="Column10" dataDxfId="134"/>
+    <tableColumn id="12" xr3:uid="{D5F9CF41-43AF-4DE1-9812-883FB7A42EF6}" name="Column11" dataDxfId="133"/>
+    <tableColumn id="13" xr3:uid="{C12B9FB6-49CB-4D91-908A-F81F204F391F}" name="Column12" dataDxfId="132"/>
+    <tableColumn id="14" xr3:uid="{8CE43DA7-2CA5-458B-B8E9-E73598B459D5}" name="Column13" dataDxfId="131"/>
+    <tableColumn id="15" xr3:uid="{417B1439-361A-40D0-BBAA-8BA8C143D48A}" name="Column14" dataDxfId="130"/>
+    <tableColumn id="16" xr3:uid="{A5D2BD74-102A-4CC3-B64F-AA48B0F28E27}" name="Column15" dataDxfId="129"/>
+    <tableColumn id="17" xr3:uid="{CA8D7D89-727B-47C6-8156-D0CD8F7320DD}" name="Column16" dataDxfId="128"/>
+    <tableColumn id="18" xr3:uid="{CB161FB6-E384-4C8E-BF21-C5CE9567F1C8}" name="Column17" dataDxfId="127"/>
+    <tableColumn id="19" xr3:uid="{5A5A04B1-BACB-4EE9-9D08-088F07FE3379}" name="Column18" dataDxfId="126"/>
+    <tableColumn id="20" xr3:uid="{3D1200BC-20CA-4951-A530-2AC03F7C168B}" name="Column19" dataDxfId="125"/>
+    <tableColumn id="21" xr3:uid="{5A1AA79C-9B46-4B6E-B5D0-E2E1C1197437}" name="Column20" dataDxfId="124"/>
+    <tableColumn id="22" xr3:uid="{DB03F546-5FC6-4BB9-91C7-77F6930270FF}" name="Column21" dataDxfId="123"/>
+    <tableColumn id="23" xr3:uid="{C4C70712-4C47-4581-91CF-9E0932E12790}" name="Column22" dataDxfId="122"/>
+    <tableColumn id="24" xr3:uid="{8582A0CC-2909-4246-891B-7FEB44A37ECC}" name="Column23" dataDxfId="121"/>
+    <tableColumn id="25" xr3:uid="{F4D162D4-2582-4FB8-94F3-04F5EC625BED}" name="Column24" dataDxfId="120"/>
+    <tableColumn id="26" xr3:uid="{C8028A79-EFB3-43BB-8729-7AA629F0881A}" name="Column25" dataDxfId="119"/>
+    <tableColumn id="27" xr3:uid="{733A9629-D7EA-49A2-BFAE-436BFB7E7D3E}" name="Column26" dataDxfId="118"/>
+    <tableColumn id="28" xr3:uid="{D4B0CEC3-0572-4474-BA65-EA56A772CA8C}" name="Column27" dataDxfId="117"/>
+    <tableColumn id="29" xr3:uid="{6A66CCFA-8ECE-4C3D-B24A-A6C4DD3BA780}" name="Column28" dataDxfId="116"/>
+    <tableColumn id="30" xr3:uid="{4604238F-2E86-4774-8E05-2ECDF947F95F}" name="Column29" dataDxfId="115"/>
+    <tableColumn id="31" xr3:uid="{F2ABBF53-E7E3-461D-9ADB-B16910BD4C67}" name="Column30" dataDxfId="114"/>
+    <tableColumn id="32" xr3:uid="{460978CF-030F-4C4F-9C62-C5C0E007AB7E}" name="Column31" dataDxfId="113"/>
+    <tableColumn id="33" xr3:uid="{A2C824F1-87EE-4897-ADF2-A640F4FAC508}" name="Column32" dataDxfId="112"/>
+    <tableColumn id="34" xr3:uid="{ABD2A971-9C2D-4DD7-B24F-53D1C4D7DC55}" name="Column33" dataDxfId="111"/>
+    <tableColumn id="35" xr3:uid="{F0ADBD2C-A6DC-4725-818D-FF162786A0E8}" name="Column34" dataDxfId="110"/>
+    <tableColumn id="36" xr3:uid="{4F711C84-A3C8-4081-AE75-6ABC7676B312}" name="Column35" dataDxfId="109"/>
+    <tableColumn id="37" xr3:uid="{F16AA72D-DA82-4B61-946F-70EFD601266A}" name="Column36" dataDxfId="108"/>
+    <tableColumn id="38" xr3:uid="{E730415E-7AAC-4721-A88C-AE59383228A3}" name="Column37" dataDxfId="107"/>
+    <tableColumn id="39" xr3:uid="{5AA3BB6A-05A4-4A09-A635-CF178535888E}" name="Column38" dataDxfId="106"/>
+    <tableColumn id="40" xr3:uid="{131D2E5E-FC3F-4B6E-8EE0-366D2E42CEED}" name="Column39" dataDxfId="105"/>
+    <tableColumn id="41" xr3:uid="{304FA2AE-CA11-4BCC-BD74-847B5CE682B7}" name="Column40" dataDxfId="104"/>
+    <tableColumn id="42" xr3:uid="{2DB029D0-0519-4CAD-B3F0-E8AD8FD654C3}" name="Column41" dataDxfId="103"/>
+    <tableColumn id="43" xr3:uid="{996A9255-2923-4F3B-A16B-305CC7BF0239}" name="Column42" dataDxfId="102"/>
+    <tableColumn id="44" xr3:uid="{43425103-439B-4EFF-8BA0-72977309CC11}" name="Column43" dataDxfId="101"/>
+    <tableColumn id="45" xr3:uid="{4CEB22B4-D9C8-4266-80A3-A899275E5E74}" name="Column44" dataDxfId="100"/>
+    <tableColumn id="46" xr3:uid="{B0AE884F-D349-4FD4-9175-C81CA2B369C6}" name="Column45" dataDxfId="99"/>
+    <tableColumn id="47" xr3:uid="{C0173AA1-DC63-473B-85FD-E4C66EE49A3C}" name="Column46" dataDxfId="98"/>
+    <tableColumn id="48" xr3:uid="{A6182A94-E534-40F8-A205-7A6A21803EBA}" name="Column47" dataDxfId="97"/>
+    <tableColumn id="49" xr3:uid="{91D9550E-FADB-4978-9426-497FF46DC9E3}" name="Column48" dataDxfId="96"/>
+    <tableColumn id="50" xr3:uid="{58990104-0E52-45A6-8453-100A526996DC}" name="Column49" dataDxfId="95"/>
+    <tableColumn id="51" xr3:uid="{A3BF424C-19A4-4753-B44D-1DAF5BB9EFC7}" name="Column50" dataDxfId="94"/>
+    <tableColumn id="52" xr3:uid="{36C133ED-6BF8-4DC0-82AF-71B840C381E2}" name="Column51" dataDxfId="93"/>
+    <tableColumn id="53" xr3:uid="{19778976-A2C8-4043-A407-402EEDDEC050}" name="Column52" dataDxfId="92"/>
+    <tableColumn id="54" xr3:uid="{D6F70C31-872D-4435-9DCC-23F43F6B4864}" name="Column53" dataDxfId="91"/>
+    <tableColumn id="55" xr3:uid="{46ECDEB3-1B68-4310-BA15-880CE6BFADD6}" name="Column54" dataDxfId="90"/>
+    <tableColumn id="56" xr3:uid="{585B9C9B-449C-4B63-9DDF-5BCE56FC1ACF}" name="Column55" dataDxfId="89"/>
+    <tableColumn id="57" xr3:uid="{5A840239-DC33-4A2F-8D30-5D6B1E642F1B}" name="Column56" dataDxfId="88"/>
+    <tableColumn id="58" xr3:uid="{FEC77207-1794-4A36-99D9-E1462F1E877E}" name="Column57" dataDxfId="87"/>
+    <tableColumn id="59" xr3:uid="{3846DCFC-29A9-4CE3-B238-04C9F6429691}" name="Column58" dataDxfId="86"/>
+    <tableColumn id="60" xr3:uid="{8EEA845A-D07E-4B90-BC96-EC25C0613B93}" name="Column59" dataDxfId="85"/>
+    <tableColumn id="61" xr3:uid="{48BDFBA8-93EC-473C-8A06-CD9E2DA5323C}" name="Column60" dataDxfId="84"/>
+    <tableColumn id="62" xr3:uid="{58EBF952-9242-4F61-BE34-9D59BFCCE1CE}" name="Column61" dataDxfId="83"/>
+    <tableColumn id="63" xr3:uid="{8AB6B9CA-A82E-4C53-87A2-3C20DDC5FA5A}" name="Column62" dataDxfId="82"/>
+    <tableColumn id="64" xr3:uid="{372996DA-B97A-4475-B9A6-3AA91F0757DA}" name="Column63" dataDxfId="81"/>
+    <tableColumn id="65" xr3:uid="{2AE5D8FF-4AB5-4B2B-A2D0-0DFC56AA7F19}" name="Column64" dataDxfId="80"/>
+    <tableColumn id="66" xr3:uid="{4AF4BAD7-E407-48DC-8B8F-C71AF3E82487}" name="Column65" dataDxfId="79"/>
+    <tableColumn id="67" xr3:uid="{C32570B6-41A7-41CF-AB20-683CABF9DE8D}" name="Column66" dataDxfId="78"/>
+    <tableColumn id="68" xr3:uid="{89AF9E28-5F2D-46AB-9DA3-F81ADAC28BFE}" name="Column67" dataDxfId="77"/>
+    <tableColumn id="69" xr3:uid="{7419576A-19DD-463B-8D2B-F6BA3CC83AE7}" name="Column68" dataDxfId="76"/>
+    <tableColumn id="70" xr3:uid="{C3591DFC-F647-488E-B186-57DCCC83E4EA}" name="Column69" dataDxfId="75"/>
+    <tableColumn id="71" xr3:uid="{F4F580A4-D09B-44F8-AF83-CDDB7FF6E208}" name="Column70" dataDxfId="74"/>
+    <tableColumn id="72" xr3:uid="{FC794489-02A3-4173-A0CE-8798FCD9D421}" name="Column71" dataDxfId="73"/>
+    <tableColumn id="73" xr3:uid="{6DD14E39-C19B-4840-9FC3-38C779671E58}" name="Column72" dataDxfId="72"/>
+    <tableColumn id="74" xr3:uid="{BCF3A768-3421-48E7-8EE1-F80C439EE4A0}" name="Column73" dataDxfId="71"/>
+    <tableColumn id="75" xr3:uid="{19E9D075-B205-4565-83CA-6EED93876801}" name="Column74" dataDxfId="70"/>
+    <tableColumn id="76" xr3:uid="{B5EF2CCF-AE53-40A6-BD18-FAD9DC244AAE}" name="Column75" dataDxfId="69"/>
+    <tableColumn id="77" xr3:uid="{EF24321A-7F94-4269-B169-F6F795AA6EE5}" name="Column76" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5999,11 +6577,11 @@
   <autoFilter ref="A30:F39" xr:uid="{359D321E-3B47-4128-B15F-7632070A8CAC}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9A0F2872-1CF9-478E-BB3E-C3BEC30B1A55}" name="Resolution"/>
-    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E3A2140D-645E-4F29-98E1-8984915A952F}" name="Size" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{6C7F6E7B-FD92-4939-A0DB-7312FD9899DD}" name="DPI" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{4EB9F4A9-C27A-47EE-9936-11F76666EF03}" name="Dot Pitch" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{468DA3C8-D32A-46F0-9560-F0BEC78AE29C}" name="Aspect Ratio" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{1103B280-14F4-4CE5-940C-04AEC2796AD9}" name="Pixel Count" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6013,10 +6591,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75AD2E6B-3CFB-4888-BA85-17D50CBE3300}" name="Table7" displayName="Table7" ref="A1:E707" totalsRowShown="0">
   <autoFilter ref="A1:E707" xr:uid="{84505438-C866-4F5A-8F4C-65EF4911D1A5}"/>
   <tableColumns count="5">
-    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{08E6D4DB-8D17-4610-903B-A1DFF60C62A9}" name="#" dataDxfId="62"/>
     <tableColumn id="1" xr3:uid="{73CBD28F-5D66-4BC2-A0B5-D7D2144D6DF9}" name="CPU"/>
-    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{354A5BA4-65AF-4A8B-8628-FB3578B4BE2A}" name="%" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{AA121F95-3B3C-4B53-BBAF-C4422C694F54}" name="Score" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{62C3F821-6745-42A7-A90F-2F55C135BE89}" name="Cost"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6024,13 +6602,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD736B06-A3BA-4326-8A54-4B6476B41954}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D21" xr:uid="{43A2B4D5-DD4B-45D1-9CE3-214D81EF0973}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{ADD6AC75-ABCD-43AB-8121-0331AA721389}" name="Field" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{E4A54E87-04F4-4B79-ADE7-EADD51C892F1}" name="Min. Goal" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{12254827-E81D-4E40-8C4A-AEFB4F10D943}" name="Max. Goal" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3E0F07DE-82A0-47C9-A98D-9EE22F6A143B}" name="Notes" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6044,27 +6622,27 @@
   </sortState>
   <tableColumns count="17">
     <tableColumn id="16" xr3:uid="{41845326-1A04-4644-BDF1-B10877EBF9D3}" name="#"/>
-    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="26"/>
+    <tableColumn id="21" xr3:uid="{0F38EF53-4B74-4B7D-9F24-B3A6274C4BF8}" name="PTS" dataDxfId="53"/>
+    <tableColumn id="19" xr3:uid="{BC7C375F-E09F-4E60-975A-3AEFCB0A9985}" name="CPU" dataDxfId="52"/>
     <tableColumn id="1" xr3:uid="{87EEEE7D-8A7C-4C24-9598-DB325FC0FC09}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{893697FC-BC3F-41D5-9F18-66756D938A6C}" name="Model"/>
     <tableColumn id="3" xr3:uid="{F6D54D7C-6DE6-4F6C-B53C-456B9C834017}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{2A688068-02CF-405A-8CE9-17AECCC908BA}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="25">
+    <tableColumn id="14" xr3:uid="{9C634D75-C925-4A69-A7F0-6CE82F00B933}" name="AL" dataDxfId="51">
       <calculatedColumnFormula>IFERROR(($G2*(1/((1000000*$F2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{9D2AC746-C18E-4356-9A3F-CFCC480B0E67}" name="V"/>
     <tableColumn id="6" xr3:uid="{1627D630-B3C2-4191-B028-B9DEC53B6B60}" name="GBs"/>
     <tableColumn id="4" xr3:uid="{229A9ACB-0A32-475C-BB13-BD1A94F0A138}" name="Stix"/>
-    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{7FFF71CC-C240-4FC6-9C5F-537F82A624A7}" name="GB" dataDxfId="50">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[GBs]]/Table412[[#This Row],[Stix]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E364F542-415A-4E85-BF8A-22B0E46F000B}" name="Cost" dataCellStyle="Currency"/>
     <tableColumn id="8" xr3:uid="{65313B8E-7D92-44F7-B255-26CBDCEEB288}" name="$ / GB" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table412[[#This Row],[Cost]]/Table412[[#This Row],[GBs]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="23" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{92EF0394-2301-4F86-A3B3-7DCD4D230E28}" name="Released" dataDxfId="49" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{D2CAEB5B-3BD2-4F03-97ED-89C20A886BE5}" name="Timing" dataDxfId="48"/>
     <tableColumn id="11" xr3:uid="{5CBFD6EE-B1A8-4C06-AB9B-583A7FF37E01}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6078,12 +6656,12 @@
     <sortCondition ref="F1:F51"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{D3438CFC-0197-43EF-969A-92A4CABEC2CB}" name="CPU" dataDxfId="47"/>
     <tableColumn id="1" xr3:uid="{00F985A0-278B-4BEE-9509-E874A28D20BD}" name="Brand"/>
     <tableColumn id="10" xr3:uid="{65A9EA8D-E6E3-4486-B6EF-A413122EC015}" name="Model"/>
     <tableColumn id="3" xr3:uid="{8DAC12E2-07C9-43C5-AD67-DE497EE6A39F}" name="GHz"/>
     <tableColumn id="15" xr3:uid="{1106C5C3-DF2D-4173-89F5-DA284ED9A543}" name="CL"/>
-    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="20">
+    <tableColumn id="14" xr3:uid="{45C399DD-B031-4683-9ED9-BB2D590012A4}" name="AL" dataDxfId="46">
       <calculatedColumnFormula>IFERROR(($E2*(1/((1000000*$D2)/2))*1000000000),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{AE191B81-1B0C-4951-8F06-FD540A0596C2}" name="V"/>
@@ -8703,10 +9281,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED04D34-623F-457E-8FEC-87623C634490}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8888,29 +9466,23 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B13">
+      <c r="B12" s="64">
         <f>SUBTOTAL(103,Table5714[Brand])</f>
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C12" s="64">
         <f>SUBTOTAL(103,Table5714[Model])</f>
         <v>9</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D12" s="65">
         <f>SUBTOTAL(109,Table5714[Cost])</f>
         <v>1616.42</v>
       </c>
-      <c r="E13">
+      <c r="E12" s="64">
         <f>SUBTOTAL(103,Table5714[Notes])</f>
         <v>6</v>
       </c>
@@ -8934,6 +9506,697 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
     <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA60C0B-E3D4-4DBA-8DB5-1F6456CF429F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D3" s="26">
+        <v>504.99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D4" s="26">
+        <v>149.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D5" s="26">
+        <v>214.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D6" s="26">
+        <v>429.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D7" s="26">
+        <v>54.99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D8" s="26">
+        <v>57.99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D9" s="26">
+        <v>569.99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D10" s="26">
+        <v>129.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D11" s="26">
+        <v>109.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B12" s="64">
+        <f>SUBTOTAL(103,Table571415[Brand])</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="64">
+        <f>SUBTOTAL(103,Table571415[Model])</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="65">
+        <f>SUBTOTAL(109,Table571415[Cost])</f>
+        <v>2222.91</v>
+      </c>
+      <c r="E12" s="64">
+        <f>SUBTOTAL(103,Table571415[Notes])</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{09E5FE7E-6072-4BC6-A5CD-E4DA4FDAC252}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4D4B2EA7-3541-42C4-B6E1-04D3922E37FF}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{0755E369-2820-4BF4-AABE-514B4F5DACFC}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0FAA9F1-8931-4657-9B2A-F7B4ACA27B93}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{5A893A75-122F-4BEB-8478-B9937587090E}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A1224553-309C-4856-86B4-ABA04DD726A8}"/>
+    <hyperlink ref="C8" r:id="rId7" display="S40G RGB" xr:uid="{1F5C2DBA-1F66-4874-B1E8-23E418237D29}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{2464F8F1-FDCD-49D9-8989-F61FA4305F92}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{CD36CE9E-71B4-47A1-AB98-FF9789CAA8D1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ABD174-195A-4BCD-AC60-FC42F7D4F885}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D3" s="26">
+        <v>504.99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D4" s="26">
+        <v>149.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D5" s="26">
+        <v>214.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D6" s="26">
+        <v>429.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D7" s="26">
+        <v>54.99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D8" s="26">
+        <v>57.99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D9" s="26">
+        <v>569.99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D10" s="26">
+        <v>129.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D11" s="26">
+        <v>109.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B12" s="63">
+        <f>SUBTOTAL(103,Table57141516[Brand])</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="63">
+        <f>SUBTOTAL(103,Table57141516[Model])</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="71">
+        <f>SUBTOTAL(109,Table57141516[Cost])</f>
+        <v>2222.91</v>
+      </c>
+      <c r="E12" s="63">
+        <f>SUBTOTAL(103,Table57141516[Notes])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D15" s="26">
+        <v>434</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D16" s="26">
+        <v>89.99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D17" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D18" s="26">
+        <v>82.99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D19" s="26">
+        <v>99.99</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D20" s="26">
+        <v>169.99</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D21" s="26">
+        <v>349.49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D22" s="26">
+        <v>159.99</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D23" s="26">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B24" s="58">
+        <f>SUBTOTAL(103,Table571417[Brand])</f>
+        <v>9</v>
+      </c>
+      <c r="C24" s="58">
+        <f>SUBTOTAL(103,Table571417[Model])</f>
+        <v>9</v>
+      </c>
+      <c r="D24" s="69">
+        <f>SUBTOTAL(109,Table571417[Cost])</f>
+        <v>1616.42</v>
+      </c>
+      <c r="E24" s="58">
+        <f>SUBTOTAL(103,Table571417[Notes])</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{9F8A95CE-6819-4C2B-A960-A4ADE2D48A93}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E4B7EA33-B82C-4A4E-B2EC-B5A590253D21}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A9C4F239-59D9-4F71-8014-FA23070FA0F2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0D22C67D-B1F9-437B-8511-FD46F76E8D5D}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{227675C5-B298-465A-8252-F2644B736F64}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{5E234AB0-46F1-4801-9FDC-BB37DD269211}"/>
+    <hyperlink ref="C8" r:id="rId7" display="S40G RGB" xr:uid="{544F7AAE-9317-4065-B229-9C5AD572E975}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{581B87F1-A46C-4516-93DB-BB90C5F3FCDB}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{84F9E224-256A-4017-BE22-84F57E4E1D1C}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{F5F6377F-BF97-4443-8B69-F4E68E4FB49A}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{DF268190-D082-4CBE-95C6-182615A3BCBF}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{C1EE5972-A751-445C-9245-58B8CA27C9E3}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{FD9B2C62-A6DC-46B9-AC9B-0967FB57A6A4}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{192F506A-86FE-45AA-A0AE-4F8D06E0FAE8}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{8693678D-BE1E-48C7-8071-926680BDBBA0}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{6566C99A-22BB-44DE-94AA-82AC2368465D}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{2F6FC8EA-8C6B-482F-AFC7-CEAE9076CB00}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{17398683-DA6F-4102-8D00-C61C424120F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
+  <tableParts count="2">
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
